--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Desktop\Respaldo_Susana\Enero2021\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61945483-1912-4B5B-993E-064AE57652DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DBF948F-03B6-4304-BB19-080E71B7BBDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="32">
   <si>
     <t>Agricultura, Ganadería, Silvicultura y Pesca</t>
   </si>
@@ -164,13 +164,16 @@
     </r>
   </si>
   <si>
-    <t>Por división económica 2007 - 2020</t>
+    <t>2008 - 2021</t>
   </si>
   <si>
-    <t>Var Ene 2021 respecto a Dic 2020</t>
+    <t>Var Feb 2021 respecto a Ene 2021</t>
   </si>
   <si>
-    <t>2008 - 2021</t>
+    <t>Var Feb 2021 respecto a Dic 2020</t>
+  </si>
+  <si>
+    <t>Por división económica 2007 - 2021</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1069,6 +1072,9 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1081,16 +1087,16 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="41" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1119,6 +1125,12 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -7105,21 +7117,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ23"/>
+  <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD37"/>
+      <selection activeCell="O8" sqref="O8:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="15" width="8.1796875" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" customWidth="1"/>
-    <col min="17" max="23" width="11.453125" customWidth="1"/>
+    <col min="2" max="15" width="7.90625" customWidth="1"/>
+    <col min="16" max="17" width="8.1796875" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" customWidth="1"/>
+    <col min="19" max="25" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -7128,14 +7141,14 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -7152,15 +7165,17 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -7177,15 +7192,17 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7202,8 +7219,10 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -7220,58 +7239,64 @@
       <c r="N5" s="66"/>
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
       <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
       <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="68">
@@ -7313,18 +7338,22 @@
       <c r="N8" s="83">
         <v>2020</v>
       </c>
-      <c r="O8" s="83">
+      <c r="O8" s="102">
         <v>2021</v>
       </c>
-      <c r="P8" s="88" t="s">
+      <c r="P8" s="102"/>
+      <c r="Q8" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="91" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90"/>
       <c r="B9" s="67" t="s">
         <v>23</v>
       </c>
@@ -7367,12 +7396,16 @@
       <c r="O9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="P9" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
       <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" s="23" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" s="23" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -7418,15 +7451,22 @@
       <c r="O10" s="36">
         <v>113465</v>
       </c>
-      <c r="P10" s="53">
-        <f>O10-N10</f>
-        <v>1698</v>
-      </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="P10" s="36">
+        <v>114511</v>
+      </c>
+      <c r="Q10" s="36">
+        <f>P10-O10</f>
+        <v>1046</v>
+      </c>
+      <c r="R10" s="53">
+        <f>P10-N10</f>
+        <v>2744</v>
+      </c>
       <c r="S10" s="22"/>
-    </row>
-    <row r="11" spans="1:21" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -7472,15 +7512,22 @@
       <c r="O11" s="36">
         <v>364953</v>
       </c>
-      <c r="P11" s="53">
-        <f t="shared" ref="P11:P17" si="0">O11-N11</f>
-        <v>-2046</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="P11" s="36">
+        <v>367054</v>
+      </c>
+      <c r="Q11" s="36">
+        <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
+        <v>2101</v>
+      </c>
+      <c r="R11" s="53">
+        <f t="shared" ref="R11:R18" si="1">P11-N11</f>
+        <v>55</v>
+      </c>
       <c r="S11" s="22"/>
-    </row>
-    <row r="12" spans="1:21" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+    </row>
+    <row r="12" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
@@ -7526,15 +7573,22 @@
       <c r="O12" s="36">
         <v>135474</v>
       </c>
-      <c r="P12" s="53">
+      <c r="P12" s="36">
+        <v>135332</v>
+      </c>
+      <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>2325</v>
-      </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+        <v>-142</v>
+      </c>
+      <c r="R12" s="53">
+        <f t="shared" si="1"/>
+        <v>2183</v>
+      </c>
       <c r="S12" s="22"/>
-    </row>
-    <row r="13" spans="1:21" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+    </row>
+    <row r="13" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -7580,15 +7634,22 @@
       <c r="O13" s="36">
         <v>9992</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="36">
+        <v>10000</v>
+      </c>
+      <c r="Q13" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="R13" s="53">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="S13" s="22"/>
-    </row>
-    <row r="14" spans="1:21" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+    </row>
+    <row r="14" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
@@ -7634,15 +7695,22 @@
       <c r="O14" s="36">
         <v>455835</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="36">
+        <v>461408</v>
+      </c>
+      <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>3294</v>
-      </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
+        <v>5573</v>
+      </c>
+      <c r="R14" s="53">
+        <f t="shared" si="1"/>
+        <v>8867</v>
+      </c>
       <c r="S14" s="22"/>
-    </row>
-    <row r="15" spans="1:21" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+    </row>
+    <row r="15" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
@@ -7688,15 +7756,22 @@
       <c r="O15" s="36">
         <v>2772</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="36">
+        <v>2577</v>
+      </c>
+      <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+        <v>-195</v>
+      </c>
+      <c r="R15" s="53">
+        <f t="shared" si="1"/>
+        <v>-161</v>
+      </c>
       <c r="S15" s="22"/>
-    </row>
-    <row r="16" spans="1:21" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+    </row>
+    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
@@ -7742,15 +7817,22 @@
       <c r="O16" s="36">
         <v>616421</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="36">
+        <v>621192</v>
+      </c>
+      <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>1649</v>
-      </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+        <v>4771</v>
+      </c>
+      <c r="R16" s="53">
+        <f t="shared" si="1"/>
+        <v>6420</v>
+      </c>
       <c r="S16" s="22"/>
-    </row>
-    <row r="17" spans="1:62" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="1:64" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -7796,64 +7878,71 @@
       <c r="O17" s="36">
         <v>88210</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="36">
+        <v>88659</v>
+      </c>
+      <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>-207</v>
-      </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
+        <v>449</v>
+      </c>
+      <c r="R17" s="53">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
       <c r="S17" s="22"/>
-    </row>
-    <row r="18" spans="1:62" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+    </row>
+    <row r="18" spans="1:64" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="54">
-        <f t="shared" ref="B18:E18" si="1">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:E18" si="2">SUM(B10:B17)</f>
         <v>1204590</v>
       </c>
       <c r="C18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1208019</v>
       </c>
       <c r="D18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1263487</v>
       </c>
       <c r="E18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1308282</v>
       </c>
       <c r="F18" s="54">
-        <f t="shared" ref="F18:J18" si="2">SUM(F10:F17)</f>
+        <f t="shared" ref="F18:J18" si="3">SUM(F10:F17)</f>
         <v>1349657</v>
       </c>
       <c r="G18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1397248</v>
       </c>
       <c r="H18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1463340</v>
       </c>
       <c r="I18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1535255</v>
       </c>
       <c r="J18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1624237</v>
       </c>
       <c r="K18" s="54">
-        <f t="shared" ref="K18:M18" si="3">SUM(K10:K17)</f>
+        <f t="shared" ref="K18:M18" si="4">SUM(K10:K17)</f>
         <v>1717868</v>
       </c>
       <c r="L18" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1761000</v>
       </c>
       <c r="M18" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1812699</v>
       </c>
       <c r="N18" s="54">
@@ -7864,14 +7953,21 @@
         <v>1787122</v>
       </c>
       <c r="P18" s="54">
-        <f>SUM(P10:P17)</f>
-        <v>6755</v>
-      </c>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
+        <v>1800733</v>
+      </c>
+      <c r="Q18" s="57">
+        <f t="shared" si="0"/>
+        <v>13611</v>
+      </c>
+      <c r="R18" s="103">
+        <f t="shared" si="1"/>
+        <v>20366</v>
+      </c>
       <c r="S18" s="24"/>
-    </row>
-    <row r="19" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+    </row>
+    <row r="19" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="61"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -7886,29 +7982,33 @@
       <c r="M19" s="71"/>
       <c r="N19" s="71"/>
       <c r="O19" s="71"/>
-      <c r="P19" s="70"/>
-    </row>
-    <row r="20" spans="1:62" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="70"/>
+    </row>
+    <row r="20" spans="1:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-    </row>
-    <row r="21" spans="1:62" s="18" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+    </row>
+    <row r="21" spans="1:64" s="18" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -7925,13 +8025,15 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-    </row>
-    <row r="22" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:62" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -7993,20 +8095,24 @@
       <c r="BH23" s="14"/>
       <c r="BI23" s="14"/>
       <c r="BJ23" s="14"/>
+      <c r="BK23" s="14"/>
+      <c r="BL23" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A11:K17">
     <sortCondition ref="A10:A17"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="A20:P20"/>
+  <mergeCells count="10">
+    <mergeCell ref="A20:R20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:Q9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -8051,55 +8157,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2014</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -8117,60 +8223,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2014</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -8737,21 +8843,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:95" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -8858,55 +8964,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2015</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -8924,60 +9030,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2015</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -9513,21 +9619,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -9632,55 +9738,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2016</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -9698,60 +9804,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2016</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -10294,21 +10400,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -10417,55 +10523,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2017</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -10483,60 +10589,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2017</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11079,21 +11185,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -11203,55 +11309,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2018</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -11269,60 +11375,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2018</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11865,21 +11971,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -11992,55 +12098,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2019</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -12058,60 +12164,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2019</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -12654,21 +12760,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -12778,55 +12884,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2020</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -12844,60 +12950,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2020</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -13440,21 +13546,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -13535,7 +13641,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13564,55 +13670,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2021</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -13630,60 +13736,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2021</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -13728,7 +13834,9 @@
       <c r="B10" s="76">
         <v>113465</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="76">
+        <v>114511</v>
+      </c>
       <c r="D10" s="76"/>
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
@@ -13747,7 +13855,9 @@
       <c r="B11" s="36">
         <v>364953</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="36">
+        <v>367054</v>
+      </c>
       <c r="D11" s="36"/>
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
@@ -13766,7 +13876,9 @@
       <c r="B12" s="76">
         <v>135474</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="76">
+        <v>135332</v>
+      </c>
       <c r="D12" s="76"/>
       <c r="E12" s="77"/>
       <c r="F12" s="77"/>
@@ -13785,7 +13897,9 @@
       <c r="B13" s="36">
         <v>9992</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="36">
+        <v>10000</v>
+      </c>
       <c r="D13" s="36"/>
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
@@ -13804,7 +13918,9 @@
       <c r="B14" s="76">
         <v>455835</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="76">
+        <v>461408</v>
+      </c>
       <c r="D14" s="76"/>
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
@@ -13823,7 +13939,9 @@
       <c r="B15" s="36">
         <v>2772</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36">
+        <v>2577</v>
+      </c>
       <c r="D15" s="36"/>
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
@@ -13842,7 +13960,9 @@
       <c r="B16" s="76">
         <v>616421</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="76">
+        <v>621192</v>
+      </c>
       <c r="D16" s="76"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
@@ -13861,7 +13981,9 @@
       <c r="B17" s="36">
         <v>88210</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="36">
+        <v>88659</v>
+      </c>
       <c r="D17" s="36"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
@@ -13882,11 +14004,10 @@
         <v>1787122</v>
       </c>
       <c r="C18" s="81">
-        <f t="shared" ref="C18:M18" si="0">SUM(C10:C17)</f>
-        <v>0</v>
+        <v>1800733</v>
       </c>
       <c r="D18" s="81">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C18:M18" si="0">SUM(D10:D17)</f>
         <v>0</v>
       </c>
       <c r="E18" s="81">
@@ -13939,12 +14060,12 @@
         <v>0.37941615408507712</v>
       </c>
       <c r="C19" s="58">
-        <f t="shared" ref="C19:H19" si="1">+(C18-B18)/B18*100</f>
+        <f>+(C18-B18)/B18*100</f>
+        <v>0.76161560318769506</v>
+      </c>
+      <c r="D19" s="58">
+        <f t="shared" ref="C19:H19" si="1">+(D18-C18)/C18*100</f>
         <v>-100</v>
-      </c>
-      <c r="D19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="E19" s="58" t="e">
         <f t="shared" si="1"/>
@@ -14050,21 +14171,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -14179,21 +14300,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:44" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -14227,21 +14348,21 @@
       <c r="AR2" s="4"/>
     </row>
     <row r="3" spans="1:44" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -14275,21 +14396,21 @@
       <c r="AR3" s="8"/>
     </row>
     <row r="4" spans="1:44" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2000</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -14357,21 +14478,21 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14396,21 +14517,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14435,26 +14556,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:44" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="95">
         <v>2000</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
     </row>
     <row r="9" spans="1:44" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -14982,36 +15103,36 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -15106,55 +15227,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2001</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
@@ -15169,60 +15290,60 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="95">
         <v>2001</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
     </row>
     <row r="9" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -15709,36 +15830,36 @@
       <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
     </row>
     <row r="23" spans="1:13" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -15831,21 +15952,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -15860,21 +15981,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -15889,21 +16010,21 @@
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2008</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -15945,21 +16066,21 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -15974,21 +16095,21 @@
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -16003,26 +16124,26 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2008</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -16591,21 +16712,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -16742,21 +16863,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -16771,21 +16892,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -16800,21 +16921,21 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2009</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -16856,21 +16977,21 @@
       <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -16885,21 +17006,21 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -16914,26 +17035,26 @@
       <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:25" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2009</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -17509,21 +17630,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -17662,21 +17783,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -17690,21 +17811,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -17718,21 +17839,21 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2010</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -17772,21 +17893,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -17800,21 +17921,21 @@
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -17828,26 +17949,26 @@
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="1:24" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2010</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -18429,21 +18550,21 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:107" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -18589,21 +18710,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -18613,21 +18734,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -18637,21 +18758,21 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2011</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -18683,21 +18804,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -18707,21 +18828,21 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -18731,26 +18852,26 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2011</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -19318,21 +19439,21 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -19480,57 +19601,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2012</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -19550,62 +19671,62 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2012</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -20173,21 +20294,21 @@
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -20312,57 +20433,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>2013</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -20382,62 +20503,62 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="98">
+      <c r="B8" s="99">
         <v>2013</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -21007,21 +21128,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DBF948F-03B6-4304-BB19-080E71B7BBDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Gral 08-21" sheetId="21" r:id="rId1"/>
@@ -36,7 +35,7 @@
     <definedName name="rowNest1" localSheetId="10">'2015'!#REF!</definedName>
     <definedName name="sortIcon" localSheetId="10">'2015'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -167,19 +166,19 @@
     <t>2008 - 2021</t>
   </si>
   <si>
-    <t>Var Feb 2021 respecto a Ene 2021</t>
+    <t>Por división económica 2007 - 2021</t>
   </si>
   <si>
-    <t>Var Feb 2021 respecto a Dic 2020</t>
+    <t>Var Mar 2021 respecto a Feb 2021</t>
   </si>
   <si>
-    <t>Por división económica 2007 - 2021</t>
+    <t>Var Mar 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1075,6 +1074,9 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1098,6 +1100,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="41" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1125,12 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1169,12 +1168,12 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Neutral" xfId="13" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal_INDICA18" xfId="2" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal_INDICA8" xfId="3" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal_Trab_Comer_Jal" xfId="4" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Notas 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 2" xfId="46"/>
+    <cellStyle name="Normal 2 3" xfId="48"/>
+    <cellStyle name="Normal_INDICA18" xfId="2"/>
+    <cellStyle name="Normal_INDICA8" xfId="3"/>
+    <cellStyle name="Normal_Trab_Comer_Jal" xfId="4"/>
+    <cellStyle name="Notas 2" xfId="47"/>
     <cellStyle name="Porcentaje" xfId="5" builtinId="5"/>
     <cellStyle name="Salida" xfId="15" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="19" builtinId="11" customBuiltin="1"/>
@@ -6872,23 +6871,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6924,23 +6906,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7116,23 +7081,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:R9"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="15" width="7.90625" customWidth="1"/>
-    <col min="16" max="17" width="8.1796875" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" customWidth="1"/>
-    <col min="19" max="25" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="15" width="7.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="19" max="25" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -7141,14 +7107,14 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -7168,14 +7134,14 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -7195,14 +7161,14 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7222,7 +7188,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -7245,58 +7211,58 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="68">
@@ -7338,22 +7304,22 @@
       <c r="N8" s="83">
         <v>2020</v>
       </c>
-      <c r="O8" s="102">
+      <c r="O8" s="94">
         <v>2021</v>
       </c>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="91" t="s">
+      <c r="P8" s="94"/>
+      <c r="Q8" s="92" t="s">
         <v>30</v>
+      </c>
+      <c r="R8" s="92" t="s">
+        <v>31</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="91"/>
       <c r="B9" s="67" t="s">
         <v>23</v>
       </c>
@@ -7394,18 +7360,18 @@
         <v>23</v>
       </c>
       <c r="O9" s="74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P9" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
+        <v>14</v>
+      </c>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="23" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -7449,24 +7415,24 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>113465</v>
+        <v>114511</v>
       </c>
       <c r="P10" s="36">
-        <v>114511</v>
+        <v>112922</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>1046</v>
+        <v>-1589</v>
       </c>
       <c r="R10" s="53">
         <f>P10-N10</f>
-        <v>2744</v>
+        <v>1155</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
     </row>
-    <row r="11" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -7510,24 +7476,24 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>364953</v>
+        <v>367054</v>
       </c>
       <c r="P11" s="36">
-        <v>367054</v>
+        <v>368633</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>2101</v>
+        <v>1579</v>
       </c>
       <c r="R11" s="53">
         <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>55</v>
+        <v>1634</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
@@ -7571,24 +7537,24 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>135474</v>
+        <v>135332</v>
       </c>
       <c r="P12" s="36">
-        <v>135332</v>
+        <v>134646</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>-142</v>
+        <v>-686</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="1"/>
-        <v>2183</v>
+        <v>1497</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
     </row>
-    <row r="13" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -7632,24 +7598,24 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>9992</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="36">
-        <v>10000</v>
+        <v>10132</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
@@ -7693,24 +7659,24 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>455835</v>
+        <v>461408</v>
       </c>
       <c r="P14" s="36">
-        <v>461408</v>
+        <v>462527</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>5573</v>
+        <v>1119</v>
       </c>
       <c r="R14" s="53">
         <f t="shared" si="1"/>
-        <v>8867</v>
+        <v>9986</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
     </row>
-    <row r="15" spans="1:23" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
@@ -7754,24 +7720,24 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2772</v>
+        <v>2577</v>
       </c>
       <c r="P15" s="36">
-        <v>2577</v>
+        <v>2534</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>-195</v>
+        <v>-43</v>
       </c>
       <c r="R15" s="53">
         <f t="shared" si="1"/>
-        <v>-161</v>
+        <v>-204</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
     </row>
-    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
@@ -7815,24 +7781,24 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>616421</v>
+        <v>621192</v>
       </c>
       <c r="P16" s="36">
-        <v>621192</v>
+        <v>624178</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>4771</v>
+        <v>2986</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="1"/>
-        <v>6420</v>
+        <v>9406</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
     </row>
-    <row r="17" spans="1:64" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -7876,24 +7842,24 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>88210</v>
+        <v>88659</v>
       </c>
       <c r="P17" s="36">
-        <v>88659</v>
+        <v>88047</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>449</v>
+        <v>-612</v>
       </c>
       <c r="R17" s="53">
         <f t="shared" si="1"/>
-        <v>242</v>
+        <v>-370</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
     </row>
-    <row r="18" spans="1:64" s="25" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -7950,24 +7916,25 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1787122</v>
+        <v>1800733</v>
       </c>
       <c r="P18" s="54">
-        <v>1800733</v>
+        <f>SUM(P10:P17)</f>
+        <v>1803619</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>13611</v>
-      </c>
-      <c r="R18" s="103">
+        <v>2886</v>
+      </c>
+      <c r="R18" s="85">
         <f t="shared" si="1"/>
-        <v>20366</v>
+        <v>23252</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -7986,29 +7953,29 @@
       <c r="Q19" s="71"/>
       <c r="R19" s="70"/>
     </row>
-    <row r="20" spans="1:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+    <row r="20" spans="1:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-    </row>
-    <row r="21" spans="1:64" s="18" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+    </row>
+    <row r="21" spans="1:64" s="18" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -8028,12 +7995,12 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:64" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8125,21 +8092,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -8156,58 +8123,58 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2014</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8222,61 +8189,61 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2014</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -8314,7 +8281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -8355,7 +8322,7 @@
         <v>77509</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -8396,7 +8363,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -8437,7 +8404,7 @@
         <v>363344</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -8478,7 +8445,7 @@
         <v>107248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -8519,7 +8486,7 @@
         <v>9548</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -8560,7 +8527,7 @@
         <v>295797</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -8601,7 +8568,7 @@
         <v>66390</v>
       </c>
     </row>
-    <row r="17" spans="1:95" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -8642,7 +8609,7 @@
         <v>540644</v>
       </c>
     </row>
-    <row r="18" spans="1:95" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -8695,7 +8662,7 @@
         <v>1463340</v>
       </c>
     </row>
-    <row r="19" spans="1:95" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:95" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -8830,7 +8797,7 @@
       <c r="CP19" s="47"/>
       <c r="CQ19" s="47"/>
     </row>
-    <row r="20" spans="1:95" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:95" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -8842,24 +8809,24 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:95" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:95" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -8874,7 +8841,7 @@
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
     </row>
-    <row r="23" spans="1:95" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:95" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -8891,10 +8858,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -8906,10 +8873,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -8932,21 +8899,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -8963,58 +8930,58 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2015</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -9029,61 +8996,61 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2015</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -9121,7 +9088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -9162,7 +9129,7 @@
         <v>82606</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -9203,7 +9170,7 @@
         <v>312586</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -9244,7 +9211,7 @@
         <v>119587</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -9285,7 +9252,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -9326,7 +9293,7 @@
         <v>385457</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -9367,7 +9334,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -9408,7 +9375,7 @@
         <v>551836</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -9449,7 +9416,7 @@
         <v>70979</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -9502,7 +9469,7 @@
         <v>1535255</v>
       </c>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -9606,7 +9573,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -9618,24 +9585,24 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -9650,7 +9617,7 @@
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -9667,10 +9634,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -9682,10 +9649,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A10:G17">
     <sortCondition ref="A10:A17"/>
@@ -9706,21 +9673,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -9737,58 +9704,58 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2016</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -9803,61 +9770,61 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2016</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -9895,7 +9862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -9936,7 +9903,7 @@
         <v>89558</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -9977,7 +9944,7 @@
         <v>334254</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -10018,7 +9985,7 @@
         <v>130890</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -10059,7 +10026,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -10100,7 +10067,7 @@
         <v>407270</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -10141,7 +10108,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -10182,7 +10149,7 @@
         <v>575641</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -10223,7 +10190,7 @@
         <v>74255</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -10280,7 +10247,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -10384,7 +10351,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -10399,24 +10366,24 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -10434,7 +10401,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -10454,10 +10421,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -10469,10 +10436,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -10490,22 +10457,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -10522,58 +10489,58 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2017</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -10588,61 +10555,61 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2017</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -10680,7 +10647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -10721,7 +10688,7 @@
         <v>96726</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -10762,7 +10729,7 @@
         <v>343480</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -10803,7 +10770,7 @@
         <v>144472</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -10844,7 +10811,7 @@
         <v>9194</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -10885,7 +10852,7 @@
         <v>435724</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -10926,7 +10893,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -10967,7 +10934,7 @@
         <v>605107</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -11008,7 +10975,7 @@
         <v>79961</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -11065,7 +11032,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -11169,7 +11136,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -11184,24 +11151,24 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -11219,7 +11186,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -11239,10 +11206,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -11255,10 +11222,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -11276,22 +11243,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -11308,58 +11275,58 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2018</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11374,61 +11341,61 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2018</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11466,7 +11433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -11507,7 +11474,7 @@
         <v>104065</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -11548,7 +11515,7 @@
         <v>354114</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -11589,7 +11556,7 @@
         <v>141254</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -11630,7 +11597,7 @@
         <v>9458</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -11671,7 +11638,7 @@
         <v>452017</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -11712,7 +11679,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -11753,7 +11720,7 @@
         <v>614655</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -11794,7 +11761,7 @@
         <v>82734</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -11851,7 +11818,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -11955,7 +11922,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -11970,24 +11937,24 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -12005,7 +11972,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -12025,10 +11992,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -12041,11 +12008,11 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C30" s="64"/>
     </row>
   </sheetData>
@@ -12065,22 +12032,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -12097,58 +12064,58 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2019</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12163,61 +12130,61 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2019</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -12255,7 +12222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -12296,7 +12263,7 @@
         <v>109333</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -12337,7 +12304,7 @@
         <v>363625</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -12378,7 +12345,7 @@
         <v>141943</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -12419,7 +12386,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -12460,7 +12427,7 @@
         <v>458198</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -12501,7 +12468,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -12542,7 +12509,7 @@
         <v>640252</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -12583,7 +12550,7 @@
         <v>86968</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -12640,7 +12607,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -12744,7 +12711,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -12759,24 +12726,24 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -12794,7 +12761,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -12814,10 +12781,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -12830,10 +12797,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12851,22 +12818,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -12883,58 +12850,58 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2020</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12949,61 +12916,61 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2020</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -13041,7 +13008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
         <v>0</v>
       </c>
@@ -13082,7 +13049,7 @@
         <v>111767</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -13123,7 +13090,7 @@
         <v>366999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="79" t="s">
         <v>3</v>
       </c>
@@ -13164,7 +13131,7 @@
         <v>133149</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -13205,7 +13172,7 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="79" t="s">
         <v>2</v>
       </c>
@@ -13246,7 +13213,7 @@
         <v>452541</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -13287,7 +13254,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="79" t="s">
         <v>7</v>
       </c>
@@ -13328,7 +13295,7 @@
         <v>614772</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -13369,7 +13336,7 @@
         <v>88417</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="80" t="s">
         <v>9</v>
       </c>
@@ -13426,7 +13393,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -13530,7 +13497,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -13545,24 +13512,24 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -13580,7 +13547,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -13600,10 +13567,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -13616,10 +13583,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -13637,22 +13604,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2983F71B-9A3A-4F4F-AA86-D12244F06A7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -13669,58 +13636,58 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2021</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -13735,61 +13702,61 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-    </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2021</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -13827,7 +13794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
         <v>0</v>
       </c>
@@ -13837,7 +13804,9 @@
       <c r="C10" s="76">
         <v>114511</v>
       </c>
-      <c r="D10" s="76"/>
+      <c r="D10" s="76">
+        <v>112922</v>
+      </c>
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
       <c r="G10" s="76"/>
@@ -13848,7 +13817,7 @@
       <c r="L10" s="76"/>
       <c r="M10" s="76"/>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -13858,7 +13827,9 @@
       <c r="C11" s="36">
         <v>367054</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="36">
+        <v>368633</v>
+      </c>
       <c r="E11" s="78"/>
       <c r="F11" s="78"/>
       <c r="G11" s="36"/>
@@ -13869,7 +13840,7 @@
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="79" t="s">
         <v>3</v>
       </c>
@@ -13879,7 +13850,9 @@
       <c r="C12" s="76">
         <v>135332</v>
       </c>
-      <c r="D12" s="76"/>
+      <c r="D12" s="76">
+        <v>134646</v>
+      </c>
       <c r="E12" s="77"/>
       <c r="F12" s="77"/>
       <c r="G12" s="76"/>
@@ -13890,7 +13863,7 @@
       <c r="L12" s="76"/>
       <c r="M12" s="76"/>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -13900,7 +13873,9 @@
       <c r="C13" s="36">
         <v>10000</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="36">
+        <v>10132</v>
+      </c>
       <c r="E13" s="78"/>
       <c r="F13" s="78"/>
       <c r="G13" s="36"/>
@@ -13911,7 +13886,7 @@
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="79" t="s">
         <v>2</v>
       </c>
@@ -13921,7 +13896,9 @@
       <c r="C14" s="76">
         <v>461408</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="76">
+        <v>462527</v>
+      </c>
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
       <c r="G14" s="76"/>
@@ -13932,7 +13909,7 @@
       <c r="L14" s="76"/>
       <c r="M14" s="76"/>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -13942,7 +13919,9 @@
       <c r="C15" s="36">
         <v>2577</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="36">
+        <v>2534</v>
+      </c>
       <c r="E15" s="78"/>
       <c r="F15" s="78"/>
       <c r="G15" s="36"/>
@@ -13953,7 +13932,7 @@
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="79" t="s">
         <v>7</v>
       </c>
@@ -13963,7 +13942,9 @@
       <c r="C16" s="76">
         <v>621192</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="76">
+        <v>624178</v>
+      </c>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
       <c r="G16" s="76"/>
@@ -13974,7 +13955,7 @@
       <c r="L16" s="76"/>
       <c r="M16" s="76"/>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -13984,7 +13965,9 @@
       <c r="C17" s="36">
         <v>88659</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="36">
+        <v>88047</v>
+      </c>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="36"/>
@@ -13995,7 +13978,7 @@
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="80" t="s">
         <v>9</v>
       </c>
@@ -14007,8 +13990,8 @@
         <v>1800733</v>
       </c>
       <c r="D18" s="81">
-        <f t="shared" ref="C18:M18" si="0">SUM(D10:D17)</f>
-        <v>0</v>
+        <f t="shared" ref="D18:M18" si="0">SUM(D10:D17)</f>
+        <v>1803619</v>
       </c>
       <c r="E18" s="81">
         <f>SUM(E10:E17)</f>
@@ -14051,7 +14034,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -14064,12 +14047,12 @@
         <v>0.76161560318769506</v>
       </c>
       <c r="D19" s="58">
-        <f t="shared" ref="C19:H19" si="1">+(D18-C18)/C18*100</f>
+        <f t="shared" ref="D19:H19" si="1">+(D18-C18)/C18*100</f>
+        <v>0.16026806861428097</v>
+      </c>
+      <c r="E19" s="58">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="E19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="58" t="e">
         <f t="shared" si="1"/>
@@ -14155,7 +14138,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -14170,24 +14153,24 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -14205,7 +14188,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -14225,10 +14208,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -14241,10 +14224,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -14262,27 +14245,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" customWidth="1"/>
-    <col min="10" max="12" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" customWidth="1"/>
-    <col min="14" max="35" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="35" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:44" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -14299,22 +14282,22 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:44" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:44" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -14347,22 +14330,22 @@
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
     </row>
-    <row r="3" spans="1:44" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:44" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -14395,22 +14378,22 @@
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8"/>
     </row>
-    <row r="4" spans="1:44" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    <row r="4" spans="1:44" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2000</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -14443,7 +14426,7 @@
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
     </row>
-    <row r="5" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -14477,22 +14460,22 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+    <row r="6" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14516,22 +14499,22 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+    <row r="7" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14555,27 +14538,27 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:44" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+    <row r="8" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="97">
         <v>2000</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-    </row>
-    <row r="9" spans="1:44" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+    </row>
+    <row r="9" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -14613,7 +14596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -14654,7 +14637,7 @@
         <v>46965</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -14695,7 +14678,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -14736,7 +14719,7 @@
         <v>340488</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -14777,7 +14760,7 @@
         <v>65361</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -14818,7 +14801,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -14859,7 +14842,7 @@
         <v>170180</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -14900,7 +14883,7 @@
         <v>48835</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -14941,7 +14924,7 @@
         <v>353145</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -14994,7 +14977,7 @@
         <v>1034215</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -15066,7 +15049,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="16"/>
       <c r="D20" s="2"/>
@@ -15102,39 +15085,39 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-    </row>
-    <row r="23" spans="1:35" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+    </row>
+    <row r="23" spans="1:35" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -15151,11 +15134,11 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -15164,11 +15147,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A21:M21"/>
@@ -15193,23 +15176,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" customWidth="1"/>
-    <col min="10" max="12" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -15226,58 +15209,58 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2001</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -15289,61 +15272,61 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="97">
         <v>2001</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-    </row>
-    <row r="9" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+    </row>
+    <row r="9" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -15381,7 +15364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -15422,7 +15405,7 @@
         <v>46740</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -15463,7 +15446,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -15504,7 +15487,7 @@
         <v>308690</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -15545,7 +15528,7 @@
         <v>61334</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -15586,7 +15569,7 @@
         <v>7640</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -15627,7 +15610,7 @@
         <v>177513</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -15668,7 +15651,7 @@
         <v>51521</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -15709,7 +15692,7 @@
         <v>356553</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -15762,7 +15745,7 @@
         <v>1011723</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -15815,7 +15798,7 @@
         <v>-1.6293932508233016</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="43" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="43" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="D20" s="44"/>
@@ -15829,39 +15812,39 @@
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-    </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+    </row>
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -15878,11 +15861,11 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -15891,11 +15874,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A21:M21"/>
@@ -15920,21 +15903,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -15951,22 +15934,22 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -15980,22 +15963,22 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -16009,22 +15992,22 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2008</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -16038,7 +16021,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -16065,22 +16048,22 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -16094,22 +16077,22 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -16123,27 +16106,27 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2008</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -16181,7 +16164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -16222,7 +16205,7 @@
         <v>55193</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -16263,7 +16246,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -16304,7 +16287,7 @@
         <v>311234</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -16345,7 +16328,7 @@
         <v>84833</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -16386,7 +16369,7 @@
         <v>8854</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -16427,7 +16410,7 @@
         <v>227223</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -16468,7 +16451,7 @@
         <v>57078</v>
       </c>
     </row>
-    <row r="17" spans="1:108" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -16509,7 +16492,7 @@
         <v>458010</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -16562,7 +16545,7 @@
         <v>1204590</v>
       </c>
     </row>
-    <row r="19" spans="1:108" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:108" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -16710,25 +16693,25 @@
       <c r="DC19" s="47"/>
       <c r="DD19" s="47"/>
     </row>
-    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -16743,7 +16726,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -16760,10 +16743,10 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -16777,9 +16760,9 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -16794,20 +16777,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -16831,21 +16814,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -16862,22 +16845,22 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -16891,22 +16874,22 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -16920,22 +16903,22 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2009</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -16949,7 +16932,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -16976,22 +16959,22 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -17005,22 +16988,22 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -17034,27 +17017,27 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:25" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2009</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -17092,7 +17075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -17134,7 +17117,7 @@
       </c>
       <c r="O10" s="51"/>
     </row>
-    <row r="11" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -17177,7 +17160,7 @@
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
     </row>
-    <row r="12" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -17219,7 +17202,7 @@
       </c>
       <c r="O12" s="51"/>
     </row>
-    <row r="13" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -17261,7 +17244,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -17302,7 +17285,7 @@
         <v>9024</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -17343,7 +17326,7 @@
         <v>226002</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -17384,7 +17367,7 @@
         <v>55965</v>
       </c>
     </row>
-    <row r="17" spans="1:108" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -17426,7 +17409,7 @@
       </c>
       <c r="O17" s="51"/>
     </row>
-    <row r="18" spans="1:108" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -17480,7 +17463,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:108" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:108" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -17628,25 +17611,25 @@
       <c r="DC19" s="47"/>
       <c r="DD19" s="47"/>
     </row>
-    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -17661,7 +17644,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -17678,10 +17661,10 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -17695,11 +17678,11 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -17714,20 +17697,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -17751,21 +17734,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DC42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -17782,22 +17765,22 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -17810,22 +17793,22 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -17838,22 +17821,22 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2010</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -17866,7 +17849,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -17892,22 +17875,22 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -17920,22 +17903,22 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -17948,27 +17931,27 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:24" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:24" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2010</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -18006,7 +17989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -18049,7 +18032,7 @@
       <c r="N10" s="51"/>
       <c r="P10" s="51"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -18092,7 +18075,7 @@
       <c r="N11" s="51"/>
       <c r="P11" s="51"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -18136,7 +18119,7 @@
       <c r="P12" s="51"/>
       <c r="R12" s="51"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -18179,7 +18162,7 @@
       <c r="P13" s="51"/>
       <c r="R13" s="51"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -18221,7 +18204,7 @@
       </c>
       <c r="P14" s="51"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -18262,7 +18245,7 @@
         <v>237810</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -18303,7 +18286,7 @@
         <v>57424</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -18345,7 +18328,7 @@
       </c>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:107" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -18399,7 +18382,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:107" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:107" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -18546,28 +18529,28 @@
       <c r="DB19" s="47"/>
       <c r="DC19" s="47"/>
     </row>
-    <row r="20" spans="1:107" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:107" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M20" s="52"/>
     </row>
-    <row r="21" spans="1:107" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:107" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -18582,7 +18565,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:107" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:107" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -18598,10 +18581,10 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -18615,8 +18598,8 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -18625,7 +18608,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -18639,20 +18622,20 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -18676,23 +18659,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.81640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -18709,22 +18692,22 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -18733,22 +18716,22 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -18757,22 +18740,22 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    <row r="4" spans="1:20" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2011</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -18781,7 +18764,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -18803,22 +18786,22 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -18827,22 +18810,22 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -18851,27 +18834,27 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:20" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:20" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2011</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -18909,7 +18892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -18950,7 +18933,7 @@
         <v>64139</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -18991,7 +18974,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -19033,7 +19016,7 @@
       </c>
       <c r="N12" s="51"/>
     </row>
-    <row r="13" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -19075,7 +19058,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -19116,7 +19099,7 @@
         <v>9191</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -19157,7 +19140,7 @@
         <v>254521</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -19198,7 +19181,7 @@
         <v>58951</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -19239,7 +19222,7 @@
         <v>496044</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -19290,7 +19273,7 @@
         <v>1308282</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -19433,29 +19416,29 @@
       <c r="CX19" s="47"/>
       <c r="CY19" s="47"/>
     </row>
-    <row r="20" spans="1:103" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -19470,7 +19453,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:103" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -19487,10 +19470,10 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -19504,8 +19487,8 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -19515,7 +19498,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -19530,20 +19513,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -19567,23 +19550,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="7.81640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -19600,61 +19583,61 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2012</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -19670,63 +19653,63 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2012</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -19764,7 +19747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -19805,7 +19788,7 @@
         <v>69492</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -19846,7 +19829,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -19887,7 +19870,7 @@
         <v>338376</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -19928,7 +19911,7 @@
         <v>95205</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -19969,7 +19952,7 @@
         <v>9246</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -20010,7 +19993,7 @@
         <v>270255</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -20051,7 +20034,7 @@
         <v>61629</v>
       </c>
     </row>
-    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -20092,7 +20075,7 @@
         <v>502496</v>
       </c>
     </row>
-    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -20145,7 +20128,7 @@
         <v>1349657</v>
       </c>
     </row>
-    <row r="19" spans="1:97" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -20282,7 +20265,7 @@
       <c r="CR19" s="47"/>
       <c r="CS19" s="47"/>
     </row>
-    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -20293,24 +20276,24 @@
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
     </row>
-    <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -20325,7 +20308,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -20342,13 +20325,13 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -20363,20 +20346,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -20400,22 +20383,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -20432,61 +20415,61 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87">
         <v>2013</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -20502,63 +20485,63 @@
       <c r="M5" s="26"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101" t="s">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="101">
         <v>2013</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -20596,7 +20579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -20637,7 +20620,7 @@
         <v>70246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -20678,7 +20661,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -20719,7 +20702,7 @@
         <v>347298</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -20760,7 +20743,7 @@
         <v>98394</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -20801,7 +20784,7 @@
         <v>9369</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -20842,7 +20825,7 @@
         <v>282499</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -20883,7 +20866,7 @@
         <v>62952</v>
       </c>
     </row>
-    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -20924,7 +20907,7 @@
         <v>523456</v>
       </c>
     </row>
-    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -20978,7 +20961,7 @@
       </c>
       <c r="N18" s="55"/>
     </row>
-    <row r="19" spans="1:97" s="48" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -21115,7 +21098,7 @@
       <c r="CR19" s="47"/>
       <c r="CS19" s="47"/>
     </row>
-    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -21127,24 +21110,24 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -21159,7 +21142,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -21176,10 +21159,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -21193,13 +21176,13 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -21214,20 +21197,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -169,10 +169,10 @@
     <t>Por división económica 2007 - 2021</t>
   </si>
   <si>
-    <t>Var Mar 2021 respecto a Feb 2021</t>
+    <t>Var Abr 2021 respecto a Mar 2021</t>
   </si>
   <si>
-    <t>Var Mar 2021 respecto a Dic 2020</t>
+    <t>Var Abr 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -1041,9 +1041,6 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1076,6 +1073,9 @@
     </xf>
     <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7085,7 +7085,7 @@
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7301,7 +7301,7 @@
       <c r="M8" s="72">
         <v>2019</v>
       </c>
-      <c r="N8" s="83">
+      <c r="N8" s="82">
         <v>2020</v>
       </c>
       <c r="O8" s="94">
@@ -7356,14 +7356,14 @@
       <c r="M9" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="82" t="s">
+      <c r="N9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="84" t="s">
+      <c r="O9" s="85" t="s">
         <v>14</v>
+      </c>
+      <c r="P9" s="83" t="s">
+        <v>15</v>
       </c>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
@@ -7415,18 +7415,18 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>114511</v>
+        <v>112922</v>
       </c>
       <c r="P10" s="36">
-        <v>112922</v>
+        <v>113463</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>-1589</v>
+        <v>541</v>
       </c>
       <c r="R10" s="53">
         <f>P10-N10</f>
-        <v>1155</v>
+        <v>1696</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -7476,18 +7476,18 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>367054</v>
+        <v>368633</v>
       </c>
       <c r="P11" s="36">
-        <v>368633</v>
+        <v>369950</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>1579</v>
+        <v>1317</v>
       </c>
       <c r="R11" s="53">
         <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>1634</v>
+        <v>2951</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -7537,18 +7537,18 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>135332</v>
+        <v>134646</v>
       </c>
       <c r="P12" s="36">
-        <v>134646</v>
+        <v>136279</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>-686</v>
+        <v>1633</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="1"/>
-        <v>1497</v>
+        <v>3130</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -7598,18 +7598,18 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>10000</v>
+        <v>10132</v>
       </c>
       <c r="P13" s="36">
-        <v>10132</v>
+        <v>9977</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>-155</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>-7</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -7659,18 +7659,18 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>461408</v>
+        <v>462527</v>
       </c>
       <c r="P14" s="36">
-        <v>462527</v>
+        <v>463728</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>1119</v>
+        <v>1201</v>
       </c>
       <c r="R14" s="53">
         <f t="shared" si="1"/>
-        <v>9986</v>
+        <v>11187</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -7720,18 +7720,18 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2577</v>
+        <v>2534</v>
       </c>
       <c r="P15" s="36">
-        <v>2534</v>
+        <v>2495</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>-43</v>
+        <v>-39</v>
       </c>
       <c r="R15" s="53">
         <f t="shared" si="1"/>
-        <v>-204</v>
+        <v>-243</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -7781,18 +7781,18 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>621192</v>
+        <v>624178</v>
       </c>
       <c r="P16" s="36">
-        <v>624178</v>
+        <v>626734</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>2986</v>
+        <v>2556</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="1"/>
-        <v>9406</v>
+        <v>11962</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -7842,18 +7842,18 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>88659</v>
+        <v>88047</v>
       </c>
       <c r="P17" s="36">
-        <v>88047</v>
+        <v>88258</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>-612</v>
+        <v>211</v>
       </c>
       <c r="R17" s="53">
         <f t="shared" si="1"/>
-        <v>-370</v>
+        <v>-159</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -7916,19 +7916,19 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1800733</v>
+        <v>1803619</v>
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1803619</v>
+        <v>1810884</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>2886</v>
-      </c>
-      <c r="R18" s="85">
+        <v>7265</v>
+      </c>
+      <c r="R18" s="84">
         <f t="shared" si="1"/>
-        <v>23252</v>
+        <v>30517</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
@@ -13009,43 +13009,43 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="75">
         <v>112151</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="75">
         <v>112730</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>113150</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="76">
         <v>115014</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="76">
         <v>112715</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="75">
         <v>105937</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="75">
         <v>96061</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="75">
         <v>105222</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="75">
         <v>107865</v>
       </c>
-      <c r="K10" s="76">
+      <c r="K10" s="75">
         <v>110774</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="75">
         <v>114437</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="75">
         <v>111767</v>
       </c>
     </row>
@@ -13062,10 +13062,10 @@
       <c r="D11" s="36">
         <v>366843</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="77">
         <v>363126</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="77">
         <v>358826</v>
       </c>
       <c r="G11" s="36">
@@ -13091,43 +13091,43 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="75">
         <v>147610</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="75">
         <v>150698</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>149690</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="76">
         <v>138688</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="76">
         <v>137575</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="75">
         <v>139757</v>
       </c>
-      <c r="H12" s="76">
+      <c r="H12" s="75">
         <v>138201</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="75">
         <v>137917</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="75">
         <v>137841</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="75">
         <v>139444</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="75">
         <v>140212</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="75">
         <v>133149</v>
       </c>
     </row>
@@ -13144,10 +13144,10 @@
       <c r="D13" s="36">
         <v>9921</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="77">
         <v>9758</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="77">
         <v>9733</v>
       </c>
       <c r="G13" s="36">
@@ -13173,43 +13173,43 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <v>458363</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="75">
         <v>461538</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>459451</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="76">
         <v>452234</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="76">
         <v>444648</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="75">
         <v>441629</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H14" s="75">
         <v>440830</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="75">
         <v>443332</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="75">
         <v>447361</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="75">
         <v>451827</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="75">
         <v>456439</v>
       </c>
-      <c r="M14" s="76">
+      <c r="M14" s="75">
         <v>452541</v>
       </c>
     </row>
@@ -13226,10 +13226,10 @@
       <c r="D15" s="36">
         <v>2670</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="77">
         <v>2534</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="77">
         <v>2618</v>
       </c>
       <c r="G15" s="36">
@@ -13255,43 +13255,43 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="75">
         <v>639358</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="75">
         <v>646025</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>641048</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="76">
         <v>624221</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="76">
         <v>617059</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="75">
         <v>611383</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="75">
         <v>609696</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="75">
         <v>612253</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="75">
         <v>615269</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="75">
         <v>619956</v>
       </c>
-      <c r="L16" s="76">
+      <c r="L16" s="75">
         <v>623527</v>
       </c>
-      <c r="M16" s="76">
+      <c r="M16" s="75">
         <v>614772</v>
       </c>
     </row>
@@ -13308,10 +13308,10 @@
       <c r="D17" s="36">
         <v>89167</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="77">
         <v>88220</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="77">
         <v>87150</v>
       </c>
       <c r="G17" s="36">
@@ -13337,54 +13337,54 @@
       </c>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="80">
         <f>SUM(B10:B17)</f>
         <v>1822293</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="80">
         <f t="shared" ref="C18:M18" si="0">SUM(C10:C17)</f>
         <v>1837966</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="80">
         <f t="shared" si="0"/>
         <v>1831940</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="80">
         <f>SUM(E10:E17)</f>
         <v>1793795</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="80">
         <f t="shared" si="0"/>
         <v>1770324</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="80">
         <f t="shared" si="0"/>
         <v>1755765</v>
       </c>
-      <c r="H18" s="81">
+      <c r="H18" s="80">
         <f t="shared" si="0"/>
         <v>1742635</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="80">
         <f t="shared" si="0"/>
         <v>1758496</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J18" s="80">
         <f t="shared" si="0"/>
         <v>1769661</v>
       </c>
-      <c r="K18" s="81">
+      <c r="K18" s="80">
         <f t="shared" si="0"/>
         <v>1788334</v>
       </c>
-      <c r="L18" s="81">
+      <c r="L18" s="80">
         <f t="shared" si="0"/>
         <v>1805269</v>
       </c>
-      <c r="M18" s="81">
+      <c r="M18" s="80">
         <f t="shared" si="0"/>
         <v>1780367</v>
       </c>
@@ -13608,7 +13608,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13795,27 +13795,29 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="75">
         <v>113465</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="75">
         <v>114511</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>112922</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
+      <c r="E10" s="76">
+        <v>113463</v>
+      </c>
+      <c r="F10" s="76"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
     </row>
     <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
@@ -13830,8 +13832,10 @@
       <c r="D11" s="36">
         <v>368633</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
+      <c r="E11" s="77">
+        <v>369950</v>
+      </c>
+      <c r="F11" s="77"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -13841,27 +13845,29 @@
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="75">
         <v>135474</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="75">
         <v>135332</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>134646</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
+      <c r="E12" s="76">
+        <v>136279</v>
+      </c>
+      <c r="F12" s="76"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
     </row>
     <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
@@ -13876,8 +13882,10 @@
       <c r="D13" s="36">
         <v>10132</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
+      <c r="E13" s="77">
+        <v>9977</v>
+      </c>
+      <c r="F13" s="77"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -13887,27 +13895,29 @@
       <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B14" s="75">
         <v>455835</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="75">
         <v>461408</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>462527</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
+      <c r="E14" s="76">
+        <v>463728</v>
+      </c>
+      <c r="F14" s="76"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
@@ -13922,8 +13932,10 @@
       <c r="D15" s="36">
         <v>2534</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="E15" s="77">
+        <v>2495</v>
+      </c>
+      <c r="F15" s="77"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -13933,27 +13945,29 @@
       <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="75">
         <v>616421</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="75">
         <v>621192</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>624178</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="E16" s="76">
+        <v>626734</v>
+      </c>
+      <c r="F16" s="76"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
     </row>
     <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -13968,8 +13982,10 @@
       <c r="D17" s="36">
         <v>88047</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
+      <c r="E17" s="77">
+        <v>88258</v>
+      </c>
+      <c r="F17" s="77"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -13979,53 +13995,53 @@
       <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="80">
         <f>SUM(B10:B17)</f>
         <v>1787122</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="80">
         <v>1800733</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="80">
         <f t="shared" ref="D18:M18" si="0">SUM(D10:D17)</f>
         <v>1803619</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="80">
         <f>SUM(E10:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="81">
+        <v>1810884</v>
+      </c>
+      <c r="F18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="81">
+      <c r="H18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="81">
+      <c r="K18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="81">
+      <c r="L18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="81">
+      <c r="M18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14052,11 +14068,11 @@
       </c>
       <c r="E19" s="58">
         <f t="shared" si="1"/>
+        <v>0.40280125680645418</v>
+      </c>
+      <c r="F19" s="58">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="F19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G19" s="58" t="e">
         <f>+(G18-F18)/F18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -36,6 +36,7 @@
     <definedName name="sortIcon" localSheetId="10">'2015'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -7085,7 +7086,7 @@
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7360,10 +7361,10 @@
         <v>23</v>
       </c>
       <c r="O9" s="85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" s="83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
@@ -7415,18 +7416,18 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>112922</v>
+        <v>113463</v>
       </c>
       <c r="P10" s="36">
-        <v>113463</v>
+        <v>108441</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>541</v>
+        <v>-5022</v>
       </c>
       <c r="R10" s="53">
         <f>P10-N10</f>
-        <v>1696</v>
+        <v>-3326</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -7476,18 +7477,18 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>368633</v>
+        <v>369950</v>
       </c>
       <c r="P11" s="36">
-        <v>369950</v>
+        <v>369627</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>1317</v>
+        <v>-323</v>
       </c>
       <c r="R11" s="53">
         <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>2951</v>
+        <v>2628</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -7537,18 +7538,18 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>134646</v>
+        <v>136279</v>
       </c>
       <c r="P12" s="36">
-        <v>136279</v>
+        <v>138531</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>1633</v>
+        <v>2252</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="1"/>
-        <v>3130</v>
+        <v>5382</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -7598,18 +7599,18 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>10132</v>
+        <v>9977</v>
       </c>
       <c r="P13" s="36">
-        <v>9977</v>
+        <v>10007</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>-155</v>
+        <v>30</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>23</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -7659,18 +7660,18 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>462527</v>
+        <v>463728</v>
       </c>
       <c r="P14" s="36">
-        <v>463728</v>
+        <v>467355</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>1201</v>
+        <v>3627</v>
       </c>
       <c r="R14" s="53">
         <f t="shared" si="1"/>
-        <v>11187</v>
+        <v>14814</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -7720,18 +7721,18 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2534</v>
+        <v>2495</v>
       </c>
       <c r="P15" s="36">
-        <v>2495</v>
+        <v>2465</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-30</v>
       </c>
       <c r="R15" s="53">
         <f t="shared" si="1"/>
-        <v>-243</v>
+        <v>-273</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -7781,18 +7782,18 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>624178</v>
+        <v>626734</v>
       </c>
       <c r="P16" s="36">
-        <v>626734</v>
+        <v>629782</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>2556</v>
+        <v>3048</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="1"/>
-        <v>11962</v>
+        <v>15010</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -7842,18 +7843,18 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>88047</v>
+        <v>88258</v>
       </c>
       <c r="P17" s="36">
-        <v>88258</v>
+        <v>89399</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>1141</v>
       </c>
       <c r="R17" s="53">
         <f t="shared" si="1"/>
-        <v>-159</v>
+        <v>982</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -7916,19 +7917,19 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1803619</v>
+        <v>1810884</v>
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1810884</v>
+        <v>1815607</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>7265</v>
+        <v>4723</v>
       </c>
       <c r="R18" s="84">
         <f t="shared" si="1"/>
-        <v>30517</v>
+        <v>35240</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
@@ -13608,7 +13609,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13810,7 +13811,9 @@
       <c r="E10" s="76">
         <v>113463</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="76">
+        <v>108441</v>
+      </c>
       <c r="G10" s="75"/>
       <c r="H10" s="75"/>
       <c r="I10" s="75"/>
@@ -13835,7 +13838,9 @@
       <c r="E11" s="77">
         <v>369950</v>
       </c>
-      <c r="F11" s="77"/>
+      <c r="F11" s="77">
+        <v>369627</v>
+      </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -13860,7 +13865,9 @@
       <c r="E12" s="76">
         <v>136279</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="76">
+        <v>138531</v>
+      </c>
       <c r="G12" s="75"/>
       <c r="H12" s="75"/>
       <c r="I12" s="75"/>
@@ -13885,7 +13892,9 @@
       <c r="E13" s="77">
         <v>9977</v>
       </c>
-      <c r="F13" s="77"/>
+      <c r="F13" s="77">
+        <v>10007</v>
+      </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -13910,7 +13919,9 @@
       <c r="E14" s="76">
         <v>463728</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="76">
+        <v>467355</v>
+      </c>
       <c r="G14" s="75"/>
       <c r="H14" s="75"/>
       <c r="I14" s="75"/>
@@ -13935,7 +13946,9 @@
       <c r="E15" s="77">
         <v>2495</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F15" s="77">
+        <v>2465</v>
+      </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -13960,7 +13973,9 @@
       <c r="E16" s="76">
         <v>626734</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="76">
+        <v>629782</v>
+      </c>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
       <c r="I16" s="75"/>
@@ -13985,7 +14000,9 @@
       <c r="E17" s="77">
         <v>88258</v>
       </c>
-      <c r="F17" s="77"/>
+      <c r="F17" s="77">
+        <v>89399</v>
+      </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -14015,7 +14032,7 @@
       </c>
       <c r="F18" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1815607</v>
       </c>
       <c r="G18" s="80">
         <f t="shared" si="0"/>
@@ -14072,11 +14089,11 @@
       </c>
       <c r="F19" s="58">
         <f t="shared" si="1"/>
+        <v>0.2608118465898423</v>
+      </c>
+      <c r="G19" s="58">
+        <f>+(G18-F18)/F18*100</f>
         <v>-100</v>
-      </c>
-      <c r="G19" s="58" t="e">
-        <f>+(G18-F18)/F18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="H19" s="58" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -36,7 +36,6 @@
     <definedName name="sortIcon" localSheetId="10">'2015'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -170,10 +169,10 @@
     <t>Por división económica 2007 - 2021</t>
   </si>
   <si>
-    <t>Var Abr 2021 respecto a Mar 2021</t>
+    <t>Var Jun 2021 respecto a May 2021</t>
   </si>
   <si>
-    <t>Var Abr 2021 respecto a Dic 2020</t>
+    <t>Var Jun 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -7086,7 +7085,7 @@
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7361,10 +7360,10 @@
         <v>23</v>
       </c>
       <c r="O9" s="85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P9" s="83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
@@ -7416,18 +7415,18 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>113463</v>
+        <v>108441</v>
       </c>
       <c r="P10" s="36">
-        <v>108441</v>
+        <v>107839</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>-5022</v>
+        <v>-602</v>
       </c>
       <c r="R10" s="53">
         <f>P10-N10</f>
-        <v>-3326</v>
+        <v>-3928</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -7477,18 +7476,18 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>369950</v>
+        <v>369627</v>
       </c>
       <c r="P11" s="36">
-        <v>369627</v>
+        <v>372391</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>-323</v>
+        <v>2764</v>
       </c>
       <c r="R11" s="53">
         <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>2628</v>
+        <v>5392</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -7538,18 +7537,18 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>136279</v>
+        <v>138531</v>
       </c>
       <c r="P12" s="36">
-        <v>138531</v>
+        <v>140925</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>2252</v>
+        <v>2394</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="1"/>
-        <v>5382</v>
+        <v>7776</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -7599,18 +7598,18 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>9977</v>
+        <v>10007</v>
       </c>
       <c r="P13" s="36">
-        <v>10007</v>
+        <v>10103</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -7660,18 +7659,18 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>463728</v>
+        <v>467355</v>
       </c>
       <c r="P14" s="36">
-        <v>467355</v>
+        <v>464115</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>3627</v>
+        <v>-3240</v>
       </c>
       <c r="R14" s="53">
         <f t="shared" si="1"/>
-        <v>14814</v>
+        <v>11574</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -7721,18 +7720,18 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2495</v>
+        <v>2465</v>
       </c>
       <c r="P15" s="36">
-        <v>2465</v>
+        <v>2420</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-45</v>
       </c>
       <c r="R15" s="53">
         <f t="shared" si="1"/>
-        <v>-273</v>
+        <v>-318</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -7782,18 +7781,18 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>626734</v>
+        <v>629782</v>
       </c>
       <c r="P16" s="36">
-        <v>629782</v>
+        <v>633445</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>3048</v>
+        <v>3663</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="1"/>
-        <v>15010</v>
+        <v>18673</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -7843,18 +7842,18 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>88258</v>
+        <v>89399</v>
       </c>
       <c r="P17" s="36">
-        <v>89399</v>
+        <v>89547</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>1141</v>
+        <v>148</v>
       </c>
       <c r="R17" s="53">
         <f t="shared" si="1"/>
-        <v>982</v>
+        <v>1130</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -7917,19 +7916,19 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1810884</v>
+        <v>1815607</v>
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1815607</v>
+        <v>1820785</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>4723</v>
+        <v>5178</v>
       </c>
       <c r="R18" s="84">
         <f t="shared" si="1"/>
-        <v>35240</v>
+        <v>40418</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
@@ -13609,7 +13608,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13814,7 +13813,9 @@
       <c r="F10" s="76">
         <v>108441</v>
       </c>
-      <c r="G10" s="75"/>
+      <c r="G10" s="75">
+        <v>107839</v>
+      </c>
       <c r="H10" s="75"/>
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
@@ -13841,7 +13842,9 @@
       <c r="F11" s="77">
         <v>369627</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="36">
+        <v>372391</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
@@ -13868,7 +13871,9 @@
       <c r="F12" s="76">
         <v>138531</v>
       </c>
-      <c r="G12" s="75"/>
+      <c r="G12" s="75">
+        <v>140925</v>
+      </c>
       <c r="H12" s="75"/>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
@@ -13895,7 +13900,9 @@
       <c r="F13" s="77">
         <v>10007</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36">
+        <v>10103</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
@@ -13922,7 +13929,9 @@
       <c r="F14" s="76">
         <v>467355</v>
       </c>
-      <c r="G14" s="75"/>
+      <c r="G14" s="75">
+        <v>464115</v>
+      </c>
       <c r="H14" s="75"/>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
@@ -13949,7 +13958,9 @@
       <c r="F15" s="77">
         <v>2465</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="36">
+        <v>2420</v>
+      </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -13976,7 +13987,9 @@
       <c r="F16" s="76">
         <v>629782</v>
       </c>
-      <c r="G16" s="75"/>
+      <c r="G16" s="75">
+        <v>633445</v>
+      </c>
       <c r="H16" s="75"/>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
@@ -14003,7 +14016,9 @@
       <c r="F17" s="77">
         <v>89399</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="36">
+        <v>89547</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -14036,7 +14051,7 @@
       </c>
       <c r="G18" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1820785</v>
       </c>
       <c r="H18" s="80">
         <f t="shared" si="0"/>
@@ -14093,11 +14108,11 @@
       </c>
       <c r="G19" s="58">
         <f>+(G18-F18)/F18*100</f>
+        <v>0.28519387730935164</v>
+      </c>
+      <c r="H19" s="58">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="H19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="I19" s="58" t="e">
         <f>+(I18-H18)/H18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -169,10 +169,10 @@
     <t>Por división económica 2007 - 2021</t>
   </si>
   <si>
-    <t>Var Jun 2021 respecto a May 2021</t>
+    <t>Var Jul 2021 respecto a Jun 2021</t>
   </si>
   <si>
-    <t>Var Jun 2021 respecto a Dic 2020</t>
+    <t>Var Jul 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -7085,7 +7085,7 @@
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="P10" sqref="P10:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7360,10 +7360,10 @@
         <v>23</v>
       </c>
       <c r="O9" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P9" s="83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
@@ -7415,18 +7415,18 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>108441</v>
+        <v>107839</v>
       </c>
       <c r="P10" s="36">
-        <v>107839</v>
+        <v>108146</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>-602</v>
+        <v>307</v>
       </c>
       <c r="R10" s="53">
         <f>P10-N10</f>
-        <v>-3928</v>
+        <v>-3621</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -7476,18 +7476,18 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>369627</v>
+        <v>372391</v>
       </c>
       <c r="P11" s="36">
-        <v>372391</v>
+        <v>382052</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>2764</v>
+        <v>9661</v>
       </c>
       <c r="R11" s="53">
         <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>5392</v>
+        <v>15053</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -7537,18 +7537,18 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>138531</v>
+        <v>140925</v>
       </c>
       <c r="P12" s="36">
-        <v>140925</v>
+        <v>137423</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>2394</v>
+        <v>-3502</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="1"/>
-        <v>7776</v>
+        <v>4274</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -7598,18 +7598,18 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>10007</v>
+        <v>10103</v>
       </c>
       <c r="P13" s="36">
-        <v>10103</v>
+        <v>9603</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>-500</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>-381</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -7659,18 +7659,18 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>467355</v>
+        <v>464115</v>
       </c>
       <c r="P14" s="36">
-        <v>464115</v>
+        <v>473006</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>-3240</v>
+        <v>8891</v>
       </c>
       <c r="R14" s="53">
         <f t="shared" si="1"/>
-        <v>11574</v>
+        <v>20465</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -7720,18 +7720,18 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2465</v>
+        <v>2420</v>
       </c>
       <c r="P15" s="36">
-        <v>2420</v>
+        <v>2577</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>157</v>
       </c>
       <c r="R15" s="53">
         <f t="shared" si="1"/>
-        <v>-318</v>
+        <v>-161</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -7781,18 +7781,18 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>629782</v>
+        <v>633445</v>
       </c>
       <c r="P16" s="36">
-        <v>633445</v>
+        <v>620513</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>3663</v>
+        <v>-12932</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="1"/>
-        <v>18673</v>
+        <v>5741</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -7842,18 +7842,18 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>89399</v>
+        <v>89547</v>
       </c>
       <c r="P17" s="36">
-        <v>89547</v>
+        <v>93255</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>3708</v>
       </c>
       <c r="R17" s="53">
         <f t="shared" si="1"/>
-        <v>1130</v>
+        <v>4838</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -7916,19 +7916,19 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1815607</v>
+        <v>1820785</v>
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1820785</v>
+        <v>1826575</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>5178</v>
+        <v>5790</v>
       </c>
       <c r="R18" s="84">
         <f t="shared" si="1"/>
-        <v>40418</v>
+        <v>46208</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
@@ -13608,7 +13608,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13816,7 +13816,9 @@
       <c r="G10" s="75">
         <v>107839</v>
       </c>
-      <c r="H10" s="75"/>
+      <c r="H10" s="75">
+        <v>108146</v>
+      </c>
       <c r="I10" s="75"/>
       <c r="J10" s="75"/>
       <c r="K10" s="75"/>
@@ -13845,7 +13847,9 @@
       <c r="G11" s="36">
         <v>372391</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="36">
+        <v>382052</v>
+      </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
@@ -13874,7 +13878,9 @@
       <c r="G12" s="75">
         <v>140925</v>
       </c>
-      <c r="H12" s="75"/>
+      <c r="H12" s="75">
+        <v>137423</v>
+      </c>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
       <c r="K12" s="75"/>
@@ -13903,7 +13909,9 @@
       <c r="G13" s="36">
         <v>10103</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="36">
+        <v>9603</v>
+      </c>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -13932,7 +13940,9 @@
       <c r="G14" s="75">
         <v>464115</v>
       </c>
-      <c r="H14" s="75"/>
+      <c r="H14" s="75">
+        <v>473006</v>
+      </c>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
       <c r="K14" s="75"/>
@@ -13961,7 +13971,9 @@
       <c r="G15" s="36">
         <v>2420</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="36">
+        <v>2577</v>
+      </c>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -13990,7 +14002,9 @@
       <c r="G16" s="75">
         <v>633445</v>
       </c>
-      <c r="H16" s="75"/>
+      <c r="H16" s="75">
+        <v>620513</v>
+      </c>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
       <c r="K16" s="75"/>
@@ -14019,7 +14033,9 @@
       <c r="G17" s="36">
         <v>89547</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="36">
+        <v>93255</v>
+      </c>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
@@ -14055,7 +14071,7 @@
       </c>
       <c r="H18" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1826575</v>
       </c>
       <c r="I18" s="80">
         <f t="shared" si="0"/>
@@ -14112,11 +14128,11 @@
       </c>
       <c r="H19" s="58">
         <f t="shared" si="1"/>
+        <v>0.31799471107242205</v>
+      </c>
+      <c r="I19" s="58">
+        <f>+(I18-H18)/H18*100</f>
         <v>-100</v>
-      </c>
-      <c r="I19" s="58" t="e">
-        <f>+(I18-H18)/H18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="58" t="e">
         <f>+(J18-I18)/I18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -169,10 +169,10 @@
     <t>Por división económica 2007 - 2021</t>
   </si>
   <si>
-    <t>Var Ago 2021 respecto a Jul 2021</t>
+    <t>Var Sep 2021 respecto a Ago 2021</t>
   </si>
   <si>
-    <t>Var Ago 2021 respecto a Dic 2020</t>
+    <t>Var Sep 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -7085,7 +7085,7 @@
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7360,10 +7360,10 @@
         <v>23</v>
       </c>
       <c r="O9" s="85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
@@ -7415,18 +7415,18 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>108146</v>
+        <v>112612</v>
       </c>
       <c r="P10" s="36">
-        <v>112612</v>
+        <v>115046</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>4466</v>
+        <v>2434</v>
       </c>
       <c r="R10" s="53">
         <f>P10-N10</f>
-        <v>845</v>
+        <v>3279</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -7476,18 +7476,18 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>382052</v>
+        <v>382970</v>
       </c>
       <c r="P11" s="36">
-        <v>382970</v>
+        <v>385474</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>918</v>
+        <v>2504</v>
       </c>
       <c r="R11" s="53">
         <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>15971</v>
+        <v>18475</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -7537,18 +7537,18 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>137423</v>
+        <v>139603</v>
       </c>
       <c r="P12" s="36">
-        <v>139603</v>
+        <v>140812</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>2180</v>
+        <v>1209</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="1"/>
-        <v>6454</v>
+        <v>7663</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -7598,18 +7598,18 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>9603</v>
+        <v>9612</v>
       </c>
       <c r="P13" s="36">
-        <v>9612</v>
+        <v>9562</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-50</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="1"/>
-        <v>-372</v>
+        <v>-422</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -7659,18 +7659,18 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>473006</v>
+        <v>477017</v>
       </c>
       <c r="P14" s="36">
-        <v>477017</v>
+        <v>480063</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>4011</v>
+        <v>3046</v>
       </c>
       <c r="R14" s="53">
         <f t="shared" si="1"/>
-        <v>24476</v>
+        <v>27522</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -7720,18 +7720,18 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2577</v>
+        <v>2692</v>
       </c>
       <c r="P15" s="36">
-        <v>2692</v>
+        <v>2640</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>-52</v>
       </c>
       <c r="R15" s="53">
         <f t="shared" si="1"/>
-        <v>-46</v>
+        <v>-98</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -7781,18 +7781,18 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>620513</v>
+        <v>619137</v>
       </c>
       <c r="P16" s="36">
-        <v>619137</v>
+        <v>619859</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>-1376</v>
+        <v>722</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="1"/>
-        <v>4365</v>
+        <v>5087</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -7842,18 +7842,18 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>93255</v>
+        <v>94332</v>
       </c>
       <c r="P17" s="36">
-        <v>94332</v>
+        <v>94275</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>1077</v>
+        <v>-57</v>
       </c>
       <c r="R17" s="53">
         <f t="shared" si="1"/>
-        <v>5915</v>
+        <v>5858</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -7916,19 +7916,19 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1826575</v>
+        <v>1837975</v>
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1837975</v>
+        <v>1847731</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>11400</v>
+        <v>9756</v>
       </c>
       <c r="R18" s="84">
         <f t="shared" si="1"/>
-        <v>57608</v>
+        <v>67364</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
@@ -13608,7 +13608,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13822,7 +13822,9 @@
       <c r="I10" s="75">
         <v>112612</v>
       </c>
-      <c r="J10" s="75"/>
+      <c r="J10" s="75">
+        <v>115046</v>
+      </c>
       <c r="K10" s="75"/>
       <c r="L10" s="75"/>
       <c r="M10" s="75"/>
@@ -13855,7 +13857,9 @@
       <c r="I11" s="36">
         <v>382970</v>
       </c>
-      <c r="J11" s="36"/>
+      <c r="J11" s="36">
+        <v>385474</v>
+      </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
@@ -13888,7 +13892,9 @@
       <c r="I12" s="75">
         <v>139603</v>
       </c>
-      <c r="J12" s="75"/>
+      <c r="J12" s="75">
+        <v>140812</v>
+      </c>
       <c r="K12" s="75"/>
       <c r="L12" s="75"/>
       <c r="M12" s="75"/>
@@ -13921,7 +13927,9 @@
       <c r="I13" s="36">
         <v>9612</v>
       </c>
-      <c r="J13" s="36"/>
+      <c r="J13" s="36">
+        <v>9562</v>
+      </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
@@ -13954,7 +13962,9 @@
       <c r="I14" s="75">
         <v>477017</v>
       </c>
-      <c r="J14" s="75"/>
+      <c r="J14" s="75">
+        <v>480063</v>
+      </c>
       <c r="K14" s="75"/>
       <c r="L14" s="75"/>
       <c r="M14" s="75"/>
@@ -13987,7 +13997,9 @@
       <c r="I15" s="36">
         <v>2692</v>
       </c>
-      <c r="J15" s="36"/>
+      <c r="J15" s="36">
+        <v>2640</v>
+      </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
@@ -14020,7 +14032,9 @@
       <c r="I16" s="75">
         <v>619137</v>
       </c>
-      <c r="J16" s="75"/>
+      <c r="J16" s="75">
+        <v>619859</v>
+      </c>
       <c r="K16" s="75"/>
       <c r="L16" s="75"/>
       <c r="M16" s="75"/>
@@ -14053,7 +14067,9 @@
       <c r="I17" s="36">
         <v>94332</v>
       </c>
-      <c r="J17" s="36"/>
+      <c r="J17" s="36">
+        <v>94275</v>
+      </c>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
@@ -14095,7 +14111,7 @@
       </c>
       <c r="J18" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1847731</v>
       </c>
       <c r="K18" s="80">
         <f t="shared" si="0"/>
@@ -14152,11 +14168,11 @@
       </c>
       <c r="J19" s="58">
         <f>+(J18-I18)/I18*100</f>
+        <v>0.53080156150110858</v>
+      </c>
+      <c r="K19" s="58">
+        <f>+(K18-J18)/J18*100</f>
         <v>-100</v>
-      </c>
-      <c r="K19" s="58" t="e">
-        <f>+(K18-J18)/J18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="58" t="e">
         <f>+(L18-K18)/K18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -169,10 +169,10 @@
     <t>Por división económica 2007 - 2021</t>
   </si>
   <si>
-    <t>Var Sep 2021 respecto a Ago 2021</t>
+    <t>Var Oct 2021 respecto a Sep 2021</t>
   </si>
   <si>
-    <t>Var Sep 2021 respecto a Dic 2020</t>
+    <t>Var Oct 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -7085,7 +7085,7 @@
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7360,10 +7360,10 @@
         <v>23</v>
       </c>
       <c r="O9" s="85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P9" s="83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
@@ -7415,18 +7415,18 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>112612</v>
+        <v>115046</v>
       </c>
       <c r="P10" s="36">
-        <v>115046</v>
+        <v>117212</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>2434</v>
+        <v>2166</v>
       </c>
       <c r="R10" s="53">
         <f>P10-N10</f>
-        <v>3279</v>
+        <v>5445</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -7476,18 +7476,18 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>382970</v>
+        <v>385474</v>
       </c>
       <c r="P11" s="36">
-        <v>385474</v>
+        <v>388373</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>2504</v>
+        <v>2899</v>
       </c>
       <c r="R11" s="53">
         <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>18475</v>
+        <v>21374</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -7537,18 +7537,18 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>139603</v>
+        <v>140812</v>
       </c>
       <c r="P12" s="36">
-        <v>140812</v>
+        <v>141565</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>1209</v>
+        <v>753</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="1"/>
-        <v>7663</v>
+        <v>8416</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -7598,18 +7598,18 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>9612</v>
+        <v>9562</v>
       </c>
       <c r="P13" s="36">
-        <v>9562</v>
+        <v>9508</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>-54</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="1"/>
-        <v>-422</v>
+        <v>-476</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -7659,18 +7659,18 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>477017</v>
+        <v>480063</v>
       </c>
       <c r="P14" s="36">
-        <v>480063</v>
+        <v>481695</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>3046</v>
+        <v>1632</v>
       </c>
       <c r="R14" s="53">
         <f t="shared" si="1"/>
-        <v>27522</v>
+        <v>29154</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -7720,18 +7720,18 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2692</v>
+        <v>2640</v>
       </c>
       <c r="P15" s="36">
-        <v>2640</v>
+        <v>2620</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>-52</v>
+        <v>-20</v>
       </c>
       <c r="R15" s="53">
         <f t="shared" si="1"/>
-        <v>-98</v>
+        <v>-118</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -7781,18 +7781,18 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>619137</v>
+        <v>619859</v>
       </c>
       <c r="P16" s="36">
-        <v>619859</v>
+        <v>622204</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>722</v>
+        <v>2345</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="1"/>
-        <v>5087</v>
+        <v>7432</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -7842,18 +7842,18 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>94332</v>
+        <v>94275</v>
       </c>
       <c r="P17" s="36">
-        <v>94275</v>
+        <v>95058</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>-57</v>
+        <v>783</v>
       </c>
       <c r="R17" s="53">
         <f t="shared" si="1"/>
-        <v>5858</v>
+        <v>6641</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -7916,19 +7916,19 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1837975</v>
+        <v>1847731</v>
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1847731</v>
+        <v>1858235</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>9756</v>
+        <v>10504</v>
       </c>
       <c r="R18" s="84">
         <f t="shared" si="1"/>
-        <v>67364</v>
+        <v>77868</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
@@ -13825,7 +13825,9 @@
       <c r="J10" s="75">
         <v>115046</v>
       </c>
-      <c r="K10" s="75"/>
+      <c r="K10" s="75">
+        <v>117212</v>
+      </c>
       <c r="L10" s="75"/>
       <c r="M10" s="75"/>
     </row>
@@ -13860,7 +13862,9 @@
       <c r="J11" s="36">
         <v>385474</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="36">
+        <v>388373</v>
+      </c>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
     </row>
@@ -13895,7 +13899,9 @@
       <c r="J12" s="75">
         <v>140812</v>
       </c>
-      <c r="K12" s="75"/>
+      <c r="K12" s="75">
+        <v>141565</v>
+      </c>
       <c r="L12" s="75"/>
       <c r="M12" s="75"/>
     </row>
@@ -13930,7 +13936,9 @@
       <c r="J13" s="36">
         <v>9562</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="36">
+        <v>9508</v>
+      </c>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
     </row>
@@ -13965,7 +13973,9 @@
       <c r="J14" s="75">
         <v>480063</v>
       </c>
-      <c r="K14" s="75"/>
+      <c r="K14" s="75">
+        <v>481695</v>
+      </c>
       <c r="L14" s="75"/>
       <c r="M14" s="75"/>
     </row>
@@ -14000,7 +14010,9 @@
       <c r="J15" s="36">
         <v>2640</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="36">
+        <v>2620</v>
+      </c>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
     </row>
@@ -14035,7 +14047,9 @@
       <c r="J16" s="75">
         <v>619859</v>
       </c>
-      <c r="K16" s="75"/>
+      <c r="K16" s="75">
+        <v>622204</v>
+      </c>
       <c r="L16" s="75"/>
       <c r="M16" s="75"/>
     </row>
@@ -14070,7 +14084,9 @@
       <c r="J17" s="36">
         <v>94275</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="36">
+        <v>95058</v>
+      </c>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
     </row>
@@ -14115,7 +14131,7 @@
       </c>
       <c r="K18" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1858235</v>
       </c>
       <c r="L18" s="80">
         <f t="shared" si="0"/>
@@ -14172,11 +14188,11 @@
       </c>
       <c r="K19" s="58">
         <f>+(K18-J18)/J18*100</f>
+        <v>0.56848101807027107</v>
+      </c>
+      <c r="L19" s="58">
+        <f>+(L18-K18)/K18*100</f>
         <v>-100</v>
-      </c>
-      <c r="L19" s="58" t="e">
-        <f>+(L18-K18)/K18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="M19" s="58" t="e">
         <f>+(M18-L18)/L18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -169,10 +169,10 @@
     <t>Por división económica 2007 - 2021</t>
   </si>
   <si>
-    <t>Var Oct 2021 respecto a Sep 2021</t>
+    <t>Var Nov 2021 respecto a Oct 2021</t>
   </si>
   <si>
-    <t>Var Oct 2021 respecto a Dic 2020</t>
+    <t>Var Nov 2021 respecto a Dic 2020</t>
   </si>
 </sst>
 </file>
@@ -7085,7 +7085,7 @@
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="P10" sqref="P10:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7360,10 +7360,10 @@
         <v>23</v>
       </c>
       <c r="O9" s="85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" s="83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
@@ -7415,18 +7415,18 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>115046</v>
+        <v>117212</v>
       </c>
       <c r="P10" s="36">
-        <v>117212</v>
+        <v>119220</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>2166</v>
+        <v>2008</v>
       </c>
       <c r="R10" s="53">
         <f>P10-N10</f>
-        <v>5445</v>
+        <v>7453</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -7476,18 +7476,18 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>385474</v>
+        <v>388373</v>
       </c>
       <c r="P11" s="36">
-        <v>388373</v>
+        <v>391234</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>2899</v>
+        <v>2861</v>
       </c>
       <c r="R11" s="53">
         <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>21374</v>
+        <v>24235</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -7537,18 +7537,18 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>140812</v>
+        <v>141565</v>
       </c>
       <c r="P12" s="36">
-        <v>141565</v>
+        <v>141823</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>753</v>
+        <v>258</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="1"/>
-        <v>8416</v>
+        <v>8674</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -7598,18 +7598,18 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>9562</v>
+        <v>9508</v>
       </c>
       <c r="P13" s="36">
-        <v>9508</v>
+        <v>9570</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>-54</v>
+        <v>62</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="1"/>
-        <v>-476</v>
+        <v>-414</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -7659,18 +7659,18 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>480063</v>
+        <v>481695</v>
       </c>
       <c r="P14" s="36">
-        <v>481695</v>
+        <v>484648</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>1632</v>
+        <v>2953</v>
       </c>
       <c r="R14" s="53">
         <f t="shared" si="1"/>
-        <v>29154</v>
+        <v>32107</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -7720,18 +7720,18 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2640</v>
+        <v>2620</v>
       </c>
       <c r="P15" s="36">
-        <v>2620</v>
+        <v>2646</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>26</v>
       </c>
       <c r="R15" s="53">
         <f t="shared" si="1"/>
-        <v>-118</v>
+        <v>-92</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -7781,18 +7781,18 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>619859</v>
+        <v>622204</v>
       </c>
       <c r="P16" s="36">
-        <v>622204</v>
+        <v>626463</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>2345</v>
+        <v>4259</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="1"/>
-        <v>7432</v>
+        <v>11691</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -7842,18 +7842,18 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>94275</v>
+        <v>95058</v>
       </c>
       <c r="P17" s="36">
-        <v>95058</v>
+        <v>97872</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>783</v>
+        <v>2814</v>
       </c>
       <c r="R17" s="53">
         <f t="shared" si="1"/>
-        <v>6641</v>
+        <v>9455</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -7916,19 +7916,19 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1847731</v>
+        <v>1858235</v>
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1858235</v>
+        <v>1873476</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>10504</v>
+        <v>15241</v>
       </c>
       <c r="R18" s="84">
         <f t="shared" si="1"/>
-        <v>77868</v>
+        <v>93109</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
@@ -13608,7 +13608,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13828,7 +13828,9 @@
       <c r="K10" s="75">
         <v>117212</v>
       </c>
-      <c r="L10" s="75"/>
+      <c r="L10" s="75">
+        <v>119220</v>
+      </c>
       <c r="M10" s="75"/>
     </row>
     <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13865,7 +13867,9 @@
       <c r="K11" s="36">
         <v>388373</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="36">
+        <v>391234</v>
+      </c>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13902,7 +13906,9 @@
       <c r="K12" s="75">
         <v>141565</v>
       </c>
-      <c r="L12" s="75"/>
+      <c r="L12" s="75">
+        <v>141823</v>
+      </c>
       <c r="M12" s="75"/>
     </row>
     <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13939,7 +13945,9 @@
       <c r="K13" s="36">
         <v>9508</v>
       </c>
-      <c r="L13" s="36"/>
+      <c r="L13" s="36">
+        <v>9570</v>
+      </c>
       <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13976,7 +13984,9 @@
       <c r="K14" s="75">
         <v>481695</v>
       </c>
-      <c r="L14" s="75"/>
+      <c r="L14" s="75">
+        <v>484648</v>
+      </c>
       <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14013,7 +14023,9 @@
       <c r="K15" s="36">
         <v>2620</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="36">
+        <v>2646</v>
+      </c>
       <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14050,7 +14062,9 @@
       <c r="K16" s="75">
         <v>622204</v>
       </c>
-      <c r="L16" s="75"/>
+      <c r="L16" s="75">
+        <v>626463</v>
+      </c>
       <c r="M16" s="75"/>
     </row>
     <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14087,7 +14101,9 @@
       <c r="K17" s="36">
         <v>95058</v>
       </c>
-      <c r="L17" s="36"/>
+      <c r="L17" s="36">
+        <v>97872</v>
+      </c>
       <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14135,7 +14151,7 @@
       </c>
       <c r="L18" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1873476</v>
       </c>
       <c r="M18" s="80">
         <f t="shared" si="0"/>
@@ -14192,11 +14208,11 @@
       </c>
       <c r="L19" s="58">
         <f>+(L18-K18)/K18*100</f>
+        <v>0.82018689778203513</v>
+      </c>
+      <c r="M19" s="58">
+        <f>+(M18-L18)/L18*100</f>
         <v>-100</v>
-      </c>
-      <c r="M19" s="58" t="e">
-        <f>+(M18-L18)/L18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="N19" s="47"/>
       <c r="O19" s="49"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -169,10 +169,10 @@
     <t>Por división económica 2007 - 2021</t>
   </si>
   <si>
-    <t>Var Nov 2021 respecto a Oct 2021</t>
+    <t>Var Dic2021 respecto a Dic 2020</t>
   </si>
   <si>
-    <t>Var Nov 2021 respecto a Dic 2020</t>
+    <t>Var Dic 2021 respecto a Nov 2021</t>
   </si>
 </sst>
 </file>
@@ -7085,7 +7085,7 @@
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:P18"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7309,10 +7309,10 @@
       </c>
       <c r="P8" s="94"/>
       <c r="Q8" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="92" t="s">
         <v>30</v>
-      </c>
-      <c r="R8" s="92" t="s">
-        <v>31</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -7360,10 +7360,10 @@
         <v>23</v>
       </c>
       <c r="O9" s="85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" s="83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="93"/>
       <c r="R9" s="93"/>
@@ -7415,18 +7415,18 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>117212</v>
+        <v>119220</v>
       </c>
       <c r="P10" s="36">
-        <v>119220</v>
+        <v>116251</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>2008</v>
+        <v>-2969</v>
       </c>
       <c r="R10" s="53">
         <f>P10-N10</f>
-        <v>7453</v>
+        <v>4484</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -7476,18 +7476,18 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>388373</v>
+        <v>391234</v>
       </c>
       <c r="P11" s="36">
-        <v>391234</v>
+        <v>388949</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>2861</v>
+        <v>-2285</v>
       </c>
       <c r="R11" s="53">
         <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>24235</v>
+        <v>21950</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -7537,18 +7537,18 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>141565</v>
+        <v>141823</v>
       </c>
       <c r="P12" s="36">
-        <v>141823</v>
+        <v>134547</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>-7276</v>
       </c>
       <c r="R12" s="53">
         <f t="shared" si="1"/>
-        <v>8674</v>
+        <v>1398</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -7598,18 +7598,18 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>9508</v>
+        <v>9570</v>
       </c>
       <c r="P13" s="36">
-        <v>9570</v>
+        <v>9393</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>-177</v>
       </c>
       <c r="R13" s="53">
         <f t="shared" si="1"/>
-        <v>-414</v>
+        <v>-591</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -7659,18 +7659,18 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>481695</v>
+        <v>484648</v>
       </c>
       <c r="P14" s="36">
-        <v>484648</v>
+        <v>480660</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>2953</v>
+        <v>-3988</v>
       </c>
       <c r="R14" s="53">
         <f t="shared" si="1"/>
-        <v>32107</v>
+        <v>28119</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -7720,18 +7720,18 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2620</v>
+        <v>2646</v>
       </c>
       <c r="P15" s="36">
-        <v>2646</v>
+        <v>2624</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>-22</v>
       </c>
       <c r="R15" s="53">
         <f t="shared" si="1"/>
-        <v>-92</v>
+        <v>-114</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -7781,18 +7781,18 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>622204</v>
+        <v>626463</v>
       </c>
       <c r="P16" s="36">
-        <v>626463</v>
+        <v>620320</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>4259</v>
+        <v>-6143</v>
       </c>
       <c r="R16" s="53">
         <f t="shared" si="1"/>
-        <v>11691</v>
+        <v>5548</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -7842,18 +7842,18 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>95058</v>
+        <v>97872</v>
       </c>
       <c r="P17" s="36">
-        <v>97872</v>
+        <v>97255</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>2814</v>
+        <v>-617</v>
       </c>
       <c r="R17" s="53">
         <f t="shared" si="1"/>
-        <v>9455</v>
+        <v>8838</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -7916,19 +7916,19 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1858235</v>
+        <v>1873476</v>
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1873476</v>
+        <v>1849999</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>15241</v>
+        <v>-23477</v>
       </c>
       <c r="R18" s="84">
         <f t="shared" si="1"/>
-        <v>93109</v>
+        <v>69632</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
@@ -13608,7 +13608,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13831,7 +13831,9 @@
       <c r="L10" s="75">
         <v>119220</v>
       </c>
-      <c r="M10" s="75"/>
+      <c r="M10" s="75">
+        <v>116251</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
@@ -13870,7 +13872,9 @@
       <c r="L11" s="36">
         <v>391234</v>
       </c>
-      <c r="M11" s="36"/>
+      <c r="M11" s="36">
+        <v>388949</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78" t="s">
@@ -13909,7 +13913,9 @@
       <c r="L12" s="75">
         <v>141823</v>
       </c>
-      <c r="M12" s="75"/>
+      <c r="M12" s="75">
+        <v>134547</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
@@ -13948,7 +13954,9 @@
       <c r="L13" s="36">
         <v>9570</v>
       </c>
-      <c r="M13" s="36"/>
+      <c r="M13" s="36">
+        <v>9393</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
@@ -13987,7 +13995,9 @@
       <c r="L14" s="75">
         <v>484648</v>
       </c>
-      <c r="M14" s="75"/>
+      <c r="M14" s="75">
+        <v>480660</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
@@ -14026,7 +14036,9 @@
       <c r="L15" s="36">
         <v>2646</v>
       </c>
-      <c r="M15" s="36"/>
+      <c r="M15" s="36">
+        <v>2624</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78" t="s">
@@ -14065,7 +14077,9 @@
       <c r="L16" s="75">
         <v>626463</v>
       </c>
-      <c r="M16" s="75"/>
+      <c r="M16" s="75">
+        <v>620320</v>
+      </c>
     </row>
     <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -14104,7 +14118,9 @@
       <c r="L17" s="36">
         <v>97872</v>
       </c>
-      <c r="M17" s="36"/>
+      <c r="M17" s="36">
+        <v>97255</v>
+      </c>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="79" t="s">
@@ -14155,7 +14171,7 @@
       </c>
       <c r="M18" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1849999</v>
       </c>
       <c r="N18" s="51"/>
       <c r="O18" s="47"/>
@@ -14212,7 +14228,7 @@
       </c>
       <c r="M19" s="58">
         <f>+(M18-L18)/L18*100</f>
-        <v>-100</v>
+        <v>-1.253125206834782</v>
       </c>
       <c r="N19" s="47"/>
       <c r="O19" s="49"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen Gral 08-21" sheetId="21" r:id="rId1"/>
+    <sheet name="Resumen Gral 08-22" sheetId="21" r:id="rId1"/>
     <sheet name="2000" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="2001" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="2008" sheetId="15" r:id="rId4"/>
@@ -29,6 +29,7 @@
     <sheet name="2019" sheetId="27" r:id="rId15"/>
     <sheet name="2020" sheetId="28" r:id="rId16"/>
     <sheet name="2021" sheetId="29" r:id="rId17"/>
+    <sheet name="2022" sheetId="30" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="rowNest0" localSheetId="10">'2015'!#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="31">
   <si>
     <t>Agricultura, Ganadería, Silvicultura y Pesca</t>
   </si>
@@ -163,26 +164,22 @@
     </r>
   </si>
   <si>
-    <t>2008 - 2021</t>
+    <t>Var Ene 2022 respecto a Dic 2021</t>
   </si>
   <si>
-    <t>Por división económica 2007 - 2021</t>
+    <t>2008 - 2022</t>
   </si>
   <si>
-    <t>Var Dic2021 respecto a Dic 2020</t>
-  </si>
-  <si>
-    <t>Var Dic 2021 respecto a Nov 2021</t>
+    <t>Por división económica 2007 - 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="40" x14ac:knownFonts="1">
     <font>
@@ -880,7 +877,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1033,7 +1030,6 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1071,10 +1067,10 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1100,9 +1096,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="41" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -6795,6 +6788,804 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E76E20-67BC-467B-BE20-D5AA6FBD2319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="2114550"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F787931E-2A86-484D-8E21-FE6EC5FFE725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13363575" y="1609725"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D6D12-E262-48D8-95B5-549E7B0A2AFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13363575" y="1609725"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB77B4F-2520-4EC5-BC9C-0224313D1784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13363575" y="1609725"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="5 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934108F8-1A94-4F7A-98D8-C0096D77848D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="1838325"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="6 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23685B79-E624-4581-8EFF-0A81EAA314F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="1819275"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="7 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2930F80F-0085-4C5A-B82D-626A61252ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="2867025"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="8 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B913663A-6329-4B5C-AA78-E8AB4F6AC9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="2238375"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="9 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79387381-4797-4481-BEBB-FE8135DA57AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="2447925"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="10 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12DBF8-1D73-412D-A55C-96617243EDD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="2028825"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="11 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B124756-5796-4E2C-B22E-78AB3F6871B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="2028825"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="12 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545AAB1-F5B4-4FA9-B6E8-CC8AC328DDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="3286125"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="13 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199CF307-3CB3-42D8-AC82-78936854C782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12706350" y="3286125"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -7082,10 +7873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL23"/>
+  <dimension ref="A1:BK23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="Q8" sqref="Q8:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7094,11 +7885,10 @@
     <col min="2" max="15" width="7.85546875" customWidth="1"/>
     <col min="16" max="16" width="8.140625" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" customWidth="1"/>
-    <col min="19" max="25" width="11.42578125" customWidth="1"/>
+    <col min="18" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -7107,14 +7897,14 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -7132,16 +7922,15 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+    </row>
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -7159,16 +7948,15 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+    </row>
+    <row r="4" spans="1:22" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7186,9 +7974,8 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -7206,63 +7993,60 @@
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
       <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88" t="s">
+    </row>
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+    </row>
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="90" t="s">
+    </row>
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="68">
@@ -7298,28 +8082,27 @@
       <c r="L8" s="68">
         <v>2018</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="71">
         <v>2019</v>
       </c>
-      <c r="N8" s="82">
+      <c r="N8" s="81">
         <v>2020</v>
       </c>
-      <c r="O8" s="94">
+      <c r="O8" s="84">
         <v>2021</v>
       </c>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="92" t="s">
-        <v>30</v>
-      </c>
+      <c r="P8" s="84">
+        <v>2022</v>
+      </c>
+      <c r="Q8" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
+    </row>
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="90"/>
       <c r="B9" s="67" t="s">
         <v>23</v>
       </c>
@@ -7353,25 +8136,24 @@
       <c r="L9" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="73" t="s">
+      <c r="M9" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="81" t="s">
+      <c r="N9" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="83" t="s">
+      <c r="O9" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
+      <c r="P9" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -7415,24 +8197,20 @@
         <v>111767</v>
       </c>
       <c r="O10" s="36">
-        <v>119220</v>
+        <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>116251</v>
+        <v>121583</v>
       </c>
       <c r="Q10" s="36">
         <f>P10-O10</f>
-        <v>-2969</v>
-      </c>
-      <c r="R10" s="53">
-        <f>P10-N10</f>
-        <v>4484</v>
-      </c>
+        <v>5332</v>
+      </c>
+      <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-    </row>
-    <row r="11" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -7476,24 +8254,20 @@
         <v>366999</v>
       </c>
       <c r="O11" s="36">
-        <v>391234</v>
+        <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>388949</v>
+        <v>388222</v>
       </c>
       <c r="Q11" s="36">
         <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>-2285</v>
-      </c>
-      <c r="R11" s="53">
-        <f t="shared" ref="R11:R18" si="1">P11-N11</f>
-        <v>21950</v>
-      </c>
+        <v>-727</v>
+      </c>
+      <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-    </row>
-    <row r="12" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
@@ -7537,24 +8311,20 @@
         <v>133149</v>
       </c>
       <c r="O12" s="36">
-        <v>141823</v>
+        <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>134547</v>
+        <v>135688</v>
       </c>
       <c r="Q12" s="36">
         <f t="shared" si="0"/>
-        <v>-7276</v>
-      </c>
-      <c r="R12" s="53">
-        <f t="shared" si="1"/>
-        <v>1398</v>
-      </c>
+        <v>1141</v>
+      </c>
+      <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-    </row>
-    <row r="13" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -7598,24 +8368,20 @@
         <v>9984</v>
       </c>
       <c r="O13" s="36">
-        <v>9570</v>
+        <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9393</v>
+        <v>9433</v>
       </c>
       <c r="Q13" s="36">
         <f t="shared" si="0"/>
-        <v>-177</v>
-      </c>
-      <c r="R13" s="53">
-        <f t="shared" si="1"/>
-        <v>-591</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-    </row>
-    <row r="14" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
@@ -7659,24 +8425,20 @@
         <v>452541</v>
       </c>
       <c r="O14" s="36">
-        <v>484648</v>
+        <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>480660</v>
+        <v>483047</v>
       </c>
       <c r="Q14" s="36">
         <f t="shared" si="0"/>
-        <v>-3988</v>
-      </c>
-      <c r="R14" s="53">
-        <f t="shared" si="1"/>
-        <v>28119</v>
-      </c>
+        <v>2387</v>
+      </c>
+      <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-    </row>
-    <row r="15" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
@@ -7720,24 +8482,20 @@
         <v>2738</v>
       </c>
       <c r="O15" s="36">
-        <v>2646</v>
+        <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2624</v>
+        <v>2642</v>
       </c>
       <c r="Q15" s="36">
         <f t="shared" si="0"/>
-        <v>-22</v>
-      </c>
-      <c r="R15" s="53">
-        <f t="shared" si="1"/>
-        <v>-114</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-    </row>
-    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:22" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
@@ -7781,24 +8539,20 @@
         <v>614772</v>
       </c>
       <c r="O16" s="36">
-        <v>626463</v>
+        <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>620320</v>
+        <v>622201</v>
       </c>
       <c r="Q16" s="36">
         <f t="shared" si="0"/>
-        <v>-6143</v>
-      </c>
-      <c r="R16" s="53">
-        <f t="shared" si="1"/>
-        <v>5548</v>
-      </c>
+        <v>1881</v>
+      </c>
+      <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-    </row>
-    <row r="17" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -7842,73 +8596,69 @@
         <v>88417</v>
       </c>
       <c r="O17" s="36">
-        <v>97872</v>
+        <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>97255</v>
+        <v>98343</v>
       </c>
       <c r="Q17" s="36">
         <f t="shared" si="0"/>
-        <v>-617</v>
-      </c>
-      <c r="R17" s="53">
-        <f t="shared" si="1"/>
-        <v>8838</v>
-      </c>
+        <v>1088</v>
+      </c>
+      <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-    </row>
-    <row r="18" spans="1:64" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="54">
-        <f t="shared" ref="B18:E18" si="2">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:E18" si="1">SUM(B10:B17)</f>
         <v>1204590</v>
       </c>
       <c r="C18" s="54">
+        <f t="shared" si="1"/>
+        <v>1208019</v>
+      </c>
+      <c r="D18" s="54">
+        <f t="shared" si="1"/>
+        <v>1263487</v>
+      </c>
+      <c r="E18" s="54">
+        <f t="shared" si="1"/>
+        <v>1308282</v>
+      </c>
+      <c r="F18" s="54">
+        <f t="shared" ref="F18:J18" si="2">SUM(F10:F17)</f>
+        <v>1349657</v>
+      </c>
+      <c r="G18" s="54">
         <f t="shared" si="2"/>
-        <v>1208019</v>
-      </c>
-      <c r="D18" s="54">
+        <v>1397248</v>
+      </c>
+      <c r="H18" s="54">
         <f t="shared" si="2"/>
-        <v>1263487</v>
-      </c>
-      <c r="E18" s="54">
+        <v>1463340</v>
+      </c>
+      <c r="I18" s="54">
         <f t="shared" si="2"/>
-        <v>1308282</v>
-      </c>
-      <c r="F18" s="54">
-        <f t="shared" ref="F18:J18" si="3">SUM(F10:F17)</f>
-        <v>1349657</v>
-      </c>
-      <c r="G18" s="54">
+        <v>1535255</v>
+      </c>
+      <c r="J18" s="54">
+        <f t="shared" si="2"/>
+        <v>1624237</v>
+      </c>
+      <c r="K18" s="54">
+        <f t="shared" ref="K18:M18" si="3">SUM(K10:K17)</f>
+        <v>1717868</v>
+      </c>
+      <c r="L18" s="54">
         <f t="shared" si="3"/>
-        <v>1397248</v>
-      </c>
-      <c r="H18" s="54">
+        <v>1761000</v>
+      </c>
+      <c r="M18" s="54">
         <f t="shared" si="3"/>
-        <v>1463340</v>
-      </c>
-      <c r="I18" s="54">
-        <f t="shared" si="3"/>
-        <v>1535255</v>
-      </c>
-      <c r="J18" s="54">
-        <f t="shared" si="3"/>
-        <v>1624237</v>
-      </c>
-      <c r="K18" s="54">
-        <f t="shared" ref="K18:M18" si="4">SUM(K10:K17)</f>
-        <v>1717868</v>
-      </c>
-      <c r="L18" s="54">
-        <f t="shared" si="4"/>
-        <v>1761000</v>
-      </c>
-      <c r="M18" s="54">
-        <f t="shared" si="4"/>
         <v>1812699</v>
       </c>
       <c r="N18" s="54">
@@ -7916,25 +8666,21 @@
       </c>
       <c r="O18" s="54">
         <f>SUM(O10:O17)</f>
-        <v>1873476</v>
+        <v>1849999</v>
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1849999</v>
+        <v>1861159</v>
       </c>
       <c r="Q18" s="57">
         <f t="shared" si="0"/>
-        <v>-23477</v>
-      </c>
-      <c r="R18" s="84">
-        <f t="shared" si="1"/>
-        <v>69632</v>
-      </c>
+        <v>11160</v>
+      </c>
+      <c r="R18" s="24"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-    </row>
-    <row r="19" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -7946,36 +8692,34 @@
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
       <c r="L19" s="63"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="70"/>
-    </row>
-    <row r="20" spans="1:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+    </row>
+    <row r="20" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-    </row>
-    <row r="21" spans="1:64" s="18" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+    </row>
+    <row r="21" spans="1:63" s="18" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -7993,14 +8737,13 @@
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-    </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:64" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8063,22 +8806,19 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="14"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A11:K17">
     <sortCondition ref="A10:A17"/>
   </sortState>
-  <mergeCells count="10">
-    <mergeCell ref="A20:R20"/>
+  <mergeCells count="8">
+    <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A7:Q7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:Q9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
@@ -8124,55 +8864,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2014</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -8190,60 +8930,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2014</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -8810,21 +9550,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:95" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -8931,55 +9671,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2015</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -8997,60 +9737,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2015</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -9586,21 +10326,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -9705,55 +10445,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2016</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -9771,60 +10511,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2016</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -10367,21 +11107,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -10490,55 +11230,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2017</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -10556,60 +11296,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2017</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11152,21 +11892,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -11276,55 +12016,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2018</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -11342,60 +12082,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2018</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11938,21 +12678,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -12065,55 +12805,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2019</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -12131,60 +12871,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2019</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -12727,21 +13467,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -12851,55 +13591,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2020</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -12917,60 +13657,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2020</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -13009,43 +13749,43 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="74">
         <v>112151</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="74">
         <v>112730</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="74">
         <v>113150</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="75">
         <v>115014</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="75">
         <v>112715</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="74">
         <v>105937</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="74">
         <v>96061</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="74">
         <v>105222</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="74">
         <v>107865</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="74">
         <v>110774</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <v>114437</v>
       </c>
-      <c r="M10" s="75">
+      <c r="M10" s="74">
         <v>111767</v>
       </c>
     </row>
@@ -13062,10 +13802,10 @@
       <c r="D11" s="36">
         <v>366843</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="76">
         <v>363126</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="76">
         <v>358826</v>
       </c>
       <c r="G11" s="36">
@@ -13091,43 +13831,43 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>147610</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="74">
         <v>150698</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="74">
         <v>149690</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="75">
         <v>138688</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <v>137575</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="74">
         <v>139757</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="74">
         <v>138201</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="74">
         <v>137917</v>
       </c>
-      <c r="J12" s="75">
+      <c r="J12" s="74">
         <v>137841</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="74">
         <v>139444</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="74">
         <v>140212</v>
       </c>
-      <c r="M12" s="75">
+      <c r="M12" s="74">
         <v>133149</v>
       </c>
     </row>
@@ -13144,10 +13884,10 @@
       <c r="D13" s="36">
         <v>9921</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="76">
         <v>9758</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="76">
         <v>9733</v>
       </c>
       <c r="G13" s="36">
@@ -13173,43 +13913,43 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <v>458363</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="74">
         <v>461538</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="74">
         <v>459451</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="75">
         <v>452234</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="75">
         <v>444648</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="74">
         <v>441629</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="74">
         <v>440830</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="74">
         <v>443332</v>
       </c>
-      <c r="J14" s="75">
+      <c r="J14" s="74">
         <v>447361</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="74">
         <v>451827</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="74">
         <v>456439</v>
       </c>
-      <c r="M14" s="75">
+      <c r="M14" s="74">
         <v>452541</v>
       </c>
     </row>
@@ -13226,10 +13966,10 @@
       <c r="D15" s="36">
         <v>2670</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="76">
         <v>2534</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="76">
         <v>2618</v>
       </c>
       <c r="G15" s="36">
@@ -13255,43 +13995,43 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>639358</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="74">
         <v>646025</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="74">
         <v>641048</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="75">
         <v>624221</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="75">
         <v>617059</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="74">
         <v>611383</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="74">
         <v>609696</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="74">
         <v>612253</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="74">
         <v>615269</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="74">
         <v>619956</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="74">
         <v>623527</v>
       </c>
-      <c r="M16" s="75">
+      <c r="M16" s="74">
         <v>614772</v>
       </c>
     </row>
@@ -13308,10 +14048,10 @@
       <c r="D17" s="36">
         <v>89167</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="76">
         <v>88220</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="76">
         <v>87150</v>
       </c>
       <c r="G17" s="36">
@@ -13337,54 +14077,54 @@
       </c>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="80">
+      <c r="B18" s="79">
         <f>SUM(B10:B17)</f>
         <v>1822293</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="79">
         <f t="shared" ref="C18:M18" si="0">SUM(C10:C17)</f>
         <v>1837966</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="79">
         <f t="shared" si="0"/>
         <v>1831940</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="79">
         <f>SUM(E10:E17)</f>
         <v>1793795</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="79">
         <f t="shared" si="0"/>
         <v>1770324</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="79">
         <f t="shared" si="0"/>
         <v>1755765</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="79">
         <f t="shared" si="0"/>
         <v>1742635</v>
       </c>
-      <c r="I18" s="80">
+      <c r="I18" s="79">
         <f t="shared" si="0"/>
         <v>1758496</v>
       </c>
-      <c r="J18" s="80">
+      <c r="J18" s="79">
         <f t="shared" si="0"/>
         <v>1769661</v>
       </c>
-      <c r="K18" s="80">
+      <c r="K18" s="79">
         <f t="shared" si="0"/>
         <v>1788334</v>
       </c>
-      <c r="L18" s="80">
+      <c r="L18" s="79">
         <f t="shared" si="0"/>
         <v>1805269</v>
       </c>
-      <c r="M18" s="80">
+      <c r="M18" s="79">
         <f t="shared" si="0"/>
         <v>1780367</v>
       </c>
@@ -13513,21 +14253,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -13608,7 +14348,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13637,55 +14377,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2021</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -13703,60 +14443,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2021</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -13795,43 +14535,43 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="74">
         <v>113465</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="74">
         <v>114511</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="74">
         <v>112922</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="75">
         <v>113463</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="75">
         <v>108441</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="74">
         <v>107839</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="74">
         <v>108146</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="74">
         <v>112612</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="74">
         <v>115046</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="74">
         <v>117212</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <v>119220</v>
       </c>
-      <c r="M10" s="75">
+      <c r="M10" s="74">
         <v>116251</v>
       </c>
     </row>
@@ -13848,10 +14588,10 @@
       <c r="D11" s="36">
         <v>368633</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="76">
         <v>369950</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="76">
         <v>369627</v>
       </c>
       <c r="G11" s="36">
@@ -13877,43 +14617,43 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>135474</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="74">
         <v>135332</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="74">
         <v>134646</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="75">
         <v>136279</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <v>138531</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="74">
         <v>140925</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="74">
         <v>137423</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="74">
         <v>139603</v>
       </c>
-      <c r="J12" s="75">
+      <c r="J12" s="74">
         <v>140812</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="74">
         <v>141565</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="74">
         <v>141823</v>
       </c>
-      <c r="M12" s="75">
+      <c r="M12" s="74">
         <v>134547</v>
       </c>
     </row>
@@ -13930,10 +14670,10 @@
       <c r="D13" s="36">
         <v>10132</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="76">
         <v>9977</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="76">
         <v>10007</v>
       </c>
       <c r="G13" s="36">
@@ -13959,43 +14699,43 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <v>455835</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="74">
         <v>461408</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="74">
         <v>462527</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="75">
         <v>463728</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="75">
         <v>467355</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="74">
         <v>464115</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="74">
         <v>473006</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="74">
         <v>477017</v>
       </c>
-      <c r="J14" s="75">
+      <c r="J14" s="74">
         <v>480063</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="74">
         <v>481695</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="74">
         <v>484648</v>
       </c>
-      <c r="M14" s="75">
+      <c r="M14" s="74">
         <v>480660</v>
       </c>
     </row>
@@ -14012,10 +14752,10 @@
       <c r="D15" s="36">
         <v>2534</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="76">
         <v>2495</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="76">
         <v>2465</v>
       </c>
       <c r="G15" s="36">
@@ -14041,43 +14781,43 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>616421</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="74">
         <v>621192</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="74">
         <v>624178</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="75">
         <v>626734</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="75">
         <v>629782</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="74">
         <v>633445</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="74">
         <v>620513</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="74">
         <v>619137</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="74">
         <v>619859</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="74">
         <v>622204</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="74">
         <v>626463</v>
       </c>
-      <c r="M16" s="75">
+      <c r="M16" s="74">
         <v>620320</v>
       </c>
     </row>
@@ -14094,10 +14834,10 @@
       <c r="D17" s="36">
         <v>88047</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="76">
         <v>88258</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="76">
         <v>89399</v>
       </c>
       <c r="G17" s="36">
@@ -14123,53 +14863,53 @@
       </c>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="80">
+      <c r="B18" s="79">
         <f>SUM(B10:B17)</f>
         <v>1787122</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="79">
         <v>1800733</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="79">
         <f t="shared" ref="D18:M18" si="0">SUM(D10:D17)</f>
         <v>1803619</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="79">
         <f>SUM(E10:E17)</f>
         <v>1810884</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="79">
         <f t="shared" si="0"/>
         <v>1815607</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="79">
         <f t="shared" si="0"/>
         <v>1820785</v>
       </c>
-      <c r="H18" s="80">
+      <c r="H18" s="79">
         <f t="shared" si="0"/>
         <v>1826575</v>
       </c>
-      <c r="I18" s="80">
+      <c r="I18" s="79">
         <f t="shared" si="0"/>
         <v>1837975</v>
       </c>
-      <c r="J18" s="80">
+      <c r="J18" s="79">
         <f t="shared" si="0"/>
         <v>1847731</v>
       </c>
-      <c r="K18" s="80">
+      <c r="K18" s="79">
         <f t="shared" si="0"/>
         <v>1858235</v>
       </c>
-      <c r="L18" s="80">
+      <c r="L18" s="79">
         <f t="shared" si="0"/>
         <v>1873476</v>
       </c>
-      <c r="M18" s="80">
+      <c r="M18" s="79">
         <f t="shared" si="0"/>
         <v>1849999</v>
       </c>
@@ -14298,21 +15038,631 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+    </row>
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+    </row>
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+    </row>
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="60"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BL29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="4" max="13" width="8" style="29" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="86">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="99">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="89"/>
+      <c r="B9" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="74">
+        <v>121583</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="36">
+        <v>388222</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="74">
+        <v>135688</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="36">
+        <v>9433</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="74">
+        <v>483047</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="36">
+        <v>2642</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="74">
+        <v>622201</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="36">
+        <v>98343</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="79">
+        <f>SUM(B10:B17)</f>
+        <v>1861159</v>
+      </c>
+      <c r="C18" s="79">
+        <f>SUM(C10:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="79">
+        <f t="shared" ref="D18:M18" si="0">SUM(D10:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="79">
+        <f>SUM(E10:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+    </row>
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="58">
+        <f>(B18/'2021'!M18-1)*100</f>
+        <v>0.60324356932084378</v>
+      </c>
+      <c r="C19" s="58">
+        <f t="shared" ref="C19:H19" si="1">+(C18-B18)/B18*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D19" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="58" t="e">
+        <f>+(G18-F18)/F18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="58" t="e">
+        <f>+(I18-H18)/H18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="58" t="e">
+        <f>+(J18-I18)/I18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="58" t="e">
+        <f>+(K18-J18)/J18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="58" t="e">
+        <f>+(L18-K18)/K18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="58" t="e">
+        <f>+(M18-L18)/L18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="47"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="47"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="47"/>
+      <c r="BI19" s="47"/>
+      <c r="BJ19" s="47"/>
+      <c r="BK19" s="47"/>
+      <c r="BL19" s="47"/>
+    </row>
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -14427,21 +15777,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:44" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -14475,21 +15825,21 @@
       <c r="AR2" s="4"/>
     </row>
     <row r="3" spans="1:44" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -14523,21 +15873,21 @@
       <c r="AR3" s="8"/>
     </row>
     <row r="4" spans="1:44" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2000</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -14605,21 +15955,21 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14644,21 +15994,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14683,26 +16033,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="95">
         <v>2000</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
     </row>
     <row r="9" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -15230,36 +16580,36 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -15354,55 +16704,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2001</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
@@ -15417,60 +16767,60 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="95">
         <v>2001</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
     </row>
     <row r="9" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -15957,36 +17307,36 @@
       <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
     </row>
     <row r="23" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -16079,21 +17429,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -16108,21 +17458,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -16137,21 +17487,21 @@
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2008</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -16193,21 +17543,21 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -16222,21 +17572,21 @@
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -16251,26 +17601,26 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2008</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -16839,21 +18189,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -16990,21 +18340,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -17019,21 +18369,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -17048,21 +18398,21 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2009</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -17104,21 +18454,21 @@
       <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -17133,21 +18483,21 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -17162,26 +18512,26 @@
       <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:25" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2009</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -17757,21 +19107,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -17910,21 +19260,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -17938,21 +19288,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -17966,21 +19316,21 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2010</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -18020,21 +19370,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -18048,21 +19398,21 @@
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -18076,26 +19426,26 @@
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="1:24" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2010</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -18677,21 +20027,21 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:107" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18837,21 +20187,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -18861,21 +20211,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -18885,21 +20235,21 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2011</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -18931,21 +20281,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -18955,21 +20305,21 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -18979,26 +20329,26 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2011</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -19566,21 +20916,21 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -19728,57 +21078,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2012</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19798,62 +21148,62 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2012</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -20421,21 +21771,21 @@
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -20560,57 +21910,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="86">
         <v>2013</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20630,62 +21980,62 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>2013</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -21255,21 +22605,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="32">
   <si>
     <t>Agricultura, Ganadería, Silvicultura y Pesca</t>
   </si>
@@ -164,13 +164,16 @@
     </r>
   </si>
   <si>
-    <t>Var Ene 2022 respecto a Dic 2021</t>
-  </si>
-  <si>
     <t>2008 - 2022</t>
   </si>
   <si>
     <t>Por división económica 2007 - 2022</t>
+  </si>
+  <si>
+    <t>Var feb 2022 respecto a ene 2022</t>
+  </si>
+  <si>
+    <t>Var feb 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -877,7 +880,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1073,6 +1076,9 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,6 +1128,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7873,22 +7882,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK23"/>
+  <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8:Q9"/>
+      <selection activeCell="P8" sqref="P8:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="15" width="7.85546875" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="24" width="11.42578125" customWidth="1"/>
+    <col min="16" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -7897,14 +7906,14 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -7922,15 +7931,17 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -7948,15 +7959,17 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:22" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+    </row>
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7974,8 +7987,10 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -7993,60 +8008,66 @@
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
       <c r="Q5" s="66"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
       <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
       <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="68">
@@ -8091,18 +8112,22 @@
       <c r="O8" s="84">
         <v>2021</v>
       </c>
-      <c r="P8" s="84">
+      <c r="P8" s="103">
         <v>2022</v>
       </c>
-      <c r="Q8" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="92" t="s">
+        <v>31</v>
+      </c>
       <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="91"/>
       <c r="B9" s="67" t="s">
         <v>23</v>
       </c>
@@ -8148,12 +8173,16 @@
       <c r="P9" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="Q9" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
       <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -8203,14 +8232,21 @@
         <v>121583</v>
       </c>
       <c r="Q10" s="36">
-        <f>P10-O10</f>
-        <v>5332</v>
-      </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
+        <v>123302</v>
+      </c>
+      <c r="R10" s="36">
+        <f>Q10-P10</f>
+        <v>1719</v>
+      </c>
+      <c r="S10" s="36">
+        <f>Q10-O10</f>
+        <v>7051</v>
+      </c>
       <c r="T10" s="22"/>
-    </row>
-    <row r="11" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -8260,14 +8296,21 @@
         <v>388222</v>
       </c>
       <c r="Q11" s="36">
-        <f t="shared" ref="Q11:Q18" si="0">P11-O11</f>
-        <v>-727</v>
-      </c>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
+        <v>388746</v>
+      </c>
+      <c r="R11" s="36">
+        <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
+        <v>524</v>
+      </c>
+      <c r="S11" s="36">
+        <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
+        <v>-203</v>
+      </c>
       <c r="T11" s="22"/>
-    </row>
-    <row r="12" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+    </row>
+    <row r="12" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
@@ -8317,14 +8360,21 @@
         <v>135688</v>
       </c>
       <c r="Q12" s="36">
+        <v>136388</v>
+      </c>
+      <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>1141</v>
-      </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
+        <v>700</v>
+      </c>
+      <c r="S12" s="36">
+        <f t="shared" si="1"/>
+        <v>1841</v>
+      </c>
       <c r="T12" s="22"/>
-    </row>
-    <row r="13" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -8374,14 +8424,21 @@
         <v>9433</v>
       </c>
       <c r="Q13" s="36">
+        <v>9550</v>
+      </c>
+      <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
+        <v>117</v>
+      </c>
+      <c r="S13" s="36">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
       <c r="T13" s="22"/>
-    </row>
-    <row r="14" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+    </row>
+    <row r="14" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
@@ -8431,14 +8488,21 @@
         <v>483047</v>
       </c>
       <c r="Q14" s="36">
+        <v>487818</v>
+      </c>
+      <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>2387</v>
-      </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
+        <v>4771</v>
+      </c>
+      <c r="S14" s="36">
+        <f t="shared" si="1"/>
+        <v>7158</v>
+      </c>
       <c r="T14" s="22"/>
-    </row>
-    <row r="15" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
@@ -8488,14 +8552,21 @@
         <v>2642</v>
       </c>
       <c r="Q15" s="36">
+        <v>2643</v>
+      </c>
+      <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="36">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="T15" s="22"/>
-    </row>
-    <row r="16" spans="1:22" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+    </row>
+    <row r="16" spans="1:24" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
@@ -8545,14 +8616,21 @@
         <v>622201</v>
       </c>
       <c r="Q16" s="36">
+        <v>626630</v>
+      </c>
+      <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>1881</v>
-      </c>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
+        <v>4429</v>
+      </c>
+      <c r="S16" s="36">
+        <f t="shared" si="1"/>
+        <v>6310</v>
+      </c>
       <c r="T16" s="22"/>
-    </row>
-    <row r="17" spans="1:63" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" spans="1:65" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -8602,63 +8680,70 @@
         <v>98343</v>
       </c>
       <c r="Q17" s="36">
+        <v>99545</v>
+      </c>
+      <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>1088</v>
-      </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
+        <v>1202</v>
+      </c>
+      <c r="S17" s="36">
+        <f t="shared" si="1"/>
+        <v>2290</v>
+      </c>
       <c r="T17" s="22"/>
-    </row>
-    <row r="18" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+    </row>
+    <row r="18" spans="1:65" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="54">
-        <f t="shared" ref="B18:E18" si="1">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:E18" si="2">SUM(B10:B17)</f>
         <v>1204590</v>
       </c>
       <c r="C18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1208019</v>
       </c>
       <c r="D18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1263487</v>
       </c>
       <c r="E18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1308282</v>
       </c>
       <c r="F18" s="54">
-        <f t="shared" ref="F18:J18" si="2">SUM(F10:F17)</f>
+        <f t="shared" ref="F18:J18" si="3">SUM(F10:F17)</f>
         <v>1349657</v>
       </c>
       <c r="G18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1397248</v>
       </c>
       <c r="H18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1463340</v>
       </c>
       <c r="I18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1535255</v>
       </c>
       <c r="J18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1624237</v>
       </c>
       <c r="K18" s="54">
-        <f t="shared" ref="K18:M18" si="3">SUM(K10:K17)</f>
+        <f t="shared" ref="K18:M18" si="4">SUM(K10:K17)</f>
         <v>1717868</v>
       </c>
       <c r="L18" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1761000</v>
       </c>
       <c r="M18" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1812699</v>
       </c>
       <c r="N18" s="54">
@@ -8672,15 +8757,23 @@
         <f>SUM(P10:P17)</f>
         <v>1861159</v>
       </c>
-      <c r="Q18" s="57">
-        <f t="shared" si="0"/>
-        <v>11160</v>
-      </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
+      <c r="Q18" s="54">
+        <f>SUM(Q10:Q17)</f>
+        <v>1874622</v>
+      </c>
+      <c r="R18" s="54">
+        <f>SUM(R10:R17)</f>
+        <v>13463</v>
+      </c>
+      <c r="S18" s="57">
+        <f>SUM(S10:S17)</f>
+        <v>24623</v>
+      </c>
       <c r="T18" s="24"/>
-    </row>
-    <row r="19" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+    </row>
+    <row r="19" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -8697,29 +8790,33 @@
       <c r="O19" s="70"/>
       <c r="P19" s="70"/>
       <c r="Q19" s="70"/>
-    </row>
-    <row r="20" spans="1:63" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+    </row>
+    <row r="20" spans="1:65" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-    </row>
-    <row r="21" spans="1:63" s="18" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+    </row>
+    <row r="21" spans="1:65" s="18" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -8737,13 +8834,15 @@
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8806,20 +8905,24 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="14"/>
       <c r="BK23" s="14"/>
+      <c r="BL23" s="14"/>
+      <c r="BM23" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A11:K17">
     <sortCondition ref="A10:A17"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="A20:Q20"/>
+  <mergeCells count="10">
+    <mergeCell ref="A20:S20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -8864,55 +8967,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2014</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -8930,60 +9033,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2014</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -9550,21 +9653,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:95" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -9671,55 +9774,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2015</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -9737,60 +9840,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2015</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -10326,21 +10429,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -10445,55 +10548,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2016</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -10511,60 +10614,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2016</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11107,21 +11210,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -11230,55 +11333,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2017</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -11296,60 +11399,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2017</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11892,21 +11995,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -12016,55 +12119,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2018</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -12082,60 +12185,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2018</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -12678,21 +12781,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -12805,55 +12908,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2019</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -12871,60 +12974,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2019</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -13467,21 +13570,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -13591,55 +13694,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2020</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -13657,60 +13760,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2020</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -14253,21 +14356,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -14377,55 +14480,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2021</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -14443,60 +14546,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2021</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -15038,21 +15141,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -15133,7 +15236,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15162,55 +15265,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2022</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -15228,60 +15331,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2022</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -15326,7 +15429,9 @@
       <c r="B10" s="74">
         <v>121583</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="74">
+        <v>123302</v>
+      </c>
       <c r="D10" s="74"/>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
@@ -15345,7 +15450,9 @@
       <c r="B11" s="36">
         <v>388222</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="36">
+        <v>388746</v>
+      </c>
       <c r="D11" s="36"/>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
@@ -15364,7 +15471,9 @@
       <c r="B12" s="74">
         <v>135688</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="74">
+        <v>136388</v>
+      </c>
       <c r="D12" s="74"/>
       <c r="E12" s="75"/>
       <c r="F12" s="75"/>
@@ -15383,7 +15492,9 @@
       <c r="B13" s="36">
         <v>9433</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="36">
+        <v>9550</v>
+      </c>
       <c r="D13" s="36"/>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
@@ -15402,7 +15513,9 @@
       <c r="B14" s="74">
         <v>483047</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="74">
+        <v>487818</v>
+      </c>
       <c r="D14" s="74"/>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
@@ -15421,7 +15534,9 @@
       <c r="B15" s="36">
         <v>2642</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36">
+        <v>2643</v>
+      </c>
       <c r="D15" s="36"/>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
@@ -15440,7 +15555,9 @@
       <c r="B16" s="74">
         <v>622201</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74">
+        <v>626630</v>
+      </c>
       <c r="D16" s="74"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
@@ -15459,7 +15576,9 @@
       <c r="B17" s="36">
         <v>98343</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="36">
+        <v>99545</v>
+      </c>
       <c r="D17" s="36"/>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
@@ -15481,7 +15600,7 @@
       </c>
       <c r="C18" s="79">
         <f>SUM(C10:C17)</f>
-        <v>0</v>
+        <v>1874622</v>
       </c>
       <c r="D18" s="79">
         <f t="shared" ref="D18:M18" si="0">SUM(D10:D17)</f>
@@ -15537,12 +15656,12 @@
         <v>0.60324356932084378</v>
       </c>
       <c r="C19" s="58">
-        <f t="shared" ref="C19:H19" si="1">+(C18-B18)/B18*100</f>
+        <f>+(C18-B18)/B18*100</f>
+        <v>0.72336646143612671</v>
+      </c>
+      <c r="D19" s="58">
+        <f t="shared" ref="C19:H19" si="1">+(D18-C18)/C18*100</f>
         <v>-100</v>
-      </c>
-      <c r="D19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="E19" s="58" t="e">
         <f t="shared" si="1"/>
@@ -15648,21 +15767,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -15777,21 +15896,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:44" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -15825,21 +15944,21 @@
       <c r="AR2" s="4"/>
     </row>
     <row r="3" spans="1:44" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -15873,21 +15992,21 @@
       <c r="AR3" s="8"/>
     </row>
     <row r="4" spans="1:44" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2000</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -15955,21 +16074,21 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -15994,21 +16113,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -16033,26 +16152,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="96">
         <v>2000</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
     </row>
     <row r="9" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -16580,36 +16699,36 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -16704,55 +16823,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2001</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
@@ -16767,60 +16886,60 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="96">
         <v>2001</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
     </row>
     <row r="9" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -17307,36 +17426,36 @@
       <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
     </row>
     <row r="23" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -17429,21 +17548,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -17458,21 +17577,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -17487,21 +17606,21 @@
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2008</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -17543,21 +17662,21 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -17572,21 +17691,21 @@
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -17601,26 +17720,26 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2008</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -18189,21 +18308,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -18340,21 +18459,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -18369,21 +18488,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -18398,21 +18517,21 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2009</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -18454,21 +18573,21 @@
       <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -18483,21 +18602,21 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -18512,26 +18631,26 @@
       <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:25" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2009</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -19107,21 +19226,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -19260,21 +19379,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -19288,21 +19407,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -19316,21 +19435,21 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2010</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -19370,21 +19489,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -19398,21 +19517,21 @@
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -19426,26 +19545,26 @@
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="1:24" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2010</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -20027,21 +20146,21 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:107" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20187,21 +20306,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -20211,21 +20330,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -20235,21 +20354,21 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2011</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -20281,21 +20400,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -20305,21 +20424,21 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -20329,26 +20448,26 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2011</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -20916,21 +21035,21 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -21078,57 +21197,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2012</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21148,62 +21267,62 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2012</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -21771,21 +21890,21 @@
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -21910,57 +22029,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="A4" s="87">
         <v>2013</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21980,62 +22099,62 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="100">
         <v>2013</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -22605,21 +22724,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var feb 2022 respecto a ene 2022</t>
+    <t>Var mar 2022 respecto a feb 2022</t>
   </si>
   <si>
-    <t>Var feb 2022 respecto a dic 2021</t>
+    <t>Var mar 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1103,6 +1103,9 @@
     <xf numFmtId="0" fontId="18" fillId="41" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1128,9 +1131,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7885,7 +7885,7 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:S9"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8112,10 +8112,10 @@
       <c r="O8" s="84">
         <v>2021</v>
       </c>
-      <c r="P8" s="103">
+      <c r="P8" s="94">
         <v>2022</v>
       </c>
-      <c r="Q8" s="103"/>
+      <c r="Q8" s="94"/>
       <c r="R8" s="92" t="s">
         <v>30</v>
       </c>
@@ -8171,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="85" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8229,18 +8229,18 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>121583</v>
+        <v>123302</v>
       </c>
       <c r="Q10" s="36">
-        <v>123302</v>
+        <v>124917</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>1719</v>
+        <v>1615</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>7051</v>
+        <v>8666</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -8293,18 +8293,18 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>388222</v>
+        <v>388746</v>
       </c>
       <c r="Q11" s="36">
-        <v>388746</v>
+        <v>389036</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>524</v>
+        <v>290</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>-203</v>
+        <v>87</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -8357,18 +8357,18 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>135688</v>
+        <v>136388</v>
       </c>
       <c r="Q12" s="36">
-        <v>136388</v>
+        <v>137344</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>956</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>1841</v>
+        <v>2797</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -8421,18 +8421,18 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9433</v>
+        <v>9550</v>
       </c>
       <c r="Q13" s="36">
-        <v>9550</v>
+        <v>9619</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -8485,18 +8485,18 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>483047</v>
+        <v>487818</v>
       </c>
       <c r="Q14" s="36">
-        <v>487818</v>
+        <v>493413</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>4771</v>
+        <v>5595</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>7158</v>
+        <v>12753</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -8549,18 +8549,18 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="Q15" s="36">
-        <v>2643</v>
+        <v>2577</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-66</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>-47</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -8613,18 +8613,18 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>622201</v>
+        <v>626630</v>
       </c>
       <c r="Q16" s="36">
-        <v>626630</v>
+        <v>630046</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>4429</v>
+        <v>3416</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>6310</v>
+        <v>9726</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -8677,18 +8677,18 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>98343</v>
+        <v>99545</v>
       </c>
       <c r="Q17" s="36">
-        <v>99545</v>
+        <v>99824</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>1202</v>
+        <v>279</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>2290</v>
+        <v>2569</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1861159</v>
+        <v>1874622</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1874622</v>
+        <v>1886776</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>13463</v>
+        <v>12154</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>24623</v>
+        <v>36777</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -9033,57 +9033,57 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2014</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -9653,21 +9653,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:95" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -9840,57 +9840,57 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2015</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -10429,21 +10429,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -10614,57 +10614,57 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2016</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -11210,21 +11210,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -11399,57 +11399,57 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2017</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -11995,21 +11995,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -12185,57 +12185,57 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2018</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -12781,21 +12781,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -12974,57 +12974,57 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2019</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -13570,21 +13570,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -13760,57 +13760,57 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2020</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -14356,21 +14356,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -14546,57 +14546,57 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2021</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -15141,21 +15141,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -15236,7 +15236,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15331,57 +15331,57 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2022</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -15432,7 +15432,9 @@
       <c r="C10" s="74">
         <v>123302</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="74">
+        <v>124917</v>
+      </c>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
       <c r="G10" s="74"/>
@@ -15453,7 +15455,9 @@
       <c r="C11" s="36">
         <v>388746</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="36">
+        <v>389036</v>
+      </c>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
       <c r="G11" s="36"/>
@@ -15474,7 +15478,9 @@
       <c r="C12" s="74">
         <v>136388</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="74">
+        <v>137344</v>
+      </c>
       <c r="E12" s="75"/>
       <c r="F12" s="75"/>
       <c r="G12" s="74"/>
@@ -15495,7 +15501,9 @@
       <c r="C13" s="36">
         <v>9550</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="36">
+        <v>9619</v>
+      </c>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
       <c r="G13" s="36"/>
@@ -15516,7 +15524,9 @@
       <c r="C14" s="74">
         <v>487818</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="74">
+        <v>493413</v>
+      </c>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="74"/>
@@ -15537,7 +15547,9 @@
       <c r="C15" s="36">
         <v>2643</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="36">
+        <v>2577</v>
+      </c>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
       <c r="G15" s="36"/>
@@ -15558,7 +15570,9 @@
       <c r="C16" s="74">
         <v>626630</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="74">
+        <v>630046</v>
+      </c>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
       <c r="G16" s="74"/>
@@ -15579,7 +15593,9 @@
       <c r="C17" s="36">
         <v>99545</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="36">
+        <v>99824</v>
+      </c>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
       <c r="G17" s="36"/>
@@ -15604,7 +15620,7 @@
       </c>
       <c r="D18" s="79">
         <f t="shared" ref="D18:M18" si="0">SUM(D10:D17)</f>
-        <v>0</v>
+        <v>1886776</v>
       </c>
       <c r="E18" s="79">
         <f>SUM(E10:E17)</f>
@@ -15660,12 +15676,12 @@
         <v>0.72336646143612671</v>
       </c>
       <c r="D19" s="58">
-        <f t="shared" ref="C19:H19" si="1">+(D18-C18)/C18*100</f>
+        <f t="shared" ref="D19:H19" si="1">+(D18-C18)/C18*100</f>
+        <v>0.64834403949169495</v>
+      </c>
+      <c r="E19" s="58">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="E19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="58" t="e">
         <f t="shared" si="1"/>
@@ -15767,21 +15783,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -16074,21 +16090,21 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -16113,21 +16129,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -16152,26 +16168,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="96">
+      <c r="B8" s="97">
         <v>2000</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
     </row>
     <row r="9" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -16699,36 +16715,36 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -16886,60 +16902,60 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="96">
+      <c r="B8" s="97">
         <v>2001</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
     </row>
     <row r="9" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -17426,36 +17442,36 @@
       <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
     </row>
     <row r="23" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -17662,21 +17678,21 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -17691,21 +17707,21 @@
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -17720,23 +17736,23 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2008</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -18308,21 +18324,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -18573,21 +18589,21 @@
       <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -18602,21 +18618,21 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -18631,23 +18647,23 @@
       <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:25" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2009</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -19226,21 +19242,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -19489,21 +19505,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -19517,21 +19533,21 @@
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -19545,23 +19561,23 @@
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="1:24" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2010</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -20146,21 +20162,21 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:107" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20400,21 +20416,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -20424,21 +20440,21 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -20448,23 +20464,23 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2011</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -21035,21 +21051,21 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -21267,59 +21283,59 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2012</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -21890,21 +21906,21 @@
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -22099,59 +22115,59 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="101">
         <v>2013</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
@@ -22724,21 +22740,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
     </row>
     <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344" tabRatio="848"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Gral 08-22" sheetId="21" r:id="rId1"/>
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var mar 2022 respecto a feb 2022</t>
+    <t>Var abr 2022 respecto a mar 2022</t>
   </si>
   <si>
-    <t>Var mar 2022 respecto a dic 2021</t>
+    <t>Var abr 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1070,10 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7885,19 +7885,19 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="15" width="7.85546875" customWidth="1"/>
-    <col min="16" max="17" width="8.140625" customWidth="1"/>
-    <col min="18" max="19" width="8.7109375" customWidth="1"/>
-    <col min="20" max="26" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="17" width="8.125" customWidth="1"/>
+    <col min="18" max="19" width="8.75" customWidth="1"/>
+    <col min="20" max="26" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -7906,7 +7906,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -7934,7 +7934,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87" t="s">
         <v>28</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -8014,7 +8014,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
         <v>12</v>
       </c>
@@ -8040,7 +8040,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>29</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>24</v>
       </c>
@@ -8109,7 +8109,7 @@
       <c r="N8" s="81">
         <v>2020</v>
       </c>
-      <c r="O8" s="84">
+      <c r="O8" s="83">
         <v>2021</v>
       </c>
       <c r="P8" s="94">
@@ -8126,7 +8126,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="67" t="s">
         <v>23</v>
@@ -8167,14 +8167,14 @@
       <c r="N9" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="83" t="s">
+      <c r="O9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="85" t="s">
+      <c r="P9" s="85" t="s">
         <v>14</v>
+      </c>
+      <c r="Q9" s="84" t="s">
+        <v>15</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8182,7 +8182,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:24" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="23" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -8229,24 +8229,24 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>123302</v>
+        <v>124917</v>
       </c>
       <c r="Q10" s="36">
-        <v>124917</v>
+        <v>120707</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>1615</v>
+        <v>-4210</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>8666</v>
+        <v>4456</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
     </row>
-    <row r="11" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -8293,24 +8293,24 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>388746</v>
+        <v>389036</v>
       </c>
       <c r="Q11" s="36">
-        <v>389036</v>
+        <v>389372</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>87</v>
+        <v>423</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
     </row>
-    <row r="12" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
@@ -8357,24 +8357,24 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>136388</v>
+        <v>137344</v>
       </c>
       <c r="Q12" s="36">
-        <v>137344</v>
+        <v>137135</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>956</v>
+        <v>-209</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>2797</v>
+        <v>2588</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
     </row>
-    <row r="13" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -8421,24 +8421,24 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9550</v>
+        <v>9619</v>
       </c>
       <c r="Q13" s="36">
-        <v>9619</v>
+        <v>9540</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>-79</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
     </row>
-    <row r="14" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
@@ -8485,24 +8485,24 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>487818</v>
+        <v>493413</v>
       </c>
       <c r="Q14" s="36">
-        <v>493413</v>
+        <v>494824</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>5595</v>
+        <v>1411</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>12753</v>
+        <v>14164</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
     </row>
-    <row r="15" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
@@ -8549,18 +8549,18 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2643</v>
+        <v>2577</v>
       </c>
       <c r="Q15" s="36">
-        <v>2577</v>
+        <v>2556</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>-66</v>
+        <v>-21</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
-        <v>-47</v>
+        <v>-68</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -8613,24 +8613,24 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>626630</v>
+        <v>630046</v>
       </c>
       <c r="Q16" s="36">
-        <v>630046</v>
+        <v>630421</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>3416</v>
+        <v>375</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>9726</v>
+        <v>10101</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
     </row>
-    <row r="17" spans="1:65" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:65" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -8677,24 +8677,24 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>99545</v>
+        <v>99824</v>
       </c>
       <c r="Q17" s="36">
-        <v>99824</v>
+        <v>100160</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>2569</v>
+        <v>2905</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
       <c r="V17" s="22"/>
     </row>
-    <row r="18" spans="1:65" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:65" s="25" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1874622</v>
+        <v>1886776</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1886776</v>
+        <v>1884715</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>12154</v>
+        <v>-2061</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>36777</v>
+        <v>34716</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -8793,7 +8793,7 @@
       <c r="R19" s="70"/>
       <c r="S19" s="70"/>
     </row>
-    <row r="20" spans="1:65" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:65" ht="24.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="86" t="s">
         <v>26</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="R20" s="86"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:65" s="18" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65" s="18" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -8837,12 +8837,12 @@
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:65" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" s="12" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8942,14 +8942,14 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -8966,7 +8966,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2014</v>
       </c>
@@ -9017,7 +9017,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -9032,7 +9032,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -9049,7 +9049,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -9124,7 +9124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>77509</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>363344</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>107248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>9548</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>295797</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>66390</v>
       </c>
     </row>
-    <row r="17" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>540644</v>
       </c>
     </row>
-    <row r="18" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:95" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>1463340</v>
       </c>
     </row>
-    <row r="19" spans="1:95" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:95" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -9652,7 +9652,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:95" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:95" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -9684,7 +9684,7 @@
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
     </row>
-    <row r="23" spans="1:95" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:95" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -9701,10 +9701,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -9749,14 +9749,14 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -9807,7 +9807,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2015</v>
       </c>
@@ -9824,7 +9824,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -9839,7 +9839,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -9856,7 +9856,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -9873,7 +9873,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -9892,7 +9892,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -9931,7 +9931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>82606</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>312586</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>119587</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>385457</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>551836</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>70979</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>1535255</v>
       </c>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -10428,7 +10428,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -10445,7 +10445,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -10460,7 +10460,7 @@
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -10477,10 +10477,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -10523,14 +10523,14 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -10547,7 +10547,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -10581,7 +10581,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2016</v>
       </c>
@@ -10598,7 +10598,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -10613,7 +10613,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -10630,7 +10630,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -10647,7 +10647,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -10666,7 +10666,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -10705,7 +10705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>89558</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>334254</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>130890</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>407270</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>575641</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>74255</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -11090,7 +11090,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -11244,7 +11244,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -11264,10 +11264,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -11307,15 +11307,15 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -11366,7 +11366,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2017</v>
       </c>
@@ -11383,7 +11383,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11398,7 +11398,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -11415,7 +11415,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -11432,7 +11432,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -11451,7 +11451,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -11490,7 +11490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>96726</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>343480</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>144472</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>9194</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>435724</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>605107</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>79961</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -11875,7 +11875,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -11994,7 +11994,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -12011,7 +12011,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -12029,7 +12029,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -12049,10 +12049,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -12093,15 +12093,15 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -12118,7 +12118,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -12152,7 +12152,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2018</v>
       </c>
@@ -12169,7 +12169,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12184,7 +12184,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -12201,7 +12201,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -12218,7 +12218,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -12237,7 +12237,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -12276,7 +12276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>104065</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>354114</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>141254</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>9458</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>452017</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>614655</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>82734</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -12661,7 +12661,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -12797,7 +12797,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -12815,7 +12815,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -12835,10 +12835,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -12882,15 +12882,15 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -12907,7 +12907,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -12941,7 +12941,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2019</v>
       </c>
@@ -12958,7 +12958,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12973,7 +12973,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -12990,7 +12990,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -13007,7 +13007,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -13026,7 +13026,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -13065,7 +13065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>109333</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>363625</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>141943</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>458198</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>640252</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>86968</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -13450,7 +13450,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -13569,7 +13569,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -13586,7 +13586,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -13604,7 +13604,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -13624,10 +13624,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -13668,15 +13668,15 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -13693,7 +13693,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -13727,7 +13727,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2020</v>
       </c>
@@ -13744,7 +13744,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -13759,7 +13759,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -13776,7 +13776,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -13793,7 +13793,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -13812,7 +13812,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -13851,7 +13851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>111767</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>366999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>133149</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>452541</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>614772</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>88417</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -14236,7 +14236,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -14355,7 +14355,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -14372,7 +14372,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -14390,7 +14390,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -14410,10 +14410,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -14454,15 +14454,15 @@
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -14479,7 +14479,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -14513,7 +14513,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2021</v>
       </c>
@@ -14530,7 +14530,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -14545,7 +14545,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -14562,7 +14562,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -14579,7 +14579,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -14598,7 +14598,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -14637,7 +14637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>116251</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>388949</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>134547</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>9393</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>480660</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>620320</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>97255</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -15021,7 +15021,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -15140,7 +15140,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -15157,7 +15157,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -15175,7 +15175,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -15195,10 +15195,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -15236,18 +15236,18 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E10" sqref="E10:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -15264,7 +15264,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -15298,7 +15298,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2022</v>
       </c>
@@ -15315,7 +15315,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -15330,7 +15330,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -15347,7 +15347,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -15364,7 +15364,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -15383,7 +15383,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -15422,7 +15422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -15435,7 +15435,9 @@
       <c r="D10" s="74">
         <v>124917</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="75">
+        <v>120707</v>
+      </c>
       <c r="F10" s="75"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
@@ -15445,7 +15447,7 @@
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -15458,7 +15460,9 @@
       <c r="D11" s="36">
         <v>389036</v>
       </c>
-      <c r="E11" s="76"/>
+      <c r="E11" s="76">
+        <v>389372</v>
+      </c>
       <c r="F11" s="76"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -15468,7 +15472,7 @@
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -15481,7 +15485,9 @@
       <c r="D12" s="74">
         <v>137344</v>
       </c>
-      <c r="E12" s="75"/>
+      <c r="E12" s="75">
+        <v>137135</v>
+      </c>
       <c r="F12" s="75"/>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
@@ -15491,7 +15497,7 @@
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -15504,7 +15510,9 @@
       <c r="D13" s="36">
         <v>9619</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="76">
+        <v>9540</v>
+      </c>
       <c r="F13" s="76"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
@@ -15514,7 +15522,7 @@
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -15527,7 +15535,9 @@
       <c r="D14" s="74">
         <v>493413</v>
       </c>
-      <c r="E14" s="75"/>
+      <c r="E14" s="75">
+        <v>494824</v>
+      </c>
       <c r="F14" s="75"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
@@ -15537,7 +15547,7 @@
       <c r="L14" s="74"/>
       <c r="M14" s="74"/>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -15550,7 +15560,9 @@
       <c r="D15" s="36">
         <v>2577</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="76">
+        <v>2556</v>
+      </c>
       <c r="F15" s="76"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
@@ -15560,7 +15572,7 @@
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -15573,7 +15585,9 @@
       <c r="D16" s="74">
         <v>630046</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="75">
+        <v>630421</v>
+      </c>
       <c r="F16" s="75"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
@@ -15583,7 +15597,7 @@
       <c r="L16" s="74"/>
       <c r="M16" s="74"/>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -15596,7 +15610,9 @@
       <c r="D17" s="36">
         <v>99824</v>
       </c>
-      <c r="E17" s="76"/>
+      <c r="E17" s="76">
+        <v>100160</v>
+      </c>
       <c r="F17" s="76"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
@@ -15606,7 +15622,7 @@
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -15624,7 +15640,7 @@
       </c>
       <c r="E18" s="79">
         <f>SUM(E10:E17)</f>
-        <v>0</v>
+        <v>1884715</v>
       </c>
       <c r="F18" s="79">
         <f t="shared" si="0"/>
@@ -15663,7 +15679,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -15681,11 +15697,11 @@
       </c>
       <c r="E19" s="58">
         <f t="shared" si="1"/>
+        <v>-0.10923395252006597</v>
+      </c>
+      <c r="F19" s="58">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="F19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G19" s="58" t="e">
         <f>+(G18-F18)/F18*100</f>
@@ -15782,7 +15798,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -15799,7 +15815,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -15817,7 +15833,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -15837,10 +15853,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -15881,20 +15897,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="35" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="12" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" customWidth="1"/>
+    <col min="14" max="35" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -15911,7 +15927,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:44" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -15959,7 +15975,7 @@
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
     </row>
-    <row r="3" spans="1:44" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
@@ -16007,7 +16023,7 @@
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8"/>
     </row>
-    <row r="4" spans="1:44" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2000</v>
       </c>
@@ -16055,7 +16071,7 @@
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
     </row>
-    <row r="5" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -16089,7 +16105,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
@@ -16128,7 +16144,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
@@ -16167,7 +16183,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
@@ -16186,7 +16202,7 @@
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
     </row>
-    <row r="9" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
@@ -16225,7 +16241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -16266,7 +16282,7 @@
         <v>46965</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -16307,7 +16323,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -16348,7 +16364,7 @@
         <v>340488</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -16389,7 +16405,7 @@
         <v>65361</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -16430,7 +16446,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -16471,7 +16487,7 @@
         <v>170180</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -16512,7 +16528,7 @@
         <v>48835</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -16553,7 +16569,7 @@
         <v>353145</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -16606,7 +16622,7 @@
         <v>1034215</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" s="1" customFormat="1" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -16678,7 +16694,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="16"/>
       <c r="D20" s="2"/>
@@ -16714,7 +16730,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="32.299999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -16731,7 +16747,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="95"/>
       <c r="B22" s="95"/>
       <c r="C22" s="95"/>
@@ -16746,7 +16762,7 @@
       <c r="L22" s="95"/>
       <c r="M22" s="95"/>
     </row>
-    <row r="23" spans="1:35" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -16763,11 +16779,11 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -16776,11 +16792,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A21:M21"/>
@@ -16812,16 +16828,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="12" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -16838,7 +16854,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -16855,7 +16871,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="87"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
@@ -16872,7 +16888,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2001</v>
       </c>
@@ -16889,7 +16905,7 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -16901,7 +16917,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
@@ -16918,7 +16934,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
@@ -16935,7 +16951,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="99"/>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
@@ -16954,7 +16970,7 @@
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
     </row>
-    <row r="9" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
@@ -16993,7 +17009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -17034,7 +17050,7 @@
         <v>46740</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -17075,7 +17091,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -17116,7 +17132,7 @@
         <v>308690</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -17157,7 +17173,7 @@
         <v>61334</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -17198,7 +17214,7 @@
         <v>7640</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -17239,7 +17255,7 @@
         <v>177513</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -17280,7 +17296,7 @@
         <v>51521</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -17321,7 +17337,7 @@
         <v>356553</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -17374,7 +17390,7 @@
         <v>1011723</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="43" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -17441,7 +17457,7 @@
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -17458,7 +17474,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="95"/>
       <c r="B22" s="95"/>
       <c r="C22" s="95"/>
@@ -17473,7 +17489,7 @@
       <c r="L22" s="95"/>
       <c r="M22" s="95"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -17490,11 +17506,11 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -17503,11 +17519,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A21:M21"/>
@@ -17539,14 +17555,14 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -17563,7 +17579,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -17592,7 +17608,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
@@ -17621,7 +17637,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2008</v>
       </c>
@@ -17650,7 +17666,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -17677,7 +17693,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -17706,7 +17722,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -17735,7 +17751,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -17754,7 +17770,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -17793,7 +17809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -17834,7 +17850,7 @@
         <v>55193</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -17875,7 +17891,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -17916,7 +17932,7 @@
         <v>311234</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -17957,7 +17973,7 @@
         <v>84833</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -17998,7 +18014,7 @@
         <v>8854</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -18039,7 +18055,7 @@
         <v>227223</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -18080,7 +18096,7 @@
         <v>57078</v>
       </c>
     </row>
-    <row r="17" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:108" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -18121,7 +18137,7 @@
         <v>458010</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -18174,7 +18190,7 @@
         <v>1204590</v>
       </c>
     </row>
-    <row r="19" spans="1:108" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:108" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -18323,7 +18339,7 @@
       <c r="DD19" s="47"/>
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:108" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -18340,7 +18356,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -18355,7 +18371,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -18372,10 +18388,10 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -18389,9 +18405,9 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -18406,9 +18422,9 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18450,14 +18466,14 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -18474,7 +18490,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -18503,7 +18519,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
         <v>13</v>
       </c>
@@ -18532,7 +18548,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2009</v>
       </c>
@@ -18561,7 +18577,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -18588,7 +18604,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -18617,7 +18633,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -18646,7 +18662,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -18665,7 +18681,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -18704,7 +18720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -18746,7 +18762,7 @@
       </c>
       <c r="O10" s="51"/>
     </row>
-    <row r="11" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -18789,7 +18805,7 @@
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
     </row>
-    <row r="12" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -18831,7 +18847,7 @@
       </c>
       <c r="O12" s="51"/>
     </row>
-    <row r="13" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -18873,7 +18889,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -18914,7 +18930,7 @@
         <v>9024</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -18955,7 +18971,7 @@
         <v>226002</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -18996,7 +19012,7 @@
         <v>55965</v>
       </c>
     </row>
-    <row r="17" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:108" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -19038,7 +19054,7 @@
       </c>
       <c r="O17" s="51"/>
     </row>
-    <row r="18" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -19092,7 +19108,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:108" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:108" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -19241,7 +19257,7 @@
       <c r="DD19" s="47"/>
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:108" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:108" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -19258,7 +19274,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -19273,7 +19289,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -19290,10 +19306,10 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -19307,11 +19323,11 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -19326,9 +19342,9 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19370,14 +19386,14 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -19394,7 +19410,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -19450,7 +19466,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2010</v>
       </c>
@@ -19478,7 +19494,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -19504,7 +19520,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -19532,7 +19548,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -19560,7 +19576,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:24" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -19579,7 +19595,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -19618,7 +19634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -19661,7 +19677,7 @@
       <c r="N10" s="51"/>
       <c r="P10" s="51"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -19704,7 +19720,7 @@
       <c r="N11" s="51"/>
       <c r="P11" s="51"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -19748,7 +19764,7 @@
       <c r="P12" s="51"/>
       <c r="R12" s="51"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -19791,7 +19807,7 @@
       <c r="P13" s="51"/>
       <c r="R13" s="51"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -19833,7 +19849,7 @@
       </c>
       <c r="P14" s="51"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -19874,7 +19890,7 @@
         <v>237810</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -19915,7 +19931,7 @@
         <v>57424</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -19957,7 +19973,7 @@
       </c>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -20011,7 +20027,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:107" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -20161,7 +20177,7 @@
     <row r="20" spans="1:107" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M20" s="52"/>
     </row>
-    <row r="21" spans="1:107" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:107" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -20179,7 +20195,7 @@
       <c r="M21" s="95"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -20194,7 +20210,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:107" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -20210,10 +20226,10 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -20227,8 +20243,8 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -20237,7 +20253,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -20251,9 +20267,9 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20295,16 +20311,16 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -20321,7 +20337,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -20369,7 +20385,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2011</v>
       </c>
@@ -20393,7 +20409,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -20415,7 +20431,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -20439,7 +20455,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -20463,7 +20479,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:20" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -20482,7 +20498,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -20521,7 +20537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -20562,7 +20578,7 @@
         <v>64139</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -20603,7 +20619,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -20645,7 +20661,7 @@
       </c>
       <c r="N12" s="51"/>
     </row>
-    <row r="13" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -20687,7 +20703,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -20728,7 +20744,7 @@
         <v>9191</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -20769,7 +20785,7 @@
         <v>254521</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -20810,7 +20826,7 @@
         <v>58951</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:103" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -20851,7 +20867,7 @@
         <v>496044</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:103" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -20902,7 +20918,7 @@
         <v>1308282</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:103" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -21050,7 +21066,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:103" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:103" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -21067,7 +21083,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -21082,7 +21098,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:103" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:103" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -21099,10 +21115,10 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -21116,8 +21132,8 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -21127,7 +21143,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -21142,9 +21158,9 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21186,16 +21202,16 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="7.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -21212,7 +21228,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -21248,7 +21264,7 @@
       <c r="M3" s="87"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2012</v>
       </c>
@@ -21266,7 +21282,7 @@
       <c r="M4" s="87"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -21282,7 +21298,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -21300,7 +21316,7 @@
       <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -21318,7 +21334,7 @@
       <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -21337,7 +21353,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -21376,7 +21392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -21417,7 +21433,7 @@
         <v>69492</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -21458,7 +21474,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -21499,7 +21515,7 @@
         <v>338376</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -21540,7 +21556,7 @@
         <v>95205</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -21581,7 +21597,7 @@
         <v>9246</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -21622,7 +21638,7 @@
         <v>270255</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -21663,7 +21679,7 @@
         <v>61629</v>
       </c>
     </row>
-    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -21704,7 +21720,7 @@
         <v>502496</v>
       </c>
     </row>
-    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -21757,7 +21773,7 @@
         <v>1349657</v>
       </c>
     </row>
-    <row r="19" spans="1:97" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:97" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -21905,7 +21921,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
     </row>
-    <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:97" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -21922,7 +21938,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -21937,7 +21953,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -21954,13 +21970,13 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -21975,9 +21991,9 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22019,15 +22035,15 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -22044,7 +22060,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
         <v>12</v>
       </c>
@@ -22080,7 +22096,7 @@
       <c r="M3" s="87"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A4" s="87">
         <v>2013</v>
       </c>
@@ -22098,7 +22114,7 @@
       <c r="M4" s="87"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -22114,7 +22130,7 @@
       <c r="M5" s="26"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -22132,7 +22148,7 @@
       <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -22150,7 +22166,7 @@
       <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -22169,7 +22185,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="90"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -22208,7 +22224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -22249,7 +22265,7 @@
         <v>70246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -22290,7 +22306,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -22331,7 +22347,7 @@
         <v>347298</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -22372,7 +22388,7 @@
         <v>98394</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -22413,7 +22429,7 @@
         <v>9369</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -22454,7 +22470,7 @@
         <v>282499</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -22495,7 +22511,7 @@
         <v>62952</v>
       </c>
     </row>
-    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -22536,7 +22552,7 @@
         <v>523456</v>
       </c>
     </row>
-    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -22590,7 +22606,7 @@
       </c>
       <c r="N18" s="55"/>
     </row>
-    <row r="19" spans="1:97" s="48" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:97" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -22739,7 +22755,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:97" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:97" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -22756,7 +22772,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -22771,7 +22787,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -22788,10 +22804,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -22805,13 +22821,13 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -22826,9 +22842,9 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var abr 2022 respecto a mar 2022</t>
+    <t>Var may 2022 respecto a abr 2022</t>
   </si>
   <si>
-    <t>Var abr 2022 respecto a dic 2021</t>
+    <t>Var may 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -7885,7 +7885,7 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="Q10" sqref="Q10:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8171,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8229,18 +8229,18 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>124917</v>
+        <v>120707</v>
       </c>
       <c r="Q10" s="36">
-        <v>120707</v>
+        <v>116527</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>-4210</v>
+        <v>-4180</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>4456</v>
+        <v>276</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -8293,18 +8293,18 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>389036</v>
+        <v>389372</v>
       </c>
       <c r="Q11" s="36">
-        <v>389372</v>
+        <v>390157</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>336</v>
+        <v>785</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>423</v>
+        <v>1208</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -8357,18 +8357,18 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>137344</v>
+        <v>137135</v>
       </c>
       <c r="Q12" s="36">
-        <v>137135</v>
+        <v>139462</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>-209</v>
+        <v>2327</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>2588</v>
+        <v>4915</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -8421,18 +8421,18 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9619</v>
+        <v>9540</v>
       </c>
       <c r="Q13" s="36">
-        <v>9540</v>
+        <v>9600</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>-79</v>
+        <v>60</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -8485,18 +8485,18 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>493413</v>
+        <v>494824</v>
       </c>
       <c r="Q14" s="36">
-        <v>494824</v>
+        <v>496682</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>1411</v>
+        <v>1858</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>14164</v>
+        <v>16022</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -8549,18 +8549,18 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2577</v>
+        <v>2556</v>
       </c>
       <c r="Q15" s="36">
-        <v>2556</v>
+        <v>2538</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
-        <v>-68</v>
+        <v>-86</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -8613,18 +8613,18 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>630046</v>
+        <v>630421</v>
       </c>
       <c r="Q16" s="36">
-        <v>630421</v>
+        <v>632610</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>2189</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>10101</v>
+        <v>12290</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -8677,18 +8677,18 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>99824</v>
+        <v>100160</v>
       </c>
       <c r="Q17" s="36">
-        <v>100160</v>
+        <v>100656</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>496</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>2905</v>
+        <v>3401</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1886776</v>
+        <v>1884715</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1884715</v>
+        <v>1888232</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>-2061</v>
+        <v>3517</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>34716</v>
+        <v>38233</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -15236,7 +15236,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E17"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -15438,7 +15438,9 @@
       <c r="E10" s="75">
         <v>120707</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="75">
+        <v>116527</v>
+      </c>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
       <c r="I10" s="74"/>
@@ -15463,7 +15465,9 @@
       <c r="E11" s="76">
         <v>389372</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="76">
+        <v>390157</v>
+      </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -15488,7 +15492,9 @@
       <c r="E12" s="75">
         <v>137135</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="75">
+        <v>139462</v>
+      </c>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
@@ -15513,7 +15519,9 @@
       <c r="E13" s="76">
         <v>9540</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="76">
+        <v>9600</v>
+      </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -15538,7 +15546,9 @@
       <c r="E14" s="75">
         <v>494824</v>
       </c>
-      <c r="F14" s="75"/>
+      <c r="F14" s="75">
+        <v>496682</v>
+      </c>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
@@ -15563,7 +15573,9 @@
       <c r="E15" s="76">
         <v>2556</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="76">
+        <v>2538</v>
+      </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -15588,7 +15600,9 @@
       <c r="E16" s="75">
         <v>630421</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="75">
+        <v>632610</v>
+      </c>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
@@ -15613,7 +15627,9 @@
       <c r="E17" s="76">
         <v>100160</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="76">
+        <v>100656</v>
+      </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -15644,7 +15660,7 @@
       </c>
       <c r="F18" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1888232</v>
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
@@ -15701,11 +15717,11 @@
       </c>
       <c r="F19" s="58">
         <f t="shared" si="1"/>
+        <v>0.18660646304613696</v>
+      </c>
+      <c r="G19" s="58">
+        <f>+(G18-F18)/F18*100</f>
         <v>-100</v>
-      </c>
-      <c r="G19" s="58" t="e">
-        <f>+(G18-F18)/F18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="H19" s="58" t="e">
         <f t="shared" si="1"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var may 2022 respecto a abr 2022</t>
+    <t>Var jun 2022 respecto a may 2022</t>
   </si>
   <si>
-    <t>Var may 2022 respecto a dic 2021</t>
+    <t>Var jun 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -8171,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8229,18 +8229,18 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>120707</v>
+        <v>116527</v>
       </c>
       <c r="Q10" s="36">
-        <v>116527</v>
+        <v>114765</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>-4180</v>
+        <v>-1762</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>276</v>
+        <v>-1486</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -8293,18 +8293,18 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>389372</v>
+        <v>390157</v>
       </c>
       <c r="Q11" s="36">
-        <v>390157</v>
+        <v>393243</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>785</v>
+        <v>3086</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>1208</v>
+        <v>4294</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -8357,18 +8357,18 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>137135</v>
+        <v>139462</v>
       </c>
       <c r="Q12" s="36">
-        <v>139462</v>
+        <v>140587</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>2327</v>
+        <v>1125</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>4915</v>
+        <v>6040</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -8421,18 +8421,18 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9540</v>
+        <v>9600</v>
       </c>
       <c r="Q13" s="36">
-        <v>9600</v>
+        <v>9738</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>345</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -8485,18 +8485,18 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>494824</v>
+        <v>496682</v>
       </c>
       <c r="Q14" s="36">
-        <v>496682</v>
+        <v>499541</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>1858</v>
+        <v>2859</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>16022</v>
+        <v>18881</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -8549,14 +8549,14 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2556</v>
+        <v>2538</v>
       </c>
       <c r="Q15" s="36">
         <v>2538</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
@@ -8613,18 +8613,18 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>630421</v>
+        <v>632610</v>
       </c>
       <c r="Q16" s="36">
-        <v>632610</v>
+        <v>634764</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>2189</v>
+        <v>2154</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>12290</v>
+        <v>14444</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -8677,18 +8677,18 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>100160</v>
+        <v>100656</v>
       </c>
       <c r="Q17" s="36">
-        <v>100656</v>
+        <v>101579</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>923</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>3401</v>
+        <v>4324</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1884715</v>
+        <v>1888232</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1888232</v>
+        <v>1896755</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>3517</v>
+        <v>8523</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>38233</v>
+        <v>46756</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -15236,7 +15236,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -15441,7 +15441,9 @@
       <c r="F10" s="75">
         <v>116527</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="74">
+        <v>114765</v>
+      </c>
       <c r="H10" s="74"/>
       <c r="I10" s="74"/>
       <c r="J10" s="74"/>
@@ -15468,7 +15470,9 @@
       <c r="F11" s="76">
         <v>390157</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="36">
+        <v>393243</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
@@ -15495,7 +15499,9 @@
       <c r="F12" s="75">
         <v>139462</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="74">
+        <v>140587</v>
+      </c>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
@@ -15522,7 +15528,9 @@
       <c r="F13" s="76">
         <v>9600</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36">
+        <v>9738</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
@@ -15549,7 +15557,9 @@
       <c r="F14" s="75">
         <v>496682</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="74">
+        <v>499541</v>
+      </c>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
@@ -15576,7 +15586,9 @@
       <c r="F15" s="76">
         <v>2538</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="36">
+        <v>2538</v>
+      </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -15603,7 +15615,9 @@
       <c r="F16" s="75">
         <v>632610</v>
       </c>
-      <c r="G16" s="74"/>
+      <c r="G16" s="74">
+        <v>634764</v>
+      </c>
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
@@ -15630,7 +15644,9 @@
       <c r="F17" s="76">
         <v>100656</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="36">
+        <v>101579</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -15664,7 +15680,7 @@
       </c>
       <c r="G18" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1896755</v>
       </c>
       <c r="H18" s="79">
         <f t="shared" si="0"/>
@@ -15721,11 +15737,11 @@
       </c>
       <c r="G19" s="58">
         <f>+(G18-F18)/F18*100</f>
+        <v>0.45137461922051952</v>
+      </c>
+      <c r="H19" s="58">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="H19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="I19" s="58" t="e">
         <f>+(I18-H18)/H18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var jun 2022 respecto a may 2022</t>
+    <t>Var jul 2022 respecto a jun 2022</t>
   </si>
   <si>
-    <t>Var jun 2022 respecto a dic 2021</t>
+    <t>Var jul 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -7885,7 +7885,7 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q17"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8171,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8229,18 +8229,18 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>116527</v>
+        <v>114765</v>
       </c>
       <c r="Q10" s="36">
-        <v>114765</v>
+        <v>112865</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>-1762</v>
+        <v>-1900</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>-1486</v>
+        <v>-3386</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -8293,18 +8293,18 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>390157</v>
+        <v>393243</v>
       </c>
       <c r="Q11" s="36">
-        <v>393243</v>
+        <v>392581</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>3086</v>
+        <v>-662</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>4294</v>
+        <v>3632</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -8357,18 +8357,18 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>139462</v>
+        <v>140587</v>
       </c>
       <c r="Q12" s="36">
-        <v>140587</v>
+        <v>142342</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>1755</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>6040</v>
+        <v>7795</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -8421,18 +8421,18 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9600</v>
+        <v>9738</v>
       </c>
       <c r="Q13" s="36">
-        <v>9738</v>
+        <v>9682</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>-56</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -8485,18 +8485,18 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>496682</v>
+        <v>499541</v>
       </c>
       <c r="Q14" s="36">
-        <v>499541</v>
+        <v>502349</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>2859</v>
+        <v>2808</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>18881</v>
+        <v>21689</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -8552,15 +8552,15 @@
         <v>2538</v>
       </c>
       <c r="Q15" s="36">
-        <v>2538</v>
+        <v>2465</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
-        <v>-86</v>
+        <v>-159</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -8613,18 +8613,18 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>632610</v>
+        <v>634764</v>
       </c>
       <c r="Q16" s="36">
-        <v>634764</v>
+        <v>632848</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>2154</v>
+        <v>-1916</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>14444</v>
+        <v>12528</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -8677,18 +8677,18 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>100656</v>
+        <v>101579</v>
       </c>
       <c r="Q17" s="36">
-        <v>101579</v>
+        <v>101385</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>923</v>
+        <v>-194</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>4324</v>
+        <v>4130</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1888232</v>
+        <v>1896755</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1896755</v>
+        <v>1896517</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>8523</v>
+        <v>-238</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>46756</v>
+        <v>46518</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -15236,7 +15236,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -15444,7 +15444,9 @@
       <c r="G10" s="74">
         <v>114765</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="74">
+        <v>112865</v>
+      </c>
       <c r="I10" s="74"/>
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
@@ -15473,7 +15475,9 @@
       <c r="G11" s="36">
         <v>393243</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="36">
+        <v>392581</v>
+      </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
@@ -15502,7 +15506,9 @@
       <c r="G12" s="74">
         <v>140587</v>
       </c>
-      <c r="H12" s="74"/>
+      <c r="H12" s="74">
+        <v>142342</v>
+      </c>
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
@@ -15531,7 +15537,9 @@
       <c r="G13" s="36">
         <v>9738</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="36">
+        <v>9682</v>
+      </c>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -15560,7 +15568,9 @@
       <c r="G14" s="74">
         <v>499541</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="74">
+        <v>502349</v>
+      </c>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
@@ -15589,7 +15599,9 @@
       <c r="G15" s="36">
         <v>2538</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="36">
+        <v>2465</v>
+      </c>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -15618,7 +15630,9 @@
       <c r="G16" s="74">
         <v>634764</v>
       </c>
-      <c r="H16" s="74"/>
+      <c r="H16" s="74">
+        <v>632848</v>
+      </c>
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
@@ -15647,7 +15661,9 @@
       <c r="G17" s="36">
         <v>101579</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="36">
+        <v>101385</v>
+      </c>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
@@ -15684,7 +15700,7 @@
       </c>
       <c r="H18" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1896517</v>
       </c>
       <c r="I18" s="79">
         <f t="shared" si="0"/>
@@ -15741,11 +15757,11 @@
       </c>
       <c r="H19" s="58">
         <f t="shared" si="1"/>
+        <v>-1.2547746018858524E-2</v>
+      </c>
+      <c r="I19" s="58">
+        <f>+(I18-H18)/H18*100</f>
         <v>-100</v>
-      </c>
-      <c r="I19" s="58" t="e">
-        <f>+(I18-H18)/H18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="J19" s="58" t="e">
         <f>+(J18-I18)/I18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var jul 2022 respecto a jun 2022</t>
+    <t>Var ago 2022 respecto a jul 2022</t>
   </si>
   <si>
-    <t>Var jul 2022 respecto a dic 2021</t>
+    <t>Var ago 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -7885,7 +7885,7 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8171,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8229,18 +8229,18 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>114765</v>
+        <v>112865</v>
       </c>
       <c r="Q10" s="36">
-        <v>112865</v>
+        <v>115219</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>-1900</v>
+        <v>2354</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>-3386</v>
+        <v>-1032</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -8293,18 +8293,18 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>393243</v>
+        <v>392581</v>
       </c>
       <c r="Q11" s="36">
-        <v>392581</v>
+        <v>394460</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>-662</v>
+        <v>1879</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>3632</v>
+        <v>5511</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -8357,18 +8357,18 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>140587</v>
+        <v>142342</v>
       </c>
       <c r="Q12" s="36">
-        <v>142342</v>
+        <v>144641</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>1755</v>
+        <v>2299</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>7795</v>
+        <v>10094</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -8421,18 +8421,18 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9738</v>
+        <v>9682</v>
       </c>
       <c r="Q13" s="36">
-        <v>9682</v>
+        <v>9763</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>-56</v>
+        <v>81</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>370</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -8485,18 +8485,18 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>499541</v>
+        <v>502349</v>
       </c>
       <c r="Q14" s="36">
-        <v>502349</v>
+        <v>505597</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>2808</v>
+        <v>3248</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>21689</v>
+        <v>24937</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -8549,18 +8549,18 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2538</v>
+        <v>2465</v>
       </c>
       <c r="Q15" s="36">
-        <v>2465</v>
+        <v>2477</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>-73</v>
+        <v>12</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
-        <v>-159</v>
+        <v>-147</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -8613,18 +8613,18 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>634764</v>
+        <v>632848</v>
       </c>
       <c r="Q16" s="36">
-        <v>632848</v>
+        <v>636862</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>-1916</v>
+        <v>4014</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>12528</v>
+        <v>16542</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -8677,18 +8677,18 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>101579</v>
+        <v>101385</v>
       </c>
       <c r="Q17" s="36">
-        <v>101385</v>
+        <v>101608</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>-194</v>
+        <v>223</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>4130</v>
+        <v>4353</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1896755</v>
+        <v>1896517</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1896517</v>
+        <v>1910627</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>-238</v>
+        <v>14110</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>46518</v>
+        <v>60628</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -15236,7 +15236,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -15447,7 +15447,9 @@
       <c r="H10" s="74">
         <v>112865</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="74">
+        <v>115219</v>
+      </c>
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
@@ -15478,7 +15480,9 @@
       <c r="H11" s="36">
         <v>392581</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="36">
+        <v>394460</v>
+      </c>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
@@ -15509,7 +15513,9 @@
       <c r="H12" s="74">
         <v>142342</v>
       </c>
-      <c r="I12" s="74"/>
+      <c r="I12" s="74">
+        <v>144641</v>
+      </c>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
@@ -15540,7 +15546,9 @@
       <c r="H13" s="36">
         <v>9682</v>
       </c>
-      <c r="I13" s="36"/>
+      <c r="I13" s="36">
+        <v>9763</v>
+      </c>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
@@ -15571,7 +15579,9 @@
       <c r="H14" s="74">
         <v>502349</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="74">
+        <v>505597</v>
+      </c>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
       <c r="L14" s="74"/>
@@ -15602,7 +15612,9 @@
       <c r="H15" s="36">
         <v>2465</v>
       </c>
-      <c r="I15" s="36"/>
+      <c r="I15" s="36">
+        <v>2477</v>
+      </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
@@ -15633,7 +15645,9 @@
       <c r="H16" s="74">
         <v>632848</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="74">
+        <v>636862</v>
+      </c>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
       <c r="L16" s="74"/>
@@ -15664,7 +15678,9 @@
       <c r="H17" s="36">
         <v>101385</v>
       </c>
-      <c r="I17" s="36"/>
+      <c r="I17" s="36">
+        <v>101608</v>
+      </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
@@ -15704,7 +15720,7 @@
       </c>
       <c r="I18" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1910627</v>
       </c>
       <c r="J18" s="79">
         <f t="shared" si="0"/>
@@ -15761,11 +15777,11 @@
       </c>
       <c r="I19" s="58">
         <f>+(I18-H18)/H18*100</f>
+        <v>0.74399544006196616</v>
+      </c>
+      <c r="J19" s="58">
+        <f>+(J18-I18)/I18*100</f>
         <v>-100</v>
-      </c>
-      <c r="J19" s="58" t="e">
-        <f>+(J18-I18)/I18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="K19" s="58" t="e">
         <f>+(K18-J18)/J18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var ago 2022 respecto a jul 2022</t>
+    <t>Var sep 2022 respecto a ago 2022</t>
   </si>
   <si>
-    <t>Var ago 2022 respecto a dic 2021</t>
+    <t>Var sep 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -7885,7 +7885,7 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8171,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8229,18 +8229,18 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>112865</v>
+        <v>115219</v>
       </c>
       <c r="Q10" s="36">
-        <v>115219</v>
+        <v>119089</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>2354</v>
+        <v>3870</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>-1032</v>
+        <v>2838</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -8293,18 +8293,18 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>392581</v>
+        <v>394460</v>
       </c>
       <c r="Q11" s="36">
-        <v>394460</v>
+        <v>397012</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>1879</v>
+        <v>2552</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>5511</v>
+        <v>8063</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -8357,18 +8357,18 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>142342</v>
+        <v>144641</v>
       </c>
       <c r="Q12" s="36">
-        <v>144641</v>
+        <v>145163</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>2299</v>
+        <v>522</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>10094</v>
+        <v>10616</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -8421,18 +8421,18 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9682</v>
+        <v>9763</v>
       </c>
       <c r="Q13" s="36">
-        <v>9763</v>
+        <v>9686</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>-77</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -8485,18 +8485,18 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>502349</v>
+        <v>505597</v>
       </c>
       <c r="Q14" s="36">
-        <v>505597</v>
+        <v>509874</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>3248</v>
+        <v>4277</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>24937</v>
+        <v>29214</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -8549,18 +8549,18 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2465</v>
+        <v>2477</v>
       </c>
       <c r="Q15" s="36">
-        <v>2477</v>
+        <v>2518</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
-        <v>-147</v>
+        <v>-106</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -8613,18 +8613,18 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>632848</v>
+        <v>636862</v>
       </c>
       <c r="Q16" s="36">
-        <v>636862</v>
+        <v>640257</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>4014</v>
+        <v>3395</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>16542</v>
+        <v>19937</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -8677,18 +8677,18 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>101385</v>
+        <v>101608</v>
       </c>
       <c r="Q17" s="36">
-        <v>101608</v>
+        <v>104048</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>2440</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>4353</v>
+        <v>6793</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1896517</v>
+        <v>1910627</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1910627</v>
+        <v>1927647</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>14110</v>
+        <v>17020</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>60628</v>
+        <v>77648</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -15236,7 +15236,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="J10" sqref="J10:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -15450,7 +15450,9 @@
       <c r="I10" s="74">
         <v>115219</v>
       </c>
-      <c r="J10" s="74"/>
+      <c r="J10" s="74">
+        <v>119089</v>
+      </c>
       <c r="K10" s="74"/>
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
@@ -15483,7 +15485,9 @@
       <c r="I11" s="36">
         <v>394460</v>
       </c>
-      <c r="J11" s="36"/>
+      <c r="J11" s="36">
+        <v>397012</v>
+      </c>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
@@ -15516,7 +15520,9 @@
       <c r="I12" s="74">
         <v>144641</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="74">
+        <v>145163</v>
+      </c>
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
@@ -15549,7 +15555,9 @@
       <c r="I13" s="36">
         <v>9763</v>
       </c>
-      <c r="J13" s="36"/>
+      <c r="J13" s="36">
+        <v>9686</v>
+      </c>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
@@ -15582,7 +15590,9 @@
       <c r="I14" s="74">
         <v>505597</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="74">
+        <v>509874</v>
+      </c>
       <c r="K14" s="74"/>
       <c r="L14" s="74"/>
       <c r="M14" s="74"/>
@@ -15615,7 +15625,9 @@
       <c r="I15" s="36">
         <v>2477</v>
       </c>
-      <c r="J15" s="36"/>
+      <c r="J15" s="36">
+        <v>2518</v>
+      </c>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
@@ -15648,7 +15660,9 @@
       <c r="I16" s="74">
         <v>636862</v>
       </c>
-      <c r="J16" s="74"/>
+      <c r="J16" s="74">
+        <v>640257</v>
+      </c>
       <c r="K16" s="74"/>
       <c r="L16" s="74"/>
       <c r="M16" s="74"/>
@@ -15681,7 +15695,9 @@
       <c r="I17" s="36">
         <v>101608</v>
       </c>
-      <c r="J17" s="36"/>
+      <c r="J17" s="36">
+        <v>104048</v>
+      </c>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
@@ -15724,7 +15740,7 @@
       </c>
       <c r="J18" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1927647</v>
       </c>
       <c r="K18" s="79">
         <f t="shared" si="0"/>
@@ -15781,11 +15797,11 @@
       </c>
       <c r="J19" s="58">
         <f>+(J18-I18)/I18*100</f>
+        <v>0.89080704920426645</v>
+      </c>
+      <c r="K19" s="58">
+        <f>+(K18-J18)/J18*100</f>
         <v>-100</v>
-      </c>
-      <c r="K19" s="58" t="e">
-        <f>+(K18-J18)/J18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="L19" s="58" t="e">
         <f>+(L18-K18)/K18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var sep 2022 respecto a ago 2022</t>
+    <t>Var oct 2022 respecto a sep 2022</t>
   </si>
   <si>
-    <t>Var sep 2022 respecto a dic 2021</t>
+    <t>Var oct 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -7885,7 +7885,7 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="Q10" sqref="Q10:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8171,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8229,18 +8229,18 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>115219</v>
+        <v>119089</v>
       </c>
       <c r="Q10" s="36">
-        <v>119089</v>
+        <v>121255</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>3870</v>
+        <v>2166</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>2838</v>
+        <v>5004</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -8293,18 +8293,18 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>394460</v>
+        <v>397012</v>
       </c>
       <c r="Q11" s="36">
-        <v>397012</v>
+        <v>402868</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>2552</v>
+        <v>5856</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>8063</v>
+        <v>13919</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -8357,18 +8357,18 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>144641</v>
+        <v>145163</v>
       </c>
       <c r="Q12" s="36">
-        <v>145163</v>
+        <v>150581</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>522</v>
+        <v>5418</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>10616</v>
+        <v>16034</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -8421,18 +8421,18 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9763</v>
+        <v>9686</v>
       </c>
       <c r="Q13" s="36">
-        <v>9686</v>
+        <v>9745</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>-77</v>
+        <v>59</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -8485,18 +8485,18 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>505597</v>
+        <v>509874</v>
       </c>
       <c r="Q14" s="36">
-        <v>509874</v>
+        <v>513734</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>4277</v>
+        <v>3860</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>29214</v>
+        <v>33074</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -8549,18 +8549,18 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2477</v>
+        <v>2518</v>
       </c>
       <c r="Q15" s="36">
-        <v>2518</v>
+        <v>2505</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>-13</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
-        <v>-106</v>
+        <v>-119</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -8613,18 +8613,18 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>636862</v>
+        <v>640257</v>
       </c>
       <c r="Q16" s="36">
-        <v>640257</v>
+        <v>645409</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>3395</v>
+        <v>5152</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>19937</v>
+        <v>25089</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -8677,18 +8677,18 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>101608</v>
+        <v>104048</v>
       </c>
       <c r="Q17" s="36">
-        <v>104048</v>
+        <v>104844</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>2440</v>
+        <v>796</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>6793</v>
+        <v>7589</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1910627</v>
+        <v>1927647</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1927647</v>
+        <v>1950941</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>17020</v>
+        <v>23294</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>77648</v>
+        <v>100942</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -15236,7 +15236,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J17"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -15453,7 +15453,9 @@
       <c r="J10" s="74">
         <v>119089</v>
       </c>
-      <c r="K10" s="74"/>
+      <c r="K10" s="74">
+        <v>121255</v>
+      </c>
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
     </row>
@@ -15488,7 +15490,9 @@
       <c r="J11" s="36">
         <v>397012</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="36">
+        <v>402868</v>
+      </c>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
     </row>
@@ -15523,7 +15527,9 @@
       <c r="J12" s="74">
         <v>145163</v>
       </c>
-      <c r="K12" s="74"/>
+      <c r="K12" s="74">
+        <v>150581</v>
+      </c>
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
     </row>
@@ -15558,7 +15564,9 @@
       <c r="J13" s="36">
         <v>9686</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="36">
+        <v>9745</v>
+      </c>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
     </row>
@@ -15593,7 +15601,9 @@
       <c r="J14" s="74">
         <v>509874</v>
       </c>
-      <c r="K14" s="74"/>
+      <c r="K14" s="74">
+        <v>513734</v>
+      </c>
       <c r="L14" s="74"/>
       <c r="M14" s="74"/>
     </row>
@@ -15628,7 +15638,9 @@
       <c r="J15" s="36">
         <v>2518</v>
       </c>
-      <c r="K15" s="36"/>
+      <c r="K15" s="36">
+        <v>2505</v>
+      </c>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
     </row>
@@ -15663,7 +15675,9 @@
       <c r="J16" s="74">
         <v>640257</v>
       </c>
-      <c r="K16" s="74"/>
+      <c r="K16" s="74">
+        <v>645409</v>
+      </c>
       <c r="L16" s="74"/>
       <c r="M16" s="74"/>
     </row>
@@ -15698,7 +15712,9 @@
       <c r="J17" s="36">
         <v>104048</v>
       </c>
-      <c r="K17" s="36"/>
+      <c r="K17" s="36">
+        <v>104844</v>
+      </c>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
     </row>
@@ -15744,7 +15760,7 @@
       </c>
       <c r="K18" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1950941</v>
       </c>
       <c r="L18" s="79">
         <f t="shared" si="0"/>
@@ -15801,11 +15817,11 @@
       </c>
       <c r="K19" s="58">
         <f>+(K18-J18)/J18*100</f>
+        <v>1.2084162712363831</v>
+      </c>
+      <c r="L19" s="58">
+        <f>+(L18-K18)/K18*100</f>
         <v>-100</v>
-      </c>
-      <c r="L19" s="58" t="e">
-        <f>+(L18-K18)/K18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="M19" s="58" t="e">
         <f>+(M18-L18)/L18*100</f>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var oct 2022 respecto a sep 2022</t>
+    <t>Var nov 2022 respecto a oct 2022</t>
   </si>
   <si>
-    <t>Var oct 2022 respecto a dic 2021</t>
+    <t>Var nov 2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -7885,7 +7885,7 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q17"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8171,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8229,18 +8229,18 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>119089</v>
+        <v>121255</v>
       </c>
       <c r="Q10" s="36">
-        <v>121255</v>
+        <v>120917</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>2166</v>
+        <v>-338</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>5004</v>
+        <v>4666</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -8293,18 +8293,18 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>397012</v>
+        <v>402868</v>
       </c>
       <c r="Q11" s="36">
-        <v>402868</v>
+        <v>403989</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>5856</v>
+        <v>1121</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>13919</v>
+        <v>15040</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -8357,18 +8357,18 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>145163</v>
+        <v>150581</v>
       </c>
       <c r="Q12" s="36">
-        <v>150581</v>
+        <v>152128</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>5418</v>
+        <v>1547</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>16034</v>
+        <v>17581</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -8421,18 +8421,18 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9686</v>
+        <v>9745</v>
       </c>
       <c r="Q13" s="36">
-        <v>9745</v>
+        <v>9847</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -8485,18 +8485,18 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>509874</v>
+        <v>513734</v>
       </c>
       <c r="Q14" s="36">
-        <v>513734</v>
+        <v>515303</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>3860</v>
+        <v>1569</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>33074</v>
+        <v>34643</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -8549,18 +8549,18 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2518</v>
+        <v>2505</v>
       </c>
       <c r="Q15" s="36">
-        <v>2505</v>
+        <v>2515</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
-        <v>-119</v>
+        <v>-109</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -8613,18 +8613,18 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>640257</v>
+        <v>645409</v>
       </c>
       <c r="Q16" s="36">
-        <v>645409</v>
+        <v>650779</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>5152</v>
+        <v>5370</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>25089</v>
+        <v>30459</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -8677,18 +8677,18 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>104048</v>
+        <v>104844</v>
       </c>
       <c r="Q17" s="36">
-        <v>104844</v>
+        <v>105032</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>796</v>
+        <v>188</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>7589</v>
+        <v>7777</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1927647</v>
+        <v>1950941</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1950941</v>
+        <v>1960510</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>23294</v>
+        <v>9569</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>100942</v>
+        <v>110511</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -15456,7 +15456,9 @@
       <c r="K10" s="74">
         <v>121255</v>
       </c>
-      <c r="L10" s="74"/>
+      <c r="L10" s="74">
+        <v>120917</v>
+      </c>
       <c r="M10" s="74"/>
     </row>
     <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -15493,7 +15495,9 @@
       <c r="K11" s="36">
         <v>402868</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="36">
+        <v>403989</v>
+      </c>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -15530,7 +15534,9 @@
       <c r="K12" s="74">
         <v>150581</v>
       </c>
-      <c r="L12" s="74"/>
+      <c r="L12" s="74">
+        <v>152128</v>
+      </c>
       <c r="M12" s="74"/>
     </row>
     <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -15567,7 +15573,9 @@
       <c r="K13" s="36">
         <v>9745</v>
       </c>
-      <c r="L13" s="36"/>
+      <c r="L13" s="36">
+        <v>9847</v>
+      </c>
       <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -15604,7 +15612,9 @@
       <c r="K14" s="74">
         <v>513734</v>
       </c>
-      <c r="L14" s="74"/>
+      <c r="L14" s="74">
+        <v>515303</v>
+      </c>
       <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -15641,7 +15651,9 @@
       <c r="K15" s="36">
         <v>2505</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="36">
+        <v>2515</v>
+      </c>
       <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -15678,7 +15690,9 @@
       <c r="K16" s="74">
         <v>645409</v>
       </c>
-      <c r="L16" s="74"/>
+      <c r="L16" s="74">
+        <v>650779</v>
+      </c>
       <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -15715,7 +15729,9 @@
       <c r="K17" s="36">
         <v>104844</v>
       </c>
-      <c r="L17" s="36"/>
+      <c r="L17" s="36">
+        <v>105032</v>
+      </c>
       <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -15764,7 +15780,7 @@
       </c>
       <c r="L18" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1960510</v>
       </c>
       <c r="M18" s="79">
         <f t="shared" si="0"/>
@@ -15821,11 +15837,11 @@
       </c>
       <c r="L19" s="58">
         <f>+(L18-K18)/K18*100</f>
+        <v>0.49048126006885906</v>
+      </c>
+      <c r="M19" s="58">
+        <f>+(M18-L18)/L18*100</f>
         <v>-100</v>
-      </c>
-      <c r="M19" s="58" t="e">
-        <f>+(M18-L18)/L18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="N19" s="47"/>
       <c r="O19" s="49"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -170,10 +170,10 @@
     <t>Por división económica 2007 - 2022</t>
   </si>
   <si>
-    <t>Var nov 2022 respecto a oct 2022</t>
+    <t>Var dic2022 respecto a nov 2022</t>
   </si>
   <si>
-    <t>Var nov 2022 respecto a dic 2021</t>
+    <t>Var dic2022 respecto a dic 2021</t>
   </si>
 </sst>
 </file>
@@ -7885,7 +7885,7 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="G28" sqref="G27:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -8171,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="P9" s="85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R9" s="93"/>
       <c r="S9" s="93"/>
@@ -8229,18 +8229,18 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>121255</v>
+        <v>120917</v>
       </c>
       <c r="Q10" s="36">
-        <v>120917</v>
+        <v>118708</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>-338</v>
+        <v>-2209</v>
       </c>
       <c r="S10" s="36">
         <f>Q10-O10</f>
-        <v>4666</v>
+        <v>2457</v>
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
@@ -8293,18 +8293,18 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>402868</v>
+        <v>403989</v>
       </c>
       <c r="Q11" s="36">
-        <v>403989</v>
+        <v>399607</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>1121</v>
+        <v>-4382</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>15040</v>
+        <v>10658</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
@@ -8357,18 +8357,18 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>150581</v>
+        <v>152128</v>
       </c>
       <c r="Q12" s="36">
-        <v>152128</v>
+        <v>145346</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>1547</v>
+        <v>-6782</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="1"/>
-        <v>17581</v>
+        <v>10799</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -8421,18 +8421,18 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
-        <v>9745</v>
+        <v>9847</v>
       </c>
       <c r="Q13" s="36">
-        <v>9847</v>
+        <v>9814</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>-33</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="1"/>
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -8485,18 +8485,18 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>513734</v>
+        <v>515303</v>
       </c>
       <c r="Q14" s="36">
-        <v>515303</v>
+        <v>508146</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>1569</v>
+        <v>-7157</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" si="1"/>
-        <v>34643</v>
+        <v>27486</v>
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
@@ -8549,18 +8549,18 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2505</v>
+        <v>2515</v>
       </c>
       <c r="Q15" s="36">
-        <v>2515</v>
+        <v>2500</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" si="1"/>
-        <v>-109</v>
+        <v>-124</v>
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
@@ -8613,18 +8613,18 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>645409</v>
+        <v>650779</v>
       </c>
       <c r="Q16" s="36">
-        <v>650779</v>
+        <v>644397</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>5370</v>
+        <v>-6382</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="1"/>
-        <v>30459</v>
+        <v>24077</v>
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
@@ -8677,18 +8677,18 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>104844</v>
+        <v>105032</v>
       </c>
       <c r="Q17" s="36">
-        <v>105032</v>
+        <v>104444</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>-588</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="1"/>
-        <v>7777</v>
+        <v>7189</v>
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
@@ -8755,19 +8755,19 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1950941</v>
+        <v>1960510</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1960510</v>
+        <v>1932962</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>9569</v>
+        <v>-27548</v>
       </c>
       <c r="S18" s="57">
         <f>SUM(S10:S17)</f>
-        <v>110511</v>
+        <v>82963</v>
       </c>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
@@ -15236,7 +15236,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -15459,7 +15459,9 @@
       <c r="L10" s="74">
         <v>120917</v>
       </c>
-      <c r="M10" s="74"/>
+      <c r="M10" s="74">
+        <v>118708</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
@@ -15498,7 +15500,9 @@
       <c r="L11" s="36">
         <v>403989</v>
       </c>
-      <c r="M11" s="36"/>
+      <c r="M11" s="36">
+        <v>399607</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
@@ -15537,7 +15541,9 @@
       <c r="L12" s="74">
         <v>152128</v>
       </c>
-      <c r="M12" s="74"/>
+      <c r="M12" s="74">
+        <v>145346</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
@@ -15576,7 +15582,9 @@
       <c r="L13" s="36">
         <v>9847</v>
       </c>
-      <c r="M13" s="36"/>
+      <c r="M13" s="36">
+        <v>9814</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="77" t="s">
@@ -15615,7 +15623,9 @@
       <c r="L14" s="74">
         <v>515303</v>
       </c>
-      <c r="M14" s="74"/>
+      <c r="M14" s="74">
+        <v>508146</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
@@ -15654,7 +15664,9 @@
       <c r="L15" s="36">
         <v>2515</v>
       </c>
-      <c r="M15" s="36"/>
+      <c r="M15" s="36">
+        <v>2500</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="77" t="s">
@@ -15693,7 +15705,9 @@
       <c r="L16" s="74">
         <v>650779</v>
       </c>
-      <c r="M16" s="74"/>
+      <c r="M16" s="74">
+        <v>644397</v>
+      </c>
     </row>
     <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -15732,7 +15746,9 @@
       <c r="L17" s="36">
         <v>105032</v>
       </c>
-      <c r="M17" s="36"/>
+      <c r="M17" s="36">
+        <v>104444</v>
+      </c>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
@@ -15784,7 +15800,7 @@
       </c>
       <c r="M18" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1932962</v>
       </c>
       <c r="N18" s="51"/>
       <c r="O18" s="47"/>
@@ -15841,7 +15857,7 @@
       </c>
       <c r="M19" s="58">
         <f>+(M18-L18)/L18*100</f>
-        <v>-100</v>
+        <v>-1.4051445797267037</v>
       </c>
       <c r="N19" s="47"/>
       <c r="O19" s="49"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -30,6 +30,7 @@
     <sheet name="2020" sheetId="28" r:id="rId16"/>
     <sheet name="2021" sheetId="29" r:id="rId17"/>
     <sheet name="2022" sheetId="30" r:id="rId18"/>
+    <sheet name="2023" sheetId="31" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="rowNest0" localSheetId="10">'2015'!#REF!</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="31">
   <si>
     <t>Agricultura, Ganadería, Silvicultura y Pesca</t>
   </si>
@@ -164,16 +165,13 @@
     </r>
   </si>
   <si>
-    <t>2008 - 2022</t>
+    <t>2008 - 2023</t>
   </si>
   <si>
-    <t>Por división económica 2007 - 2022</t>
+    <t>Var ene 2023 respecto a dic 2022</t>
   </si>
   <si>
-    <t>Var dic2022 respecto a nov 2022</t>
-  </si>
-  <si>
-    <t>Var dic2022 respecto a dic 2021</t>
+    <t>Por división económica 2007 - 2023</t>
   </si>
 </sst>
 </file>
@@ -1076,6 +1074,9 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,9 +1103,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="41" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -7595,6 +7593,804 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E76E20-67BC-467B-BE20-D5AA6FBD2319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="2135505"/>
+          <a:ext cx="76200" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F787931E-2A86-484D-8E21-FE6EC5FFE725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13754100" y="1623060"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D6D12-E262-48D8-95B5-549E7B0A2AFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13754100" y="1623060"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB77B4F-2520-4EC5-BC9C-0224313D1784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13754100" y="1623060"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="5 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934108F8-1A94-4F7A-98D8-C0096D77848D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="1855470"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="6 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23685B79-E624-4581-8EFF-0A81EAA314F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="1836420"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="7 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2930F80F-0085-4C5A-B82D-626A61252ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="2903220"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="8 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B913663A-6329-4B5C-AA78-E8AB4F6AC9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="2263140"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="9 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79387381-4797-4481-BEBB-FE8135DA57AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="2476500"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="10 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12DBF8-1D73-412D-A55C-96617243EDD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="2049780"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="11 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B124756-5796-4E2C-B22E-78AB3F6871B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="2049780"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="12 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545AAB1-F5B4-4FA9-B6E8-CC8AC328DDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="3329940"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="13 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199CF307-3CB3-42D8-AC82-78936854C782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13075920" y="3329940"/>
+          <a:ext cx="76200" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -7882,22 +8678,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM23"/>
+  <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G27:G28"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="2" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="17" width="8.125" customWidth="1"/>
-    <col min="18" max="19" width="8.75" customWidth="1"/>
-    <col min="20" max="26" width="11.375" customWidth="1"/>
+    <col min="2" max="16" width="7.875" customWidth="1"/>
+    <col min="17" max="17" width="8.125" customWidth="1"/>
+    <col min="18" max="18" width="8.75" customWidth="1"/>
+    <col min="19" max="25" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -7906,14 +8702,14 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -7932,16 +8728,15 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+    </row>
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -7960,16 +8755,15 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-    </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7988,9 +8782,8 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -8009,65 +8802,62 @@
       <c r="P5" s="66"/>
       <c r="Q5" s="66"/>
       <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+    </row>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="68">
@@ -8112,22 +8902,21 @@
       <c r="O8" s="83">
         <v>2021</v>
       </c>
-      <c r="P8" s="94">
+      <c r="P8" s="85">
         <v>2022</v>
       </c>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="92" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q8" s="85">
+        <v>2023</v>
+      </c>
+      <c r="R8" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+    </row>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
       <c r="B9" s="67" t="s">
         <v>23</v>
       </c>
@@ -8170,19 +8959,18 @@
       <c r="O9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="85" t="s">
-        <v>22</v>
+      <c r="P9" s="86" t="s">
+        <v>23</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
+        <v>10</v>
+      </c>
+      <c r="R9" s="94"/>
+      <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" s="23" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" s="23" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -8229,24 +9017,20 @@
         <v>116251</v>
       </c>
       <c r="P10" s="36">
-        <v>120917</v>
+        <v>118708</v>
       </c>
       <c r="Q10" s="36">
-        <v>118708</v>
+        <v>125411</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>-2209</v>
-      </c>
-      <c r="S10" s="36">
-        <f>Q10-O10</f>
-        <v>2457</v>
-      </c>
+        <v>6703</v>
+      </c>
+      <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-    </row>
-    <row r="11" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -8293,24 +9077,20 @@
         <v>388949</v>
       </c>
       <c r="P11" s="36">
-        <v>403989</v>
+        <v>399607</v>
       </c>
       <c r="Q11" s="36">
-        <v>399607</v>
+        <v>397405</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>-4382</v>
-      </c>
-      <c r="S11" s="36">
-        <f t="shared" ref="S11:S17" si="1">Q11-O11</f>
-        <v>10658</v>
-      </c>
+        <v>-2202</v>
+      </c>
+      <c r="S11" s="22"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-    </row>
-    <row r="12" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
@@ -8357,24 +9137,20 @@
         <v>134547</v>
       </c>
       <c r="P12" s="36">
-        <v>152128</v>
+        <v>145346</v>
       </c>
       <c r="Q12" s="36">
-        <v>145346</v>
+        <v>148827</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>-6782</v>
-      </c>
-      <c r="S12" s="36">
-        <f t="shared" si="1"/>
-        <v>10799</v>
-      </c>
+        <v>3481</v>
+      </c>
+      <c r="S12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-    </row>
-    <row r="13" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -8421,24 +9197,20 @@
         <v>9393</v>
       </c>
       <c r="P13" s="36">
+        <v>9814</v>
+      </c>
+      <c r="Q13" s="36">
         <v>9847</v>
-      </c>
-      <c r="Q13" s="36">
-        <v>9814</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>-33</v>
-      </c>
-      <c r="S13" s="36">
-        <f t="shared" si="1"/>
-        <v>421</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-    </row>
-    <row r="14" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
@@ -8485,24 +9257,20 @@
         <v>480660</v>
       </c>
       <c r="P14" s="36">
-        <v>515303</v>
+        <v>508146</v>
       </c>
       <c r="Q14" s="36">
-        <v>508146</v>
+        <v>512903</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>-7157</v>
-      </c>
-      <c r="S14" s="36">
-        <f t="shared" si="1"/>
-        <v>27486</v>
-      </c>
+        <v>4757</v>
+      </c>
+      <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-    </row>
-    <row r="15" spans="1:24" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
@@ -8549,24 +9317,20 @@
         <v>2624</v>
       </c>
       <c r="P15" s="36">
-        <v>2515</v>
+        <v>2500</v>
       </c>
       <c r="Q15" s="36">
-        <v>2500</v>
+        <v>2580</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>-15</v>
-      </c>
-      <c r="S15" s="36">
-        <f t="shared" si="1"/>
-        <v>-124</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-    </row>
-    <row r="16" spans="1:24" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
@@ -8613,24 +9377,20 @@
         <v>620320</v>
       </c>
       <c r="P16" s="36">
-        <v>650779</v>
+        <v>644397</v>
       </c>
       <c r="Q16" s="36">
-        <v>644397</v>
+        <v>649778</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>-6382</v>
-      </c>
-      <c r="S16" s="36">
-        <f t="shared" si="1"/>
-        <v>24077</v>
-      </c>
+        <v>5381</v>
+      </c>
+      <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-    </row>
-    <row r="17" spans="1:65" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:64" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -8677,73 +9437,69 @@
         <v>97255</v>
       </c>
       <c r="P17" s="36">
-        <v>105032</v>
+        <v>104444</v>
       </c>
       <c r="Q17" s="36">
-        <v>104444</v>
+        <v>104505</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>-588</v>
-      </c>
-      <c r="S17" s="36">
-        <f t="shared" si="1"/>
-        <v>7189</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="S17" s="22"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-    </row>
-    <row r="18" spans="1:65" s="25" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:64" s="25" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="54">
-        <f t="shared" ref="B18:E18" si="2">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:E18" si="1">SUM(B10:B17)</f>
         <v>1204590</v>
       </c>
       <c r="C18" s="54">
+        <f t="shared" si="1"/>
+        <v>1208019</v>
+      </c>
+      <c r="D18" s="54">
+        <f t="shared" si="1"/>
+        <v>1263487</v>
+      </c>
+      <c r="E18" s="54">
+        <f t="shared" si="1"/>
+        <v>1308282</v>
+      </c>
+      <c r="F18" s="54">
+        <f t="shared" ref="F18:J18" si="2">SUM(F10:F17)</f>
+        <v>1349657</v>
+      </c>
+      <c r="G18" s="54">
         <f t="shared" si="2"/>
-        <v>1208019</v>
-      </c>
-      <c r="D18" s="54">
+        <v>1397248</v>
+      </c>
+      <c r="H18" s="54">
         <f t="shared" si="2"/>
-        <v>1263487</v>
-      </c>
-      <c r="E18" s="54">
+        <v>1463340</v>
+      </c>
+      <c r="I18" s="54">
         <f t="shared" si="2"/>
-        <v>1308282</v>
-      </c>
-      <c r="F18" s="54">
-        <f t="shared" ref="F18:J18" si="3">SUM(F10:F17)</f>
-        <v>1349657</v>
-      </c>
-      <c r="G18" s="54">
+        <v>1535255</v>
+      </c>
+      <c r="J18" s="54">
+        <f t="shared" si="2"/>
+        <v>1624237</v>
+      </c>
+      <c r="K18" s="54">
+        <f t="shared" ref="K18:M18" si="3">SUM(K10:K17)</f>
+        <v>1717868</v>
+      </c>
+      <c r="L18" s="54">
         <f t="shared" si="3"/>
-        <v>1397248</v>
-      </c>
-      <c r="H18" s="54">
+        <v>1761000</v>
+      </c>
+      <c r="M18" s="54">
         <f t="shared" si="3"/>
-        <v>1463340</v>
-      </c>
-      <c r="I18" s="54">
-        <f t="shared" si="3"/>
-        <v>1535255</v>
-      </c>
-      <c r="J18" s="54">
-        <f t="shared" si="3"/>
-        <v>1624237</v>
-      </c>
-      <c r="K18" s="54">
-        <f t="shared" ref="K18:M18" si="4">SUM(K10:K17)</f>
-        <v>1717868</v>
-      </c>
-      <c r="L18" s="54">
-        <f t="shared" si="4"/>
-        <v>1761000</v>
-      </c>
-      <c r="M18" s="54">
-        <f t="shared" si="4"/>
         <v>1812699</v>
       </c>
       <c r="N18" s="54">
@@ -8755,25 +9511,21 @@
       </c>
       <c r="P18" s="54">
         <f>SUM(P10:P17)</f>
-        <v>1960510</v>
+        <v>1932962</v>
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1932962</v>
+        <v>1951256</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>-27548</v>
-      </c>
-      <c r="S18" s="57">
-        <f>SUM(S10:S17)</f>
-        <v>82963</v>
-      </c>
+        <v>18294</v>
+      </c>
+      <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-    </row>
-    <row r="19" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -8791,32 +9543,30 @@
       <c r="P19" s="70"/>
       <c r="Q19" s="70"/>
       <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-    </row>
-    <row r="20" spans="1:65" ht="24.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+    </row>
+    <row r="20" spans="1:64" ht="24.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-    </row>
-    <row r="21" spans="1:65" s="18" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+    </row>
+    <row r="21" spans="1:64" s="18" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -8835,14 +9585,13 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" spans="1:65" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:64" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:65" s="12" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="12" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -8906,22 +9655,19 @@
       <c r="BJ23" s="14"/>
       <c r="BK23" s="14"/>
       <c r="BL23" s="14"/>
-      <c r="BM23" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A11:K17">
     <sortCondition ref="A10:A17"/>
   </sortState>
-  <mergeCells count="10">
-    <mergeCell ref="A20:S20"/>
+  <mergeCells count="8">
+    <mergeCell ref="A20:R20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:R9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
@@ -8967,55 +9713,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2014</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -9086,7 +9832,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -9774,55 +10520,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2015</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -9893,7 +10639,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -10548,55 +11294,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2016</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -10667,7 +11413,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11333,55 +12079,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2017</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -11452,7 +12198,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -12119,55 +12865,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2018</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -12238,7 +12984,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -12908,55 +13654,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2019</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -13027,7 +13773,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -13694,55 +14440,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2020</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -13813,7 +14559,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -14480,55 +15226,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2021</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -14599,7 +15345,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -15265,55 +16011,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2022</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -15384,7 +16130,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -16017,6 +16763,616 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BL29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="4" max="13" width="8" style="29" customWidth="1"/>
+    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="88">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="101">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+    </row>
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="91"/>
+      <c r="B9" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="74">
+        <v>125411</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="36">
+        <v>397405</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="74">
+        <v>148827</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="36">
+        <v>9847</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="74">
+        <v>512903</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="36">
+        <v>2580</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="74">
+        <v>649778</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="36">
+        <v>104505</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="79">
+        <f>SUM(B10:B17)</f>
+        <v>1951256</v>
+      </c>
+      <c r="C18" s="79">
+        <f>SUM(C10:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="79">
+        <f t="shared" ref="D18:M18" si="0">SUM(D10:D17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="79">
+        <f>SUM(E10:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+    </row>
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="58">
+        <f>(B18/'2022'!M18-1)*100</f>
+        <v>0.9464231578272031</v>
+      </c>
+      <c r="C19" s="58">
+        <f>+(C18-B18)/B18*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D19" s="58" t="e">
+        <f t="shared" ref="D19:H19" si="1">+(D18-C18)/C18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="58" t="e">
+        <f>+(G18-F18)/F18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="58" t="e">
+        <f>+(I18-H18)/H18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="58" t="e">
+        <f>+(J18-I18)/I18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="58" t="e">
+        <f>+(K18-J18)/J18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="58" t="e">
+        <f>+(L18-K18)/K18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="58" t="e">
+        <f>+(M18-L18)/L18*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="47"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="47"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="47"/>
+      <c r="BI19" s="47"/>
+      <c r="BJ19" s="47"/>
+      <c r="BK19" s="47"/>
+      <c r="BL19" s="47"/>
+    </row>
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+    </row>
+    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+    </row>
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+    </row>
+    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="60"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR31"/>
@@ -16056,21 +17412,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:44" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -16104,21 +17460,21 @@
       <c r="AR2" s="4"/>
     </row>
     <row r="3" spans="1:44" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -16152,21 +17508,21 @@
       <c r="AR3" s="8"/>
     </row>
     <row r="4" spans="1:44" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2000</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -16983,55 +18339,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2001</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
@@ -17708,21 +19064,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -17737,21 +19093,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -17766,21 +19122,21 @@
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2008</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -17899,7 +19255,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -18619,21 +19975,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -18648,21 +20004,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -18677,21 +20033,21 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2009</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -18810,7 +20166,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -19539,21 +20895,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -19567,21 +20923,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -19595,21 +20951,21 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2010</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -19724,7 +21080,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -20466,21 +21822,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -20490,21 +21846,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -20514,21 +21870,21 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2011</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -20627,7 +21983,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -21357,57 +22713,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2012</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -21482,7 +22838,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -22189,57 +23545,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="87">
+      <c r="A4" s="88">
         <v>2013</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -22314,7 +23670,7 @@
       <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB35D0C-1B5A-48D2-A688-D50DB3A65EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344" tabRatio="848"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen Gral 08-22" sheetId="21" r:id="rId1"/>
+    <sheet name="Resumen Gral 08-23" sheetId="21" r:id="rId1"/>
     <sheet name="2000" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="2001" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="2008" sheetId="15" r:id="rId4"/>
@@ -37,7 +38,7 @@
     <definedName name="rowNest1" localSheetId="10">'2015'!#REF!</definedName>
     <definedName name="sortIcon" localSheetId="10">'2015'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -168,21 +169,21 @@
     <t>2008 - 2023</t>
   </si>
   <si>
-    <t>Var ene 2023 respecto a dic 2022</t>
+    <t>Por división económica 2007 - 2023</t>
   </si>
   <si>
-    <t>Por división económica 2007 - 2023</t>
+    <t>Var feb 2023 respecto a dic 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1168,12 +1169,12 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Neutral" xfId="13" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="46"/>
-    <cellStyle name="Normal 2 3" xfId="48"/>
-    <cellStyle name="Normal_INDICA18" xfId="2"/>
-    <cellStyle name="Normal_INDICA8" xfId="3"/>
-    <cellStyle name="Normal_Trab_Comer_Jal" xfId="4"/>
-    <cellStyle name="Notas 2" xfId="47"/>
+    <cellStyle name="Normal 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal_INDICA18" xfId="2" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal_INDICA8" xfId="3" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal_Trab_Comer_Jal" xfId="4" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Notas 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Porcentaje" xfId="5" builtinId="5"/>
     <cellStyle name="Salida" xfId="15" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="19" builtinId="11" customBuiltin="1"/>
@@ -6017,7 +6018,7 @@
         <xdr:cNvPr id="2" name="1 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E76E20-67BC-467B-BE20-D5AA6FBD2319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6078,7 +6079,7 @@
         <xdr:cNvPr id="3" name="2 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F787931E-2A86-484D-8E21-FE6EC5FFE725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6139,7 +6140,7 @@
         <xdr:cNvPr id="4" name="3 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D6D12-E262-48D8-95B5-549E7B0A2AFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6200,7 +6201,7 @@
         <xdr:cNvPr id="5" name="4 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB77B4F-2520-4EC5-BC9C-0224313D1784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6261,7 +6262,7 @@
         <xdr:cNvPr id="6" name="5 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934108F8-1A94-4F7A-98D8-C0096D77848D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6322,7 +6323,7 @@
         <xdr:cNvPr id="7" name="6 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23685B79-E624-4581-8EFF-0A81EAA314F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6383,7 +6384,7 @@
         <xdr:cNvPr id="8" name="7 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2930F80F-0085-4C5A-B82D-626A61252ACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6444,7 +6445,7 @@
         <xdr:cNvPr id="9" name="8 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B913663A-6329-4B5C-AA78-E8AB4F6AC9A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6505,7 +6506,7 @@
         <xdr:cNvPr id="10" name="9 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79387381-4797-4481-BEBB-FE8135DA57AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6566,7 +6567,7 @@
         <xdr:cNvPr id="11" name="10 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12DBF8-1D73-412D-A55C-96617243EDD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6627,7 +6628,7 @@
         <xdr:cNvPr id="12" name="11 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B124756-5796-4E2C-B22E-78AB3F6871B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6688,7 +6689,7 @@
         <xdr:cNvPr id="13" name="12 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545AAB1-F5B4-4FA9-B6E8-CC8AC328DDAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6749,7 +6750,7 @@
         <xdr:cNvPr id="14" name="13 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199CF307-3CB3-42D8-AC82-78936854C782}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6815,7 +6816,7 @@
         <xdr:cNvPr id="2" name="1 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E76E20-67BC-467B-BE20-D5AA6FBD2319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6876,7 +6877,7 @@
         <xdr:cNvPr id="3" name="2 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F787931E-2A86-484D-8E21-FE6EC5FFE725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6937,7 +6938,7 @@
         <xdr:cNvPr id="4" name="3 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D6D12-E262-48D8-95B5-549E7B0A2AFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6998,7 +6999,7 @@
         <xdr:cNvPr id="5" name="4 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB77B4F-2520-4EC5-BC9C-0224313D1784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7059,7 +7060,7 @@
         <xdr:cNvPr id="6" name="5 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934108F8-1A94-4F7A-98D8-C0096D77848D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7120,7 +7121,7 @@
         <xdr:cNvPr id="7" name="6 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23685B79-E624-4581-8EFF-0A81EAA314F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7181,7 +7182,7 @@
         <xdr:cNvPr id="8" name="7 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2930F80F-0085-4C5A-B82D-626A61252ACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7242,7 +7243,7 @@
         <xdr:cNvPr id="9" name="8 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B913663A-6329-4B5C-AA78-E8AB4F6AC9A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7303,7 +7304,7 @@
         <xdr:cNvPr id="10" name="9 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79387381-4797-4481-BEBB-FE8135DA57AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7364,7 +7365,7 @@
         <xdr:cNvPr id="11" name="10 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12DBF8-1D73-412D-A55C-96617243EDD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7425,7 +7426,7 @@
         <xdr:cNvPr id="12" name="11 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B124756-5796-4E2C-B22E-78AB3F6871B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7486,7 +7487,7 @@
         <xdr:cNvPr id="13" name="12 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545AAB1-F5B4-4FA9-B6E8-CC8AC328DDAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7547,7 +7548,7 @@
         <xdr:cNvPr id="14" name="13 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199CF307-3CB3-42D8-AC82-78936854C782}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7613,7 +7614,7 @@
         <xdr:cNvPr id="2" name="1 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E76E20-67BC-467B-BE20-D5AA6FBD2319}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7674,7 +7675,7 @@
         <xdr:cNvPr id="3" name="2 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F787931E-2A86-484D-8E21-FE6EC5FFE725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7735,7 +7736,7 @@
         <xdr:cNvPr id="4" name="3 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D6D12-E262-48D8-95B5-549E7B0A2AFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7796,7 +7797,7 @@
         <xdr:cNvPr id="5" name="4 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB77B4F-2520-4EC5-BC9C-0224313D1784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,7 +7858,7 @@
         <xdr:cNvPr id="6" name="5 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934108F8-1A94-4F7A-98D8-C0096D77848D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7918,7 +7919,7 @@
         <xdr:cNvPr id="7" name="6 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23685B79-E624-4581-8EFF-0A81EAA314F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7979,7 +7980,7 @@
         <xdr:cNvPr id="8" name="7 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2930F80F-0085-4C5A-B82D-626A61252ACE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8040,7 +8041,7 @@
         <xdr:cNvPr id="9" name="8 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B913663A-6329-4B5C-AA78-E8AB4F6AC9A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8101,7 +8102,7 @@
         <xdr:cNvPr id="10" name="9 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79387381-4797-4481-BEBB-FE8135DA57AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8162,7 +8163,7 @@
         <xdr:cNvPr id="11" name="10 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12DBF8-1D73-412D-A55C-96617243EDD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8223,7 +8224,7 @@
         <xdr:cNvPr id="12" name="11 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B124756-5796-4E2C-B22E-78AB3F6871B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8284,7 +8285,7 @@
         <xdr:cNvPr id="13" name="12 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545AAB1-F5B4-4FA9-B6E8-CC8AC328DDAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8345,7 +8346,7 @@
         <xdr:cNvPr id="14" name="13 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199CF307-3CB3-42D8-AC82-78936854C782}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8467,6 +8468,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8502,6 +8520,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8677,23 +8712,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="2" max="16" width="7.875" customWidth="1"/>
-    <col min="17" max="17" width="8.125" customWidth="1"/>
-    <col min="18" max="18" width="8.75" customWidth="1"/>
-    <col min="19" max="25" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="16" width="7.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="25" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -8702,7 +8735,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="14.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -8729,7 +8762,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -8756,7 +8789,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88" t="s">
         <v>28</v>
       </c>
@@ -8783,7 +8816,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -8806,7 +8839,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
@@ -8831,9 +8864,9 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90"/>
@@ -8856,7 +8889,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="91" t="s">
         <v>24</v>
       </c>
@@ -8909,13 +8942,13 @@
         <v>2023</v>
       </c>
       <c r="R8" s="93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="92"/>
       <c r="B9" s="67" t="s">
         <v>23</v>
@@ -8963,14 +8996,14 @@
         <v>23</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R9" s="94"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="23" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="23" customFormat="1" ht="22.5">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -9023,14 +9056,13 @@
         <v>125411</v>
       </c>
       <c r="R10" s="36">
-        <f>Q10-P10</f>
-        <v>6703</v>
+        <v>126199</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
     </row>
-    <row r="11" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="23" customFormat="1">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -9083,14 +9115,13 @@
         <v>397405</v>
       </c>
       <c r="R11" s="36">
-        <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>-2202</v>
+        <v>399812</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="23" customFormat="1">
       <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
@@ -9143,14 +9174,13 @@
         <v>148827</v>
       </c>
       <c r="R12" s="36">
-        <f t="shared" si="0"/>
-        <v>3481</v>
+        <v>150599</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
     </row>
-    <row r="13" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="23" customFormat="1">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -9203,14 +9233,13 @@
         <v>9847</v>
       </c>
       <c r="R13" s="36">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>9971</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="23" customFormat="1">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
@@ -9263,14 +9292,13 @@
         <v>512903</v>
       </c>
       <c r="R14" s="36">
-        <f t="shared" si="0"/>
-        <v>4757</v>
+        <v>517652</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
     </row>
-    <row r="15" spans="1:23" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="23" customFormat="1">
       <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
@@ -9323,14 +9351,13 @@
         <v>2580</v>
       </c>
       <c r="R15" s="36">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>2633</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
     </row>
-    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
@@ -9383,14 +9410,13 @@
         <v>649778</v>
       </c>
       <c r="R16" s="36">
-        <f t="shared" si="0"/>
-        <v>5381</v>
+        <v>653050</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
     </row>
-    <row r="17" spans="1:64" s="23" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="23" customFormat="1">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -9443,63 +9469,62 @@
         <v>104505</v>
       </c>
       <c r="R17" s="36">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <v>104603</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
     </row>
-    <row r="18" spans="1:64" s="25" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="25" customFormat="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="54">
-        <f t="shared" ref="B18:E18" si="1">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:E18" si="0">SUM(B10:B17)</f>
         <v>1204590</v>
       </c>
       <c r="C18" s="54">
+        <f t="shared" si="0"/>
+        <v>1208019</v>
+      </c>
+      <c r="D18" s="54">
+        <f t="shared" si="0"/>
+        <v>1263487</v>
+      </c>
+      <c r="E18" s="54">
+        <f t="shared" si="0"/>
+        <v>1308282</v>
+      </c>
+      <c r="F18" s="54">
+        <f t="shared" ref="F18:J18" si="1">SUM(F10:F17)</f>
+        <v>1349657</v>
+      </c>
+      <c r="G18" s="54">
         <f t="shared" si="1"/>
-        <v>1208019</v>
-      </c>
-      <c r="D18" s="54">
+        <v>1397248</v>
+      </c>
+      <c r="H18" s="54">
         <f t="shared" si="1"/>
-        <v>1263487</v>
-      </c>
-      <c r="E18" s="54">
+        <v>1463340</v>
+      </c>
+      <c r="I18" s="54">
         <f t="shared" si="1"/>
-        <v>1308282</v>
-      </c>
-      <c r="F18" s="54">
-        <f t="shared" ref="F18:J18" si="2">SUM(F10:F17)</f>
-        <v>1349657</v>
-      </c>
-      <c r="G18" s="54">
+        <v>1535255</v>
+      </c>
+      <c r="J18" s="54">
+        <f t="shared" si="1"/>
+        <v>1624237</v>
+      </c>
+      <c r="K18" s="54">
+        <f t="shared" ref="K18:M18" si="2">SUM(K10:K17)</f>
+        <v>1717868</v>
+      </c>
+      <c r="L18" s="54">
         <f t="shared" si="2"/>
-        <v>1397248</v>
-      </c>
-      <c r="H18" s="54">
+        <v>1761000</v>
+      </c>
+      <c r="M18" s="54">
         <f t="shared" si="2"/>
-        <v>1463340</v>
-      </c>
-      <c r="I18" s="54">
-        <f t="shared" si="2"/>
-        <v>1535255</v>
-      </c>
-      <c r="J18" s="54">
-        <f t="shared" si="2"/>
-        <v>1624237</v>
-      </c>
-      <c r="K18" s="54">
-        <f t="shared" ref="K18:M18" si="3">SUM(K10:K17)</f>
-        <v>1717868</v>
-      </c>
-      <c r="L18" s="54">
-        <f t="shared" si="3"/>
-        <v>1761000</v>
-      </c>
-      <c r="M18" s="54">
-        <f t="shared" si="3"/>
         <v>1812699</v>
       </c>
       <c r="N18" s="54">
@@ -9519,13 +9544,13 @@
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>18294</v>
+        <v>1964519</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" ht="12.75" customHeight="1">
       <c r="B19" s="61"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -9544,7 +9569,7 @@
       <c r="Q19" s="70"/>
       <c r="R19" s="70"/>
     </row>
-    <row r="20" spans="1:64" ht="24.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" ht="24.75" customHeight="1">
       <c r="A20" s="87" t="s">
         <v>26</v>
       </c>
@@ -9566,7 +9591,7 @@
       <c r="Q20" s="87"/>
       <c r="R20" s="87"/>
     </row>
-    <row r="21" spans="1:64" s="18" customFormat="1" ht="10.9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" s="18" customFormat="1" ht="11.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -9586,12 +9611,12 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="1:64" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="15" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:64" s="12" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="12" customFormat="1">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -9681,21 +9706,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CQ29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -9712,7 +9737,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -9729,7 +9754,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -9746,7 +9771,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2014</v>
       </c>
@@ -9763,7 +9788,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -9778,7 +9803,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -9795,7 +9820,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -9812,7 +9837,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -9831,7 +9856,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -9870,7 +9895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -9911,7 +9936,7 @@
         <v>77509</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -9952,7 +9977,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -9993,7 +10018,7 @@
         <v>363344</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -10034,7 +10059,7 @@
         <v>107248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -10075,7 +10100,7 @@
         <v>9548</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -10116,7 +10141,7 @@
         <v>295797</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -10157,7 +10182,7 @@
         <v>66390</v>
       </c>
     </row>
-    <row r="17" spans="1:95" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -10198,7 +10223,7 @@
         <v>540644</v>
       </c>
     </row>
-    <row r="18" spans="1:95" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -10251,7 +10276,7 @@
         <v>1463340</v>
       </c>
     </row>
-    <row r="19" spans="1:95" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:95" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -10386,7 +10411,7 @@
       <c r="CP19" s="47"/>
       <c r="CQ19" s="47"/>
     </row>
-    <row r="20" spans="1:95" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:95" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -10398,7 +10423,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:95" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:95" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -10415,7 +10440,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:95" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -10430,7 +10455,7 @@
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
     </row>
-    <row r="23" spans="1:95" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:95" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -10447,10 +10472,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:95" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:95" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:95" ht="17.100000000000001" customHeight="1">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -10462,10 +10487,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:95" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:95" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:95" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:95" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -10488,21 +10513,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -10519,7 +10544,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -10536,7 +10561,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -10553,7 +10578,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2015</v>
       </c>
@@ -10570,7 +10595,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -10585,7 +10610,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -10602,7 +10627,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -10619,7 +10644,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -10638,7 +10663,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -10677,7 +10702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -10718,7 +10743,7 @@
         <v>82606</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -10759,7 +10784,7 @@
         <v>312586</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -10800,7 +10825,7 @@
         <v>119587</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -10841,7 +10866,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -10882,7 +10907,7 @@
         <v>385457</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -10923,7 +10948,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -10964,7 +10989,7 @@
         <v>551836</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -11005,7 +11030,7 @@
         <v>70979</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -11058,7 +11083,7 @@
         <v>1535255</v>
       </c>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -11162,7 +11187,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -11174,7 +11199,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -11191,7 +11216,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -11206,7 +11231,7 @@
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -11223,10 +11248,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -11238,10 +11263,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
   </sheetData>
   <sortState ref="A10:G17">
     <sortCondition ref="A10:A17"/>
@@ -11262,21 +11287,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -11293,7 +11318,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -11310,7 +11335,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -11327,7 +11352,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2016</v>
       </c>
@@ -11344,7 +11369,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11359,7 +11384,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -11376,7 +11401,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -11393,7 +11418,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -11412,7 +11437,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -11451,7 +11476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -11492,7 +11517,7 @@
         <v>89558</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -11533,7 +11558,7 @@
         <v>334254</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -11574,7 +11599,7 @@
         <v>130890</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -11615,7 +11640,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -11656,7 +11681,7 @@
         <v>407270</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -11697,7 +11722,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -11738,7 +11763,7 @@
         <v>575641</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -11779,7 +11804,7 @@
         <v>74255</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -11836,7 +11861,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -11940,7 +11965,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -11955,7 +11980,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -11972,7 +11997,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -11990,7 +12015,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -12010,10 +12035,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -12025,10 +12050,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12046,22 +12071,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -12078,7 +12103,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -12095,7 +12120,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -12112,7 +12137,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2017</v>
       </c>
@@ -12129,7 +12154,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12144,7 +12169,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -12161,7 +12186,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -12178,7 +12203,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -12197,7 +12222,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -12236,7 +12261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -12277,7 +12302,7 @@
         <v>96726</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -12318,7 +12343,7 @@
         <v>343480</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -12359,7 +12384,7 @@
         <v>144472</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -12400,7 +12425,7 @@
         <v>9194</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -12441,7 +12466,7 @@
         <v>435724</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -12482,7 +12507,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -12523,7 +12548,7 @@
         <v>605107</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -12564,7 +12589,7 @@
         <v>79961</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -12621,7 +12646,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -12725,7 +12750,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -12740,7 +12765,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -12757,7 +12782,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -12775,7 +12800,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -12795,10 +12820,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -12811,10 +12836,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12832,22 +12857,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -12864,7 +12889,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -12881,7 +12906,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -12898,7 +12923,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2018</v>
       </c>
@@ -12915,7 +12940,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12930,7 +12955,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -12947,7 +12972,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -12964,7 +12989,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -12983,7 +13008,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -13022,7 +13047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -13063,7 +13088,7 @@
         <v>104065</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -13104,7 +13129,7 @@
         <v>354114</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -13145,7 +13170,7 @@
         <v>141254</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -13186,7 +13211,7 @@
         <v>9458</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -13227,7 +13252,7 @@
         <v>452017</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -13268,7 +13293,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -13309,7 +13334,7 @@
         <v>614655</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -13350,7 +13375,7 @@
         <v>82734</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -13407,7 +13432,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -13511,7 +13536,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -13526,7 +13551,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -13543,7 +13568,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -13561,7 +13586,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -13581,10 +13606,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -13597,11 +13622,11 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:64">
       <c r="C30" s="64"/>
     </row>
   </sheetData>
@@ -13621,22 +13646,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -13653,7 +13678,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -13670,7 +13695,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -13687,7 +13712,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2019</v>
       </c>
@@ -13704,7 +13729,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -13719,7 +13744,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -13736,7 +13761,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -13753,7 +13778,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -13772,7 +13797,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -13811,7 +13836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -13852,7 +13877,7 @@
         <v>109333</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -13893,7 +13918,7 @@
         <v>363625</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -13934,7 +13959,7 @@
         <v>141943</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -13975,7 +14000,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -14016,7 +14041,7 @@
         <v>458198</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -14057,7 +14082,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -14098,7 +14123,7 @@
         <v>640252</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -14139,7 +14164,7 @@
         <v>86968</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -14196,7 +14221,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -14300,7 +14325,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -14315,7 +14340,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -14332,7 +14357,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -14350,7 +14375,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -14370,10 +14395,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -14386,10 +14411,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -14407,22 +14432,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -14439,7 +14464,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -14456,7 +14481,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -14473,7 +14498,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2020</v>
       </c>
@@ -14490,7 +14515,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -14505,7 +14530,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -14522,7 +14547,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -14539,7 +14564,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -14558,7 +14583,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -14597,7 +14622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -14638,7 +14663,7 @@
         <v>111767</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -14679,7 +14704,7 @@
         <v>366999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -14720,7 +14745,7 @@
         <v>133149</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -14761,7 +14786,7 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -14802,7 +14827,7 @@
         <v>452541</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -14843,7 +14868,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -14884,7 +14909,7 @@
         <v>614772</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -14925,7 +14950,7 @@
         <v>88417</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -14982,7 +15007,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -15086,7 +15111,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -15101,7 +15126,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -15118,7 +15143,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -15136,7 +15161,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -15156,10 +15181,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -15172,10 +15197,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -15193,22 +15218,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -15225,7 +15250,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -15242,7 +15267,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -15259,7 +15284,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2021</v>
       </c>
@@ -15276,7 +15301,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -15291,7 +15316,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -15308,7 +15333,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -15325,7 +15350,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -15344,7 +15369,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -15383,7 +15408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -15424,7 +15449,7 @@
         <v>116251</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -15465,7 +15490,7 @@
         <v>388949</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -15506,7 +15531,7 @@
         <v>134547</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -15547,7 +15572,7 @@
         <v>9393</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -15588,7 +15613,7 @@
         <v>480660</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -15629,7 +15654,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -15670,7 +15695,7 @@
         <v>620320</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -15711,7 +15736,7 @@
         <v>97255</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -15767,7 +15792,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -15871,7 +15896,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -15886,7 +15911,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -15903,7 +15928,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -15921,7 +15946,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -15941,10 +15966,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -15957,10 +15982,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -15978,22 +16003,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -16010,7 +16035,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -16027,7 +16052,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -16044,7 +16069,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2022</v>
       </c>
@@ -16061,7 +16086,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -16076,7 +16101,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -16093,7 +16118,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -16110,7 +16135,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -16129,7 +16154,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -16168,7 +16193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -16209,7 +16234,7 @@
         <v>118708</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -16250,7 +16275,7 @@
         <v>399607</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -16291,7 +16316,7 @@
         <v>145346</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -16332,7 +16357,7 @@
         <v>9814</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -16373,7 +16398,7 @@
         <v>508146</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -16414,7 +16439,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -16455,7 +16480,7 @@
         <v>644397</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -16496,7 +16521,7 @@
         <v>104444</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -16553,7 +16578,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -16657,7 +16682,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -16672,7 +16697,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -16689,7 +16714,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -16707,7 +16732,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -16727,10 +16752,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -16743,10 +16768,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -16764,22 +16789,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C10" sqref="C10:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -16796,7 +16821,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -16813,7 +16838,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -16830,7 +16855,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2023</v>
       </c>
@@ -16847,7 +16872,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -16862,7 +16887,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -16879,7 +16904,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -16896,7 +16921,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -16915,7 +16940,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -16954,14 +16979,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="74">
         <v>125411</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="74">
+        <v>126199</v>
+      </c>
       <c r="D10" s="74"/>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
@@ -16973,14 +17000,16 @@
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="36">
         <v>397405</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="36">
+        <v>399812</v>
+      </c>
       <c r="D11" s="36"/>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
@@ -16992,14 +17021,16 @@
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="74">
         <v>148827</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="74">
+        <v>150599</v>
+      </c>
       <c r="D12" s="74"/>
       <c r="E12" s="75"/>
       <c r="F12" s="75"/>
@@ -17011,14 +17042,16 @@
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="36">
         <v>9847</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="36">
+        <v>9971</v>
+      </c>
       <c r="D13" s="36"/>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
@@ -17030,14 +17063,16 @@
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="74">
         <v>512903</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="74">
+        <v>517652</v>
+      </c>
       <c r="D14" s="74"/>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
@@ -17049,14 +17084,16 @@
       <c r="L14" s="74"/>
       <c r="M14" s="74"/>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="36">
         <v>2580</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36">
+        <v>2633</v>
+      </c>
       <c r="D15" s="36"/>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
@@ -17068,14 +17105,16 @@
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="74">
         <v>649778</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74">
+        <v>653050</v>
+      </c>
       <c r="D16" s="74"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
@@ -17087,14 +17126,16 @@
       <c r="L16" s="74"/>
       <c r="M16" s="74"/>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="36">
         <v>104505</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="36">
+        <v>104603</v>
+      </c>
       <c r="D17" s="36"/>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
@@ -17106,7 +17147,7 @@
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -17116,7 +17157,7 @@
       </c>
       <c r="C18" s="79">
         <f>SUM(C10:C17)</f>
-        <v>0</v>
+        <v>1964519</v>
       </c>
       <c r="D18" s="79">
         <f t="shared" ref="D18:M18" si="0">SUM(D10:D17)</f>
@@ -17163,7 +17204,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -17173,11 +17214,11 @@
       </c>
       <c r="C19" s="58">
         <f>+(C18-B18)/B18*100</f>
+        <v>0.67971603931006497</v>
+      </c>
+      <c r="D19" s="58">
+        <f t="shared" ref="D19:H19" si="1">+(D18-C18)/C18*100</f>
         <v>-100</v>
-      </c>
-      <c r="D19" s="58" t="e">
-        <f t="shared" ref="D19:H19" si="1">+(D18-C18)/C18*100</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="E19" s="58" t="e">
         <f t="shared" si="1"/>
@@ -17267,7 +17308,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -17282,7 +17323,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -17299,7 +17340,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -17317,7 +17358,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -17337,10 +17378,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -17353,10 +17394,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -17369,32 +17410,33 @@
     <mergeCell ref="B8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="2" max="3" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" customWidth="1"/>
-    <col min="10" max="12" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1"/>
-    <col min="14" max="35" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="14" max="35" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -17411,7 +17453,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:44" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" s="3" customFormat="1" ht="14.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -17459,7 +17501,7 @@
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
     </row>
-    <row r="3" spans="1:44" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -17507,7 +17549,7 @@
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8"/>
     </row>
-    <row r="4" spans="1:44" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2000</v>
       </c>
@@ -17555,7 +17597,7 @@
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
     </row>
-    <row r="5" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -17589,7 +17631,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
@@ -17628,7 +17670,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:44" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
@@ -17667,7 +17709,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:44" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
@@ -17686,7 +17728,7 @@
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
     </row>
-    <row r="9" spans="1:44" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
@@ -17725,7 +17767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -17766,7 +17808,7 @@
         <v>46965</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -17807,7 +17849,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -17848,7 +17890,7 @@
         <v>340488</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -17889,7 +17931,7 @@
         <v>65361</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -17930,7 +17972,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -17971,7 +18013,7 @@
         <v>170180</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -18012,7 +18054,7 @@
         <v>48835</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -18053,7 +18095,7 @@
         <v>353145</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -18106,7 +18148,7 @@
         <v>1034215</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="1" customFormat="1" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" s="1" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -18178,7 +18220,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" s="1" customFormat="1" ht="7.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="16"/>
       <c r="D20" s="2"/>
@@ -18214,7 +18256,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="32.299999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="32.25" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -18231,7 +18273,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="95"/>
       <c r="B22" s="95"/>
       <c r="C22" s="95"/>
@@ -18246,7 +18288,7 @@
       <c r="L22" s="95"/>
       <c r="M22" s="95"/>
     </row>
-    <row r="23" spans="1:35" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -18263,11 +18305,11 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="17.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:35" ht="17.100000000000001" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -18276,11 +18318,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:35" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:35" ht="17.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:35" ht="17.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:35" ht="17.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:35" ht="17.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:35" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A21:M21"/>
@@ -18305,23 +18347,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="2" max="8" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" customWidth="1"/>
-    <col min="10" max="12" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -18338,7 +18380,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="14.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -18355,7 +18397,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -18372,7 +18414,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2001</v>
       </c>
@@ -18389,7 +18431,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -18401,7 +18443,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
@@ -18418,7 +18460,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
@@ -18435,7 +18477,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="99"/>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
@@ -18454,7 +18496,7 @@
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
     </row>
-    <row r="9" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
@@ -18493,7 +18535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -18534,7 +18576,7 @@
         <v>46740</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -18575,7 +18617,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -18616,7 +18658,7 @@
         <v>308690</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -18657,7 +18699,7 @@
         <v>61334</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -18698,7 +18740,7 @@
         <v>7640</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -18739,7 +18781,7 @@
         <v>177513</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -18780,7 +18822,7 @@
         <v>51521</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -18821,7 +18863,7 @@
         <v>356553</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -18874,7 +18916,7 @@
         <v>1011723</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="43" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="43" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -18927,7 +18969,7 @@
         <v>-1.6293932508233016</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="43" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="43" customFormat="1" ht="7.5" customHeight="1">
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="D20" s="44"/>
@@ -18941,7 +18983,7 @@
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="22.7" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -18958,7 +19000,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="95"/>
       <c r="B22" s="95"/>
       <c r="C22" s="95"/>
@@ -18973,7 +19015,7 @@
       <c r="L22" s="95"/>
       <c r="M22" s="95"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -18990,11 +19032,11 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -19003,11 +19045,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A21:M21"/>
@@ -19032,21 +19074,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:DD42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="2" max="13" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -19063,7 +19105,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -19092,7 +19134,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -19121,7 +19163,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2008</v>
       </c>
@@ -19150,7 +19192,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -19177,7 +19219,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -19206,7 +19248,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -19235,7 +19277,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -19254,7 +19296,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -19293,7 +19335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -19334,7 +19376,7 @@
         <v>55193</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -19375,7 +19417,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -19416,7 +19458,7 @@
         <v>311234</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -19457,7 +19499,7 @@
         <v>84833</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -19498,7 +19540,7 @@
         <v>8854</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -19539,7 +19581,7 @@
         <v>227223</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -19580,7 +19622,7 @@
         <v>57078</v>
       </c>
     </row>
-    <row r="17" spans="1:108" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -19621,7 +19663,7 @@
         <v>458010</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="43" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -19674,7 +19716,7 @@
         <v>1204590</v>
       </c>
     </row>
-    <row r="19" spans="1:108" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:108" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -19822,8 +19864,8 @@
       <c r="DC19" s="47"/>
       <c r="DD19" s="47"/>
     </row>
-    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:108" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1"/>
+    <row r="21" spans="1:108" ht="22.7" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -19840,7 +19882,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -19855,7 +19897,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -19872,10 +19914,10 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -19889,9 +19931,9 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -19906,20 +19948,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:108" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -19943,21 +19985,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DD42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="2" max="13" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -19974,7 +20016,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -20003,7 +20045,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -20032,7 +20074,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2009</v>
       </c>
@@ -20061,7 +20103,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -20088,7 +20130,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -20117,7 +20159,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -20146,7 +20188,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -20165,7 +20207,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -20204,7 +20246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -20246,7 +20288,7 @@
       </c>
       <c r="O10" s="51"/>
     </row>
-    <row r="11" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -20289,7 +20331,7 @@
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
     </row>
-    <row r="12" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -20331,7 +20373,7 @@
       </c>
       <c r="O12" s="51"/>
     </row>
-    <row r="13" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -20373,7 +20415,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -20414,7 +20456,7 @@
         <v>9024</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -20455,7 +20497,7 @@
         <v>226002</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -20496,7 +20538,7 @@
         <v>55965</v>
       </c>
     </row>
-    <row r="17" spans="1:108" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -20538,7 +20580,7 @@
       </c>
       <c r="O17" s="51"/>
     </row>
-    <row r="18" spans="1:108" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -20592,7 +20634,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:108" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:108" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -20740,8 +20782,8 @@
       <c r="DC19" s="47"/>
       <c r="DD19" s="47"/>
     </row>
-    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:108" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1"/>
+    <row r="21" spans="1:108" ht="22.7" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -20758,7 +20800,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -20773,7 +20815,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -20790,10 +20832,10 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -20807,11 +20849,11 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1">
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -20826,20 +20868,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:108" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:108" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -20863,21 +20905,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:DC42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="2" max="13" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -20894,7 +20936,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -20922,7 +20964,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -20950,7 +20992,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2010</v>
       </c>
@@ -20978,7 +21020,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -21004,7 +21046,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -21032,7 +21074,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -21060,7 +21102,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:24" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -21079,7 +21121,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -21118,7 +21160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -21161,7 +21203,7 @@
       <c r="N10" s="51"/>
       <c r="P10" s="51"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -21204,7 +21246,7 @@
       <c r="N11" s="51"/>
       <c r="P11" s="51"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -21248,7 +21290,7 @@
       <c r="P12" s="51"/>
       <c r="R12" s="51"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -21291,7 +21333,7 @@
       <c r="P13" s="51"/>
       <c r="R13" s="51"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -21333,7 +21375,7 @@
       </c>
       <c r="P14" s="51"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -21374,7 +21416,7 @@
         <v>237810</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -21415,7 +21457,7 @@
         <v>57424</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -21457,7 +21499,7 @@
       </c>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:107" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -21511,7 +21553,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:107" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -21658,10 +21700,10 @@
       <c r="DB19" s="47"/>
       <c r="DC19" s="47"/>
     </row>
-    <row r="20" spans="1:107" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:107" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="M20" s="52"/>
     </row>
-    <row r="21" spans="1:107" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:107" ht="22.7" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -21679,7 +21721,7 @@
       <c r="M21" s="95"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -21694,7 +21736,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:107" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -21710,10 +21752,10 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -21727,8 +21769,8 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" ht="17.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:107" ht="17.100000000000001" customHeight="1">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -21737,7 +21779,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -21751,20 +21793,20 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:107" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:107" ht="17.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:107" ht="17.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:107" ht="17.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:107" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -21788,23 +21830,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CY42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="2" max="8" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -21821,7 +21863,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -21845,7 +21887,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -21869,7 +21911,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2011</v>
       </c>
@@ -21893,7 +21935,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -21915,7 +21957,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -21939,7 +21981,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -21963,7 +22005,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:20" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -21982,7 +22024,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -22021,7 +22063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -22062,7 +22104,7 @@
         <v>64139</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -22103,7 +22145,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -22145,7 +22187,7 @@
       </c>
       <c r="N12" s="51"/>
     </row>
-    <row r="13" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -22187,7 +22229,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -22228,7 +22270,7 @@
         <v>9191</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -22269,7 +22311,7 @@
         <v>254521</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -22310,7 +22352,7 @@
         <v>58951</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -22351,7 +22393,7 @@
         <v>496044</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -22402,7 +22444,7 @@
         <v>1308282</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:103" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -22545,12 +22587,12 @@
       <c r="CX19" s="47"/>
       <c r="CY19" s="47"/>
     </row>
-    <row r="20" spans="1:103" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:103" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:103" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:103" ht="22.7" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -22567,7 +22609,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:103" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -22582,7 +22624,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:103" s="6" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:103" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -22599,10 +22641,10 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:103" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:103" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -22616,8 +22658,8 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:103" ht="17.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:103" ht="17.100000000000001" customHeight="1">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -22627,7 +22669,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:103" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -22642,20 +22684,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:103" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:103" ht="17.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:103" ht="17.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:103" ht="17.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:103" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -22679,23 +22721,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="2" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="7.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -22712,7 +22754,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -22730,7 +22772,7 @@
       <c r="M2" s="88"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -22748,7 +22790,7 @@
       <c r="M3" s="88"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2012</v>
       </c>
@@ -22766,7 +22808,7 @@
       <c r="M4" s="88"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -22782,7 +22824,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -22800,7 +22842,7 @@
       <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -22818,7 +22860,7 @@
       <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -22837,7 +22879,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -22876,7 +22918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -22917,7 +22959,7 @@
         <v>69492</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -22958,7 +23000,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -22999,7 +23041,7 @@
         <v>338376</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -23040,7 +23082,7 @@
         <v>95205</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -23081,7 +23123,7 @@
         <v>9246</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -23122,7 +23164,7 @@
         <v>270255</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -23163,7 +23205,7 @@
         <v>61629</v>
       </c>
     </row>
-    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -23204,7 +23246,7 @@
         <v>502496</v>
       </c>
     </row>
-    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -23257,7 +23299,7 @@
         <v>1349657</v>
       </c>
     </row>
-    <row r="19" spans="1:97" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:97" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -23394,7 +23436,7 @@
       <c r="CR19" s="47"/>
       <c r="CS19" s="47"/>
     </row>
-    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -23405,7 +23447,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
     </row>
-    <row r="21" spans="1:97" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:97" ht="22.7" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -23422,7 +23464,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -23437,7 +23479,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -23454,13 +23496,13 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -23475,20 +23517,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:97" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -23512,22 +23554,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.875" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="21.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="20.25">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -23544,7 +23586,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.7" customHeight="1">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -23562,7 +23604,7 @@
       <c r="M2" s="88"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -23580,7 +23622,7 @@
       <c r="M3" s="88"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="13.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25">
       <c r="A4" s="88">
         <v>2013</v>
       </c>
@@ -23598,7 +23640,7 @@
       <c r="M4" s="88"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -23614,7 +23656,7 @@
       <c r="M5" s="26"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -23632,7 +23674,7 @@
       <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -23650,7 +23692,7 @@
       <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -23669,7 +23711,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -23708,7 +23750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -23749,7 +23791,7 @@
         <v>70246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -23790,7 +23832,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -23831,7 +23873,7 @@
         <v>347298</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -23872,7 +23914,7 @@
         <v>98394</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -23913,7 +23955,7 @@
         <v>9369</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -23954,7 +23996,7 @@
         <v>282499</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -23995,7 +24037,7 @@
         <v>62952</v>
       </c>
     </row>
-    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -24036,7 +24078,7 @@
         <v>523456</v>
       </c>
     </row>
-    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -24090,7 +24132,7 @@
       </c>
       <c r="N18" s="55"/>
     </row>
-    <row r="19" spans="1:97" s="48" customFormat="1" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:97" s="48" customFormat="1" ht="22.5">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -24227,7 +24269,7 @@
       <c r="CR19" s="47"/>
       <c r="CS19" s="47"/>
     </row>
-    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -24239,7 +24281,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:97" ht="22.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:97" ht="22.7" customHeight="1">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -24256,7 +24298,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -24271,7 +24313,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -24288,10 +24330,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -24305,13 +24347,13 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1">
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1">
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -24326,20 +24368,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:97" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:97" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB35D0C-1B5A-48D2-A688-D50DB3A65EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E310350-C109-4377-B009-496E9FE2D83F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8715,7 +8715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -9053,10 +9055,11 @@
         <v>118708</v>
       </c>
       <c r="Q10" s="36">
-        <v>125411</v>
+        <v>126199</v>
       </c>
       <c r="R10" s="36">
-        <v>126199</v>
+        <f>Q10-P10</f>
+        <v>7491</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -9112,10 +9115,11 @@
         <v>399607</v>
       </c>
       <c r="Q11" s="36">
-        <v>397405</v>
+        <v>399812</v>
       </c>
       <c r="R11" s="36">
-        <v>399812</v>
+        <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
+        <v>205</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -9171,10 +9175,11 @@
         <v>145346</v>
       </c>
       <c r="Q12" s="36">
-        <v>148827</v>
+        <v>150599</v>
       </c>
       <c r="R12" s="36">
-        <v>150599</v>
+        <f t="shared" si="0"/>
+        <v>5253</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -9230,10 +9235,11 @@
         <v>9814</v>
       </c>
       <c r="Q13" s="36">
-        <v>9847</v>
+        <v>9971</v>
       </c>
       <c r="R13" s="36">
-        <v>9971</v>
+        <f t="shared" si="0"/>
+        <v>157</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -9289,10 +9295,11 @@
         <v>508146</v>
       </c>
       <c r="Q14" s="36">
-        <v>512903</v>
+        <v>517652</v>
       </c>
       <c r="R14" s="36">
-        <v>517652</v>
+        <f t="shared" si="0"/>
+        <v>9506</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
@@ -9348,10 +9355,11 @@
         <v>2500</v>
       </c>
       <c r="Q15" s="36">
-        <v>2580</v>
+        <v>2633</v>
       </c>
       <c r="R15" s="36">
-        <v>2633</v>
+        <f t="shared" si="0"/>
+        <v>133</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -9407,10 +9415,11 @@
         <v>644397</v>
       </c>
       <c r="Q16" s="36">
-        <v>649778</v>
+        <v>653050</v>
       </c>
       <c r="R16" s="36">
-        <v>653050</v>
+        <f t="shared" si="0"/>
+        <v>8653</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -9466,10 +9475,11 @@
         <v>104444</v>
       </c>
       <c r="Q17" s="36">
-        <v>104505</v>
+        <v>104603</v>
       </c>
       <c r="R17" s="36">
-        <v>104603</v>
+        <f t="shared" si="0"/>
+        <v>159</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
@@ -9480,51 +9490,51 @@
         <v>9</v>
       </c>
       <c r="B18" s="54">
-        <f t="shared" ref="B18:E18" si="0">SUM(B10:B17)</f>
+        <f t="shared" ref="B18:E18" si="1">SUM(B10:B17)</f>
         <v>1204590</v>
       </c>
       <c r="C18" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1208019</v>
       </c>
       <c r="D18" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1263487</v>
       </c>
       <c r="E18" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1308282</v>
       </c>
       <c r="F18" s="54">
-        <f t="shared" ref="F18:J18" si="1">SUM(F10:F17)</f>
+        <f t="shared" ref="F18:J18" si="2">SUM(F10:F17)</f>
         <v>1349657</v>
       </c>
       <c r="G18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1397248</v>
       </c>
       <c r="H18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1463340</v>
       </c>
       <c r="I18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1535255</v>
       </c>
       <c r="J18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1624237</v>
       </c>
       <c r="K18" s="54">
-        <f t="shared" ref="K18:M18" si="2">SUM(K10:K17)</f>
+        <f t="shared" ref="K18:M18" si="3">SUM(K10:K17)</f>
         <v>1717868</v>
       </c>
       <c r="L18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1761000</v>
       </c>
       <c r="M18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1812699</v>
       </c>
       <c r="N18" s="54">
@@ -9540,11 +9550,11 @@
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1951256</v>
+        <v>1964519</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>1964519</v>
+        <v>31557</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E310350-C109-4377-B009-496E9FE2D83F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="848"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen Gral 08-23" sheetId="21" r:id="rId1"/>
+    <sheet name="Resumen Gral 08-22" sheetId="21" r:id="rId1"/>
     <sheet name="2000" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="2001" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="2008" sheetId="15" r:id="rId4"/>
@@ -38,7 +37,7 @@
     <definedName name="rowNest1" localSheetId="10">'2015'!#REF!</definedName>
     <definedName name="sortIcon" localSheetId="10">'2015'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -172,18 +171,18 @@
     <t>Por división económica 2007 - 2023</t>
   </si>
   <si>
-    <t>Var feb 2023 respecto a dic 2022</t>
+    <t>Var mar 2023 respecto a dic 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1169,12 +1168,12 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Neutral" xfId="13" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal_INDICA18" xfId="2" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal_INDICA8" xfId="3" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal_Trab_Comer_Jal" xfId="4" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Notas 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 2" xfId="46"/>
+    <cellStyle name="Normal 2 3" xfId="48"/>
+    <cellStyle name="Normal_INDICA18" xfId="2"/>
+    <cellStyle name="Normal_INDICA8" xfId="3"/>
+    <cellStyle name="Normal_Trab_Comer_Jal" xfId="4"/>
+    <cellStyle name="Notas 2" xfId="47"/>
     <cellStyle name="Porcentaje" xfId="5" builtinId="5"/>
     <cellStyle name="Salida" xfId="15" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="19" builtinId="11" customBuiltin="1"/>
@@ -6018,7 +6017,7 @@
         <xdr:cNvPr id="2" name="1 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E76E20-67BC-467B-BE20-D5AA6FBD2319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6079,7 +6078,7 @@
         <xdr:cNvPr id="3" name="2 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F787931E-2A86-484D-8E21-FE6EC5FFE725}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6140,7 +6139,7 @@
         <xdr:cNvPr id="4" name="3 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D6D12-E262-48D8-95B5-549E7B0A2AFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6201,7 +6200,7 @@
         <xdr:cNvPr id="5" name="4 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB77B4F-2520-4EC5-BC9C-0224313D1784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6262,7 +6261,7 @@
         <xdr:cNvPr id="6" name="5 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934108F8-1A94-4F7A-98D8-C0096D77848D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6323,7 +6322,7 @@
         <xdr:cNvPr id="7" name="6 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23685B79-E624-4581-8EFF-0A81EAA314F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6384,7 +6383,7 @@
         <xdr:cNvPr id="8" name="7 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2930F80F-0085-4C5A-B82D-626A61252ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6445,7 +6444,7 @@
         <xdr:cNvPr id="9" name="8 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B913663A-6329-4B5C-AA78-E8AB4F6AC9A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6506,7 +6505,7 @@
         <xdr:cNvPr id="10" name="9 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79387381-4797-4481-BEBB-FE8135DA57AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6567,7 +6566,7 @@
         <xdr:cNvPr id="11" name="10 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12DBF8-1D73-412D-A55C-96617243EDD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6628,7 +6627,7 @@
         <xdr:cNvPr id="12" name="11 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B124756-5796-4E2C-B22E-78AB3F6871B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6689,7 +6688,7 @@
         <xdr:cNvPr id="13" name="12 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545AAB1-F5B4-4FA9-B6E8-CC8AC328DDAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6750,7 +6749,7 @@
         <xdr:cNvPr id="14" name="13 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199CF307-3CB3-42D8-AC82-78936854C782}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6816,7 +6815,7 @@
         <xdr:cNvPr id="2" name="1 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E76E20-67BC-467B-BE20-D5AA6FBD2319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6877,7 +6876,7 @@
         <xdr:cNvPr id="3" name="2 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F787931E-2A86-484D-8E21-FE6EC5FFE725}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6938,7 +6937,7 @@
         <xdr:cNvPr id="4" name="3 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D6D12-E262-48D8-95B5-549E7B0A2AFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6999,7 +6998,7 @@
         <xdr:cNvPr id="5" name="4 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB77B4F-2520-4EC5-BC9C-0224313D1784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7060,7 +7059,7 @@
         <xdr:cNvPr id="6" name="5 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934108F8-1A94-4F7A-98D8-C0096D77848D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7121,7 +7120,7 @@
         <xdr:cNvPr id="7" name="6 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23685B79-E624-4581-8EFF-0A81EAA314F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7182,7 +7181,7 @@
         <xdr:cNvPr id="8" name="7 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2930F80F-0085-4C5A-B82D-626A61252ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7243,7 +7242,7 @@
         <xdr:cNvPr id="9" name="8 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B913663A-6329-4B5C-AA78-E8AB4F6AC9A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7304,7 +7303,7 @@
         <xdr:cNvPr id="10" name="9 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79387381-4797-4481-BEBB-FE8135DA57AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7365,7 +7364,7 @@
         <xdr:cNvPr id="11" name="10 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12DBF8-1D73-412D-A55C-96617243EDD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7426,7 +7425,7 @@
         <xdr:cNvPr id="12" name="11 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B124756-5796-4E2C-B22E-78AB3F6871B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7487,7 +7486,7 @@
         <xdr:cNvPr id="13" name="12 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545AAB1-F5B4-4FA9-B6E8-CC8AC328DDAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7548,7 +7547,7 @@
         <xdr:cNvPr id="14" name="13 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199CF307-3CB3-42D8-AC82-78936854C782}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7614,7 +7613,7 @@
         <xdr:cNvPr id="2" name="1 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E76E20-67BC-467B-BE20-D5AA6FBD2319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7675,7 +7674,7 @@
         <xdr:cNvPr id="3" name="2 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F787931E-2A86-484D-8E21-FE6EC5FFE725}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7736,7 +7735,7 @@
         <xdr:cNvPr id="4" name="3 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1D6D12-E262-48D8-95B5-549E7B0A2AFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7797,7 +7796,7 @@
         <xdr:cNvPr id="5" name="4 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB77B4F-2520-4EC5-BC9C-0224313D1784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7858,7 +7857,7 @@
         <xdr:cNvPr id="6" name="5 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934108F8-1A94-4F7A-98D8-C0096D77848D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7919,7 +7918,7 @@
         <xdr:cNvPr id="7" name="6 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23685B79-E624-4581-8EFF-0A81EAA314F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7980,7 +7979,7 @@
         <xdr:cNvPr id="8" name="7 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2930F80F-0085-4C5A-B82D-626A61252ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8041,7 +8040,7 @@
         <xdr:cNvPr id="9" name="8 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B913663A-6329-4B5C-AA78-E8AB4F6AC9A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8102,7 +8101,7 @@
         <xdr:cNvPr id="10" name="9 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79387381-4797-4481-BEBB-FE8135DA57AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8163,7 +8162,7 @@
         <xdr:cNvPr id="11" name="10 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A12DBF8-1D73-412D-A55C-96617243EDD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8224,7 +8223,7 @@
         <xdr:cNvPr id="12" name="11 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B124756-5796-4E2C-B22E-78AB3F6871B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8285,7 +8284,7 @@
         <xdr:cNvPr id="13" name="12 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C545AAB1-F5B4-4FA9-B6E8-CC8AC328DDAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8346,7 +8345,7 @@
         <xdr:cNvPr id="14" name="13 Imagen" descr="http://10.7.2.47/cognos/ppwb/Icon/blank.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199CF307-3CB3-42D8-AC82-78936854C782}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8468,23 +8467,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -8520,23 +8502,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8712,23 +8677,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="16" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="25" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="16" width="7.88671875" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="25" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:23" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -8737,7 +8702,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="14.25">
+    <row r="2" spans="1:23" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -8764,7 +8729,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="14.25">
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -8791,7 +8756,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88" t="s">
         <v>28</v>
       </c>
@@ -8818,7 +8783,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -8841,7 +8806,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
         <v>12</v>
       </c>
@@ -8866,7 +8831,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>29</v>
       </c>
@@ -8891,7 +8856,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
         <v>24</v>
       </c>
@@ -8950,7 +8915,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92"/>
       <c r="B9" s="67" t="s">
         <v>23</v>
@@ -8998,14 +8963,14 @@
         <v>23</v>
       </c>
       <c r="Q9" s="84" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R9" s="94"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="23" customFormat="1" ht="22.5">
+    <row r="10" spans="1:23" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -9055,17 +9020,17 @@
         <v>118708</v>
       </c>
       <c r="Q10" s="36">
-        <v>126199</v>
+        <v>126571</v>
       </c>
       <c r="R10" s="36">
         <f>Q10-P10</f>
-        <v>7491</v>
+        <v>7863</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
     </row>
-    <row r="11" spans="1:23" s="23" customFormat="1">
+    <row r="11" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -9115,17 +9080,17 @@
         <v>399607</v>
       </c>
       <c r="Q11" s="36">
-        <v>399812</v>
+        <v>402175</v>
       </c>
       <c r="R11" s="36">
         <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>205</v>
+        <v>2568</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="1:23" s="23" customFormat="1">
+    <row r="12" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
@@ -9175,17 +9140,17 @@
         <v>145346</v>
       </c>
       <c r="Q12" s="36">
-        <v>150599</v>
+        <v>150009</v>
       </c>
       <c r="R12" s="36">
         <f t="shared" si="0"/>
-        <v>5253</v>
+        <v>4663</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
     </row>
-    <row r="13" spans="1:23" s="23" customFormat="1">
+    <row r="13" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -9235,17 +9200,17 @@
         <v>9814</v>
       </c>
       <c r="Q13" s="36">
-        <v>9971</v>
+        <v>10018</v>
       </c>
       <c r="R13" s="36">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:23" s="23" customFormat="1">
+    <row r="14" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
@@ -9295,17 +9260,17 @@
         <v>508146</v>
       </c>
       <c r="Q14" s="36">
-        <v>517652</v>
+        <v>519869</v>
       </c>
       <c r="R14" s="36">
         <f t="shared" si="0"/>
-        <v>9506</v>
+        <v>11723</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
     </row>
-    <row r="15" spans="1:23" s="23" customFormat="1">
+    <row r="15" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
@@ -9355,17 +9320,17 @@
         <v>2500</v>
       </c>
       <c r="Q15" s="36">
-        <v>2633</v>
+        <v>2476</v>
       </c>
       <c r="R15" s="36">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>-24</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
     </row>
-    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
@@ -9415,17 +9380,17 @@
         <v>644397</v>
       </c>
       <c r="Q16" s="36">
-        <v>653050</v>
+        <v>656605</v>
       </c>
       <c r="R16" s="36">
         <f t="shared" si="0"/>
-        <v>8653</v>
+        <v>12208</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
     </row>
-    <row r="17" spans="1:64" s="23" customFormat="1">
+    <row r="17" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -9475,17 +9440,17 @@
         <v>104444</v>
       </c>
       <c r="Q17" s="36">
-        <v>104603</v>
+        <v>104992</v>
       </c>
       <c r="R17" s="36">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>548</v>
       </c>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
     </row>
-    <row r="18" spans="1:64" s="25" customFormat="1">
+    <row r="18" spans="1:64" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -9550,17 +9515,17 @@
       </c>
       <c r="Q18" s="54">
         <f>SUM(Q10:Q17)</f>
-        <v>1964519</v>
+        <v>1972715</v>
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>31557</v>
+        <v>39753</v>
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="24"/>
     </row>
-    <row r="19" spans="1:64" ht="12.75" customHeight="1">
+    <row r="19" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="61"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -9579,7 +9544,7 @@
       <c r="Q19" s="70"/>
       <c r="R19" s="70"/>
     </row>
-    <row r="20" spans="1:64" ht="24.75" customHeight="1">
+    <row r="20" spans="1:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
         <v>26</v>
       </c>
@@ -9601,7 +9566,7 @@
       <c r="Q20" s="87"/>
       <c r="R20" s="87"/>
     </row>
-    <row r="21" spans="1:64" s="18" customFormat="1" ht="11.25">
+    <row r="21" spans="1:64" s="18" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -9621,12 +9586,12 @@
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
     </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1">
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:64" s="12" customFormat="1">
+    <row r="23" spans="1:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -9716,21 +9681,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -9747,7 +9712,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -9764,7 +9729,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -9781,7 +9746,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2014</v>
       </c>
@@ -9798,7 +9763,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -9813,7 +9778,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -9830,7 +9795,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -9847,7 +9812,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -9866,7 +9831,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -9905,7 +9870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -9946,7 +9911,7 @@
         <v>77509</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -9987,7 +9952,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -10028,7 +9993,7 @@
         <v>363344</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -10069,7 +10034,7 @@
         <v>107248</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -10110,7 +10075,7 @@
         <v>9548</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -10151,7 +10116,7 @@
         <v>295797</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -10192,7 +10157,7 @@
         <v>66390</v>
       </c>
     </row>
-    <row r="17" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -10233,7 +10198,7 @@
         <v>540644</v>
       </c>
     </row>
-    <row r="18" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:95" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -10286,7 +10251,7 @@
         <v>1463340</v>
       </c>
     </row>
-    <row r="19" spans="1:95" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:95" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -10421,7 +10386,7 @@
       <c r="CP19" s="47"/>
       <c r="CQ19" s="47"/>
     </row>
-    <row r="20" spans="1:95" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:95" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -10433,7 +10398,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:95" ht="37.5" customHeight="1">
+    <row r="21" spans="1:95" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -10450,7 +10415,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:95" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -10465,7 +10430,7 @@
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
     </row>
-    <row r="23" spans="1:95" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:95" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -10482,10 +10447,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:95" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:95" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -10497,10 +10462,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:95" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:95" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:95" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:95" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -10523,21 +10488,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -10554,7 +10519,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -10571,7 +10536,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -10588,7 +10553,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2015</v>
       </c>
@@ -10605,7 +10570,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -10620,7 +10585,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -10637,7 +10602,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -10654,7 +10619,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -10673,7 +10638,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -10712,7 +10677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -10753,7 +10718,7 @@
         <v>82606</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -10794,7 +10759,7 @@
         <v>312586</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -10835,7 +10800,7 @@
         <v>119587</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -10876,7 +10841,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -10917,7 +10882,7 @@
         <v>385457</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -10958,7 +10923,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -10999,7 +10964,7 @@
         <v>551836</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -11040,7 +11005,7 @@
         <v>70979</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -11093,7 +11058,7 @@
         <v>1535255</v>
       </c>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -11197,7 +11162,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -11209,7 +11174,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -11226,7 +11191,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -11241,7 +11206,7 @@
       <c r="L22" s="59"/>
       <c r="M22" s="59"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -11258,10 +11223,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -11273,10 +11238,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A10:G17">
     <sortCondition ref="A10:A17"/>
@@ -11297,21 +11262,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -11328,7 +11293,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -11345,7 +11310,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -11362,7 +11327,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2016</v>
       </c>
@@ -11379,7 +11344,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11394,7 +11359,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -11411,7 +11376,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -11428,7 +11393,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -11447,7 +11412,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -11486,7 +11451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -11527,7 +11492,7 @@
         <v>89558</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -11568,7 +11533,7 @@
         <v>334254</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -11609,7 +11574,7 @@
         <v>130890</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -11650,7 +11615,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -11691,7 +11656,7 @@
         <v>407270</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -11732,7 +11697,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -11773,7 +11738,7 @@
         <v>575641</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -11814,7 +11779,7 @@
         <v>74255</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -11871,7 +11836,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -11975,7 +11940,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -11990,7 +11955,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -12007,7 +11972,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -12025,7 +11990,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -12045,10 +12010,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -12060,10 +12025,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12081,22 +12046,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -12113,7 +12078,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -12130,7 +12095,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -12147,7 +12112,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2017</v>
       </c>
@@ -12164,7 +12129,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12179,7 +12144,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -12196,7 +12161,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -12213,7 +12178,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -12232,7 +12197,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -12271,7 +12236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -12312,7 +12277,7 @@
         <v>96726</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -12353,7 +12318,7 @@
         <v>343480</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -12394,7 +12359,7 @@
         <v>144472</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -12435,7 +12400,7 @@
         <v>9194</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -12476,7 +12441,7 @@
         <v>435724</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -12517,7 +12482,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -12558,7 +12523,7 @@
         <v>605107</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -12599,7 +12564,7 @@
         <v>79961</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -12656,7 +12621,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -12760,7 +12725,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -12775,7 +12740,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -12792,7 +12757,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -12810,7 +12775,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -12830,10 +12795,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -12846,10 +12811,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -12867,22 +12832,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -12899,7 +12864,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -12916,7 +12881,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -12933,7 +12898,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2018</v>
       </c>
@@ -12950,7 +12915,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12965,7 +12930,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -12982,7 +12947,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -12999,7 +12964,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -13018,7 +12983,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -13057,7 +13022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -13098,7 +13063,7 @@
         <v>104065</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -13139,7 +13104,7 @@
         <v>354114</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -13180,7 +13145,7 @@
         <v>141254</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -13221,7 +13186,7 @@
         <v>9458</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -13262,7 +13227,7 @@
         <v>452017</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -13303,7 +13268,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -13344,7 +13309,7 @@
         <v>614655</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -13385,7 +13350,7 @@
         <v>82734</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -13442,7 +13407,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -13546,7 +13511,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -13561,7 +13526,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -13578,7 +13543,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -13596,7 +13561,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -13616,10 +13581,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -13632,11 +13597,11 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:64">
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="C30" s="64"/>
     </row>
   </sheetData>
@@ -13656,22 +13621,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -13688,7 +13653,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -13705,7 +13670,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -13722,7 +13687,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2019</v>
       </c>
@@ -13739,7 +13704,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -13754,7 +13719,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -13771,7 +13736,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -13788,7 +13753,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -13807,7 +13772,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -13846,7 +13811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -13887,7 +13852,7 @@
         <v>109333</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -13928,7 +13893,7 @@
         <v>363625</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>3</v>
       </c>
@@ -13969,7 +13934,7 @@
         <v>141943</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -14010,7 +13975,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
@@ -14051,7 +14016,7 @@
         <v>458198</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -14092,7 +14057,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
@@ -14133,7 +14098,7 @@
         <v>640252</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -14174,7 +14139,7 @@
         <v>86968</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -14231,7 +14196,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -14335,7 +14300,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -14350,7 +14315,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -14367,7 +14332,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -14385,7 +14350,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -14405,10 +14370,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -14421,10 +14386,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -14442,22 +14407,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -14474,7 +14439,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -14491,7 +14456,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -14508,7 +14473,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2020</v>
       </c>
@@ -14525,7 +14490,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -14540,7 +14505,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -14557,7 +14522,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -14574,7 +14539,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -14593,7 +14558,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -14632,7 +14597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -14673,7 +14638,7 @@
         <v>111767</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -14714,7 +14679,7 @@
         <v>366999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -14755,7 +14720,7 @@
         <v>133149</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -14796,7 +14761,7 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -14837,7 +14802,7 @@
         <v>452541</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -14878,7 +14843,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -14919,7 +14884,7 @@
         <v>614772</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -14960,7 +14925,7 @@
         <v>88417</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -15017,7 +14982,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -15121,7 +15086,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -15136,7 +15101,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -15153,7 +15118,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -15171,7 +15136,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -15191,10 +15156,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -15207,10 +15172,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -15228,22 +15193,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -15260,7 +15225,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -15277,7 +15242,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -15294,7 +15259,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2021</v>
       </c>
@@ -15311,7 +15276,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -15326,7 +15291,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -15343,7 +15308,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -15360,7 +15325,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -15379,7 +15344,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -15418,7 +15383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -15459,7 +15424,7 @@
         <v>116251</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -15500,7 +15465,7 @@
         <v>388949</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -15541,7 +15506,7 @@
         <v>134547</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -15582,7 +15547,7 @@
         <v>9393</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -15623,7 +15588,7 @@
         <v>480660</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -15664,7 +15629,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -15705,7 +15670,7 @@
         <v>620320</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -15746,7 +15711,7 @@
         <v>97255</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -15802,7 +15767,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -15906,7 +15871,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -15921,7 +15886,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -15938,7 +15903,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -15956,7 +15921,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -15976,10 +15941,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -15992,10 +15957,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -16013,22 +15978,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -16045,7 +16010,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -16062,7 +16027,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -16079,7 +16044,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2022</v>
       </c>
@@ -16096,7 +16061,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -16111,7 +16076,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -16128,7 +16093,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -16145,7 +16110,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -16164,7 +16129,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -16203,7 +16168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -16244,7 +16209,7 @@
         <v>118708</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -16285,7 +16250,7 @@
         <v>399607</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -16326,7 +16291,7 @@
         <v>145346</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -16367,7 +16332,7 @@
         <v>9814</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -16408,7 +16373,7 @@
         <v>508146</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -16449,7 +16414,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -16490,7 +16455,7 @@
         <v>644397</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -16531,7 +16496,7 @@
         <v>104444</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -16588,7 +16553,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -16692,7 +16657,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -16707,7 +16672,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -16724,7 +16689,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -16742,7 +16707,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -16762,10 +16727,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -16778,10 +16743,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -16799,22 +16764,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C17"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="15" max="15" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -16831,7 +16796,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -16848,7 +16813,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -16865,7 +16830,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2023</v>
       </c>
@@ -16882,7 +16847,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -16897,7 +16862,7 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -16914,7 +16879,7 @@
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -16931,7 +16896,7 @@
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -16950,7 +16915,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -16989,7 +16954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
         <v>0</v>
       </c>
@@ -16999,7 +16964,9 @@
       <c r="C10" s="74">
         <v>126199</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="74">
+        <v>126571</v>
+      </c>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
       <c r="G10" s="74"/>
@@ -17010,7 +16977,7 @@
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
     </row>
-    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
@@ -17020,7 +16987,9 @@
       <c r="C11" s="36">
         <v>399812</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="36">
+        <v>402175</v>
+      </c>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
       <c r="G11" s="36"/>
@@ -17031,7 +17000,7 @@
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>3</v>
       </c>
@@ -17041,7 +17010,9 @@
       <c r="C12" s="74">
         <v>150599</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="74">
+        <v>150009</v>
+      </c>
       <c r="E12" s="75"/>
       <c r="F12" s="75"/>
       <c r="G12" s="74"/>
@@ -17052,7 +17023,7 @@
       <c r="L12" s="74"/>
       <c r="M12" s="74"/>
     </row>
-    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
@@ -17062,7 +17033,9 @@
       <c r="C13" s="36">
         <v>9971</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="36">
+        <v>10018</v>
+      </c>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
       <c r="G13" s="36"/>
@@ -17073,7 +17046,7 @@
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>2</v>
       </c>
@@ -17083,7 +17056,9 @@
       <c r="C14" s="74">
         <v>517652</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="74">
+        <v>519869</v>
+      </c>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="74"/>
@@ -17094,7 +17069,7 @@
       <c r="L14" s="74"/>
       <c r="M14" s="74"/>
     </row>
-    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>1</v>
       </c>
@@ -17104,7 +17079,9 @@
       <c r="C15" s="36">
         <v>2633</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="36">
+        <v>2476</v>
+      </c>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
       <c r="G15" s="36"/>
@@ -17115,7 +17092,7 @@
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>7</v>
       </c>
@@ -17125,7 +17102,9 @@
       <c r="C16" s="74">
         <v>653050</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="74">
+        <v>656605</v>
+      </c>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
       <c r="G16" s="74"/>
@@ -17136,7 +17115,7 @@
       <c r="L16" s="74"/>
       <c r="M16" s="74"/>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>6</v>
       </c>
@@ -17146,7 +17125,9 @@
       <c r="C17" s="36">
         <v>104603</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="36">
+        <v>104992</v>
+      </c>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
       <c r="G17" s="36"/>
@@ -17157,7 +17138,7 @@
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
         <v>9</v>
       </c>
@@ -17171,7 +17152,7 @@
       </c>
       <c r="D18" s="79">
         <f t="shared" ref="D18:M18" si="0">SUM(D10:D17)</f>
-        <v>0</v>
+        <v>1972715</v>
       </c>
       <c r="E18" s="79">
         <f>SUM(E10:E17)</f>
@@ -17214,7 +17195,7 @@
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
     </row>
-    <row r="19" spans="1:64" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:64" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -17228,11 +17209,11 @@
       </c>
       <c r="D19" s="58">
         <f t="shared" ref="D19:H19" si="1">+(D18-C18)/C18*100</f>
+        <v>0.41720136074021169</v>
+      </c>
+      <c r="E19" s="58">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="E19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="58" t="e">
         <f t="shared" si="1"/>
@@ -17318,7 +17299,7 @@
       <c r="BK19" s="47"/>
       <c r="BL19" s="47"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -17333,7 +17314,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:64" ht="37.5" customHeight="1">
+    <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -17350,7 +17331,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="59"/>
@@ -17368,7 +17349,7 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:64" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -17388,10 +17369,10 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -17404,10 +17385,10 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:64" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:64" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -17420,33 +17401,32 @@
     <mergeCell ref="B8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="35" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="35" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:44" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -17463,7 +17443,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:44" s="3" customFormat="1" ht="14.25">
+    <row r="2" spans="1:44" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -17511,7 +17491,7 @@
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
     </row>
-    <row r="3" spans="1:44" s="5" customFormat="1" ht="14.25">
+    <row r="3" spans="1:44" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -17559,7 +17539,7 @@
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8"/>
     </row>
-    <row r="4" spans="1:44" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:44" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2000</v>
       </c>
@@ -17607,7 +17587,7 @@
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
     </row>
-    <row r="5" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -17641,7 +17621,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
@@ -17680,7 +17660,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
@@ -17719,7 +17699,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
@@ -17738,7 +17718,7 @@
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
     </row>
-    <row r="9" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
@@ -17777,7 +17757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -17818,7 +17798,7 @@
         <v>46965</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -17859,7 +17839,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -17900,7 +17880,7 @@
         <v>340488</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -17941,7 +17921,7 @@
         <v>65361</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -17982,7 +17962,7 @@
         <v>7333</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -18023,7 +18003,7 @@
         <v>170180</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:44" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -18064,7 +18044,7 @@
         <v>48835</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -18105,7 +18085,7 @@
         <v>353145</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:35" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -18158,7 +18138,7 @@
         <v>1034215</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="1" customFormat="1" ht="22.5">
+    <row r="19" spans="1:35" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -18230,7 +18210,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" s="1" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:35" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="16"/>
       <c r="D20" s="2"/>
@@ -18266,7 +18246,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="32.25" customHeight="1">
+    <row r="21" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -18283,7 +18263,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:35" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="95"/>
       <c r="B22" s="95"/>
       <c r="C22" s="95"/>
@@ -18298,7 +18278,7 @@
       <c r="L22" s="95"/>
       <c r="M22" s="95"/>
     </row>
-    <row r="23" spans="1:35" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:35" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -18315,11 +18295,11 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:35" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:35" ht="17.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:35" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -18328,11 +18308,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:35" ht="17.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:35" ht="17.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:35" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:35" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:35" ht="17.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A21:M21"/>
@@ -18357,23 +18337,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="2" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -18390,7 +18370,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="14.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -18407,7 +18387,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -18424,7 +18404,7 @@
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2001</v>
       </c>
@@ -18441,7 +18421,7 @@
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -18453,7 +18433,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>12</v>
       </c>
@@ -18470,7 +18450,7 @@
       <c r="L6" s="98"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
         <v>13</v>
       </c>
@@ -18487,7 +18467,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="99"/>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="96" t="s">
         <v>24</v>
       </c>
@@ -18506,7 +18486,7 @@
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
     </row>
-    <row r="9" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="97"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
@@ -18545,7 +18525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -18586,7 +18566,7 @@
         <v>46740</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -18627,7 +18607,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -18668,7 +18648,7 @@
         <v>308690</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -18709,7 +18689,7 @@
         <v>61334</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -18750,7 +18730,7 @@
         <v>7640</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -18791,7 +18771,7 @@
         <v>177513</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -18832,7 +18812,7 @@
         <v>51521</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -18873,7 +18853,7 @@
         <v>356553</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -18926,7 +18906,7 @@
         <v>1011723</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="43" customFormat="1" ht="22.5">
+    <row r="19" spans="1:13" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -18979,7 +18959,7 @@
         <v>-1.6293932508233016</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="43" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:13" s="43" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="D20" s="44"/>
@@ -18993,7 +18973,7 @@
       <c r="L20" s="44"/>
       <c r="M20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="22.7" customHeight="1">
+    <row r="21" spans="1:13" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -19010,7 +18990,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="95"/>
       <c r="B22" s="95"/>
       <c r="C22" s="95"/>
@@ -19025,7 +19005,7 @@
       <c r="L22" s="95"/>
       <c r="M22" s="95"/>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -19042,11 +19022,11 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -19055,11 +19035,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A21:M21"/>
@@ -19084,21 +19064,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="2" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -19115,7 +19095,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -19144,7 +19124,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -19173,7 +19153,7 @@
       <c r="X3" s="8"/>
       <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2008</v>
       </c>
@@ -19202,7 +19182,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -19229,7 +19209,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -19258,7 +19238,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -19287,7 +19267,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -19306,7 +19286,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -19345,7 +19325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -19386,7 +19366,7 @@
         <v>55193</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -19427,7 +19407,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -19468,7 +19448,7 @@
         <v>311234</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -19509,7 +19489,7 @@
         <v>84833</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -19550,7 +19530,7 @@
         <v>8854</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -19591,7 +19571,7 @@
         <v>227223</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -19632,7 +19612,7 @@
         <v>57078</v>
       </c>
     </row>
-    <row r="17" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -19673,7 +19653,7 @@
         <v>458010</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:108" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -19726,7 +19706,7 @@
         <v>1204590</v>
       </c>
     </row>
-    <row r="19" spans="1:108" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:108" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -19874,8 +19854,8 @@
       <c r="DC19" s="47"/>
       <c r="DD19" s="47"/>
     </row>
-    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1"/>
-    <row r="21" spans="1:108" ht="22.7" customHeight="1">
+    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:108" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -19892,7 +19872,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -19907,7 +19887,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -19924,10 +19904,10 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -19941,9 +19921,9 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -19958,20 +19938,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:108" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -19995,21 +19975,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="2" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -20026,7 +20006,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="14.25">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -20055,7 +20035,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="14.25">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -20084,7 +20064,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2009</v>
       </c>
@@ -20113,7 +20093,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -20140,7 +20120,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
     </row>
-    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -20169,7 +20149,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -20198,7 +20178,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:25" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:25" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -20217,7 +20197,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -20256,7 +20236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -20298,7 +20278,7 @@
       </c>
       <c r="O10" s="51"/>
     </row>
-    <row r="11" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -20341,7 +20321,7 @@
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
     </row>
-    <row r="12" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -20383,7 +20363,7 @@
       </c>
       <c r="O12" s="51"/>
     </row>
-    <row r="13" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -20425,7 +20405,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -20466,7 +20446,7 @@
         <v>9024</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -20507,7 +20487,7 @@
         <v>226002</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -20548,7 +20528,7 @@
         <v>55965</v>
       </c>
     </row>
-    <row r="17" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -20590,7 +20570,7 @@
       </c>
       <c r="O17" s="51"/>
     </row>
-    <row r="18" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:108" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -20644,7 +20624,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:108" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:108" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -20792,8 +20772,8 @@
       <c r="DC19" s="47"/>
       <c r="DD19" s="47"/>
     </row>
-    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1"/>
-    <row r="21" spans="1:108" ht="22.7" customHeight="1">
+    <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:108" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -20810,7 +20790,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -20825,7 +20805,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:108" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -20842,10 +20822,10 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -20859,11 +20839,11 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -20878,20 +20858,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:108" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -20915,21 +20895,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DC42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="24" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="2" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:24" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -20946,7 +20926,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -20974,7 +20954,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -21002,7 +20982,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:24" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2010</v>
       </c>
@@ -21030,7 +21010,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -21056,7 +21036,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -21084,7 +21064,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -21112,7 +21092,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
-    <row r="8" spans="1:24" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:24" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -21131,7 +21111,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -21170,7 +21150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -21213,7 +21193,7 @@
       <c r="N10" s="51"/>
       <c r="P10" s="51"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -21256,7 +21236,7 @@
       <c r="N11" s="51"/>
       <c r="P11" s="51"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -21300,7 +21280,7 @@
       <c r="P12" s="51"/>
       <c r="R12" s="51"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -21343,7 +21323,7 @@
       <c r="P13" s="51"/>
       <c r="R13" s="51"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -21385,7 +21365,7 @@
       </c>
       <c r="P14" s="51"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -21426,7 +21406,7 @@
         <v>237810</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -21467,7 +21447,7 @@
         <v>57424</v>
       </c>
     </row>
-    <row r="17" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -21509,7 +21489,7 @@
       </c>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:107" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -21563,7 +21543,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:107" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:107" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -21710,10 +21690,10 @@
       <c r="DB19" s="47"/>
       <c r="DC19" s="47"/>
     </row>
-    <row r="20" spans="1:107" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:107" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M20" s="52"/>
     </row>
-    <row r="21" spans="1:107" ht="22.7" customHeight="1">
+    <row r="21" spans="1:107" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -21731,7 +21711,7 @@
       <c r="M21" s="95"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:107" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -21746,7 +21726,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:107" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:107" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -21762,10 +21742,10 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:107" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:107" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -21779,8 +21759,8 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:107" ht="17.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:107" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -21789,7 +21769,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:107" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -21803,20 +21783,20 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:107" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:107" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:107" ht="17.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:107" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -21840,23 +21820,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="2" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:20" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -21873,7 +21853,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -21897,7 +21877,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -21921,7 +21901,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:20" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2011</v>
       </c>
@@ -21945,7 +21925,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -21967,7 +21947,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -21991,7 +21971,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -22015,7 +21995,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:20" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:20" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -22034,7 +22014,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -22073,7 +22053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -22114,7 +22094,7 @@
         <v>64139</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -22155,7 +22135,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -22197,7 +22177,7 @@
       </c>
       <c r="N12" s="51"/>
     </row>
-    <row r="13" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -22239,7 +22219,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -22280,7 +22260,7 @@
         <v>9191</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -22321,7 +22301,7 @@
         <v>254521</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -22362,7 +22342,7 @@
         <v>58951</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -22403,7 +22383,7 @@
         <v>496044</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:103" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -22454,7 +22434,7 @@
         <v>1308282</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:103" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -22597,12 +22577,12 @@
       <c r="CX19" s="47"/>
       <c r="CY19" s="47"/>
     </row>
-    <row r="20" spans="1:103" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:103" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:103" ht="22.7" customHeight="1">
+    <row r="21" spans="1:103" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -22619,7 +22599,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:103" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -22634,7 +22614,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:103" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:103" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -22651,10 +22631,10 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:103" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:103" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -22668,8 +22648,8 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:103" ht="17.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:103" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -22679,7 +22659,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:103" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -22694,20 +22674,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:103" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:103" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:103" ht="17.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:103" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -22731,23 +22711,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="2" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="7.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -22764,7 +22744,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -22782,7 +22762,7 @@
       <c r="M2" s="88"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -22800,7 +22780,7 @@
       <c r="M3" s="88"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2012</v>
       </c>
@@ -22818,7 +22798,7 @@
       <c r="M4" s="88"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -22834,7 +22814,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -22852,7 +22832,7 @@
       <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -22870,7 +22850,7 @@
       <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -22889,7 +22869,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -22928,7 +22908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -22969,7 +22949,7 @@
         <v>69492</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -23010,7 +22990,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -23051,7 +23031,7 @@
         <v>338376</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -23092,7 +23072,7 @@
         <v>95205</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -23133,7 +23113,7 @@
         <v>9246</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -23174,7 +23154,7 @@
         <v>270255</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -23215,7 +23195,7 @@
         <v>61629</v>
       </c>
     </row>
-    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -23256,7 +23236,7 @@
         <v>502496</v>
       </c>
     </row>
-    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -23309,7 +23289,7 @@
         <v>1349657</v>
       </c>
     </row>
-    <row r="19" spans="1:97" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:97" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -23446,7 +23426,7 @@
       <c r="CR19" s="47"/>
       <c r="CS19" s="47"/>
     </row>
-    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -23457,7 +23437,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
     </row>
-    <row r="21" spans="1:97" ht="22.7" customHeight="1">
+    <row r="21" spans="1:97" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -23474,7 +23454,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -23489,7 +23469,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -23506,13 +23486,13 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -23527,20 +23507,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:97" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>
@@ -23564,22 +23544,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="13" width="8" style="29" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="20.25">
+    <row r="1" spans="1:14" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -23596,7 +23576,7 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.7" customHeight="1">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>12</v>
       </c>
@@ -23614,7 +23594,7 @@
       <c r="M2" s="88"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>13</v>
       </c>
@@ -23632,7 +23612,7 @@
       <c r="M3" s="88"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
       <c r="A4" s="88">
         <v>2013</v>
       </c>
@@ -23650,7 +23630,7 @@
       <c r="M4" s="88"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -23666,7 +23646,7 @@
       <c r="M5" s="26"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
@@ -23684,7 +23664,7 @@
       <c r="M6" s="102"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="103" t="s">
         <v>13</v>
       </c>
@@ -23702,7 +23682,7 @@
       <c r="M7" s="103"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>24</v>
       </c>
@@ -23721,7 +23701,7 @@
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
     </row>
-    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
@@ -23760,7 +23740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -23801,7 +23781,7 @@
         <v>70246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
@@ -23842,7 +23822,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>2</v>
       </c>
@@ -23883,7 +23863,7 @@
         <v>347298</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>3</v>
       </c>
@@ -23924,7 +23904,7 @@
         <v>98394</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>4</v>
       </c>
@@ -23965,7 +23945,7 @@
         <v>9369</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>5</v>
       </c>
@@ -24006,7 +23986,7 @@
         <v>282499</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>6</v>
       </c>
@@ -24047,7 +24027,7 @@
         <v>62952</v>
       </c>
     </row>
-    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>7</v>
       </c>
@@ -24088,7 +24068,7 @@
         <v>523456</v>
       </c>
     </row>
-    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:97" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -24142,7 +24122,7 @@
       </c>
       <c r="N18" s="55"/>
     </row>
-    <row r="19" spans="1:97" s="48" customFormat="1" ht="22.5">
+    <row r="19" spans="1:97" s="48" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>8</v>
       </c>
@@ -24279,7 +24259,7 @@
       <c r="CR19" s="47"/>
       <c r="CS19" s="47"/>
     </row>
-    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1">
+    <row r="20" spans="1:97" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -24291,7 +24271,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
     </row>
-    <row r="21" spans="1:97" ht="22.7" customHeight="1">
+    <row r="21" spans="1:97" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>26</v>
       </c>
@@ -24308,7 +24288,7 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
     </row>
-    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -24323,7 +24303,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:97" s="33" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>27</v>
       </c>
@@ -24340,10 +24320,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
     </row>
-    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -24357,13 +24337,13 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -24378,20 +24358,20 @@
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:97" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A21:M21"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="32">
   <si>
     <t>Agricultura, Ganadería, Silvicultura y Pesca</t>
   </si>
@@ -171,7 +171,10 @@
     <t>Por división económica 2007 - 2023</t>
   </si>
   <si>
-    <t>Var mar 2023 respecto a dic 2022</t>
+    <t>Var abr 2023 respecto a mar 2023</t>
+  </si>
+  <si>
+    <t>Var abr 2023 respecto a dic 2022</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,6 +1083,9 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1129,6 +1135,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8678,22 +8687,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL23"/>
+  <dimension ref="A1:BN23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="16" width="7.88671875" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" customWidth="1"/>
-    <col min="19" max="25" width="11.33203125" customWidth="1"/>
+    <col min="2" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="17" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.109375" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" customWidth="1"/>
+    <col min="21" max="27" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
@@ -8702,14 +8713,14 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -8728,15 +8739,17 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -8755,15 +8768,17 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -8782,8 +8797,10 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -8802,62 +8819,68 @@
       <c r="P5" s="66"/>
       <c r="Q5" s="66"/>
       <c r="R5" s="66"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
       <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
       <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
       <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="68">
@@ -8905,18 +8928,22 @@
       <c r="P8" s="85">
         <v>2022</v>
       </c>
-      <c r="Q8" s="85">
+      <c r="Q8" s="105">
         <v>2023</v>
       </c>
-      <c r="R8" s="93" t="s">
+      <c r="R8" s="105"/>
+      <c r="S8" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="T8" s="94" t="s">
+        <v>31</v>
+      </c>
       <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93"/>
       <c r="B9" s="67" t="s">
         <v>23</v>
       </c>
@@ -8965,12 +8992,16 @@
       <c r="Q9" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="94"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="R9" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
       <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
@@ -9023,14 +9054,21 @@
         <v>126571</v>
       </c>
       <c r="R10" s="36">
-        <f>Q10-P10</f>
-        <v>7863</v>
-      </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+        <v>123159</v>
+      </c>
+      <c r="S10" s="36">
+        <f>R10-Q10</f>
+        <v>-3412</v>
+      </c>
+      <c r="T10" s="36">
+        <f>R10-P10</f>
+        <v>4451</v>
+      </c>
       <c r="U10" s="22"/>
-    </row>
-    <row r="11" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+    </row>
+    <row r="11" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -9083,14 +9121,21 @@
         <v>402175</v>
       </c>
       <c r="R11" s="36">
-        <f t="shared" ref="R11:R17" si="0">Q11-P11</f>
-        <v>2568</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+        <v>404779</v>
+      </c>
+      <c r="S11" s="36">
+        <f t="shared" ref="S11:S17" si="0">R11-Q11</f>
+        <v>2604</v>
+      </c>
+      <c r="T11" s="36">
+        <f>R11-P11</f>
+        <v>5172</v>
+      </c>
       <c r="U11" s="22"/>
-    </row>
-    <row r="12" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+    </row>
+    <row r="12" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>3</v>
       </c>
@@ -9143,14 +9188,21 @@
         <v>150009</v>
       </c>
       <c r="R12" s="36">
+        <v>149587</v>
+      </c>
+      <c r="S12" s="36">
         <f t="shared" si="0"/>
-        <v>4663</v>
-      </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+        <v>-422</v>
+      </c>
+      <c r="T12" s="36">
+        <f>R12-P12</f>
+        <v>4241</v>
+      </c>
       <c r="U12" s="22"/>
-    </row>
-    <row r="13" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+    </row>
+    <row r="13" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -9203,14 +9255,21 @@
         <v>10018</v>
       </c>
       <c r="R13" s="36">
+        <v>9992</v>
+      </c>
+      <c r="S13" s="36">
         <f t="shared" si="0"/>
-        <v>204</v>
-      </c>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+        <v>-26</v>
+      </c>
+      <c r="T13" s="36">
+        <f>R13-P13</f>
+        <v>178</v>
+      </c>
       <c r="U13" s="22"/>
-    </row>
-    <row r="14" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+    </row>
+    <row r="14" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
@@ -9263,14 +9322,21 @@
         <v>519869</v>
       </c>
       <c r="R14" s="36">
+        <v>518782</v>
+      </c>
+      <c r="S14" s="36">
         <f t="shared" si="0"/>
-        <v>11723</v>
-      </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+        <v>-1087</v>
+      </c>
+      <c r="T14" s="36">
+        <f>R14-P14</f>
+        <v>10636</v>
+      </c>
       <c r="U14" s="22"/>
-    </row>
-    <row r="15" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+    </row>
+    <row r="15" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>1</v>
       </c>
@@ -9323,14 +9389,21 @@
         <v>2476</v>
       </c>
       <c r="R15" s="36">
+        <v>2545</v>
+      </c>
+      <c r="S15" s="36">
         <f t="shared" si="0"/>
-        <v>-24</v>
-      </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="T15" s="36">
+        <f>R15-P15</f>
+        <v>45</v>
+      </c>
       <c r="U15" s="22"/>
-    </row>
-    <row r="16" spans="1:23" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+    </row>
+    <row r="16" spans="1:25" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
@@ -9383,14 +9456,21 @@
         <v>656605</v>
       </c>
       <c r="R16" s="36">
+        <v>659145</v>
+      </c>
+      <c r="S16" s="36">
         <f t="shared" si="0"/>
-        <v>12208</v>
-      </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
+        <v>2540</v>
+      </c>
+      <c r="T16" s="36">
+        <f>R16-P16</f>
+        <v>14748</v>
+      </c>
       <c r="U16" s="22"/>
-    </row>
-    <row r="17" spans="1:64" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+    </row>
+    <row r="17" spans="1:66" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>6</v>
       </c>
@@ -9443,14 +9523,21 @@
         <v>104992</v>
       </c>
       <c r="R17" s="36">
+        <v>105213</v>
+      </c>
+      <c r="S17" s="36">
         <f t="shared" si="0"/>
-        <v>548</v>
-      </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+        <v>221</v>
+      </c>
+      <c r="T17" s="36">
+        <f>R17-P17</f>
+        <v>769</v>
+      </c>
       <c r="U17" s="22"/>
-    </row>
-    <row r="18" spans="1:64" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+    </row>
+    <row r="18" spans="1:66" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>9</v>
       </c>
@@ -9519,13 +9606,21 @@
       </c>
       <c r="R18" s="54">
         <f>SUM(R10:R17)</f>
-        <v>39753</v>
-      </c>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
+        <v>1973202</v>
+      </c>
+      <c r="S18" s="54">
+        <f>SUM(S10:S17)</f>
+        <v>487</v>
+      </c>
+      <c r="T18" s="54">
+        <f>SUM(T10:T17)</f>
+        <v>40240</v>
+      </c>
       <c r="U18" s="24"/>
-    </row>
-    <row r="19" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+    </row>
+    <row r="19" spans="1:66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="61"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -9543,30 +9638,34 @@
       <c r="P19" s="70"/>
       <c r="Q19" s="70"/>
       <c r="R19" s="70"/>
-    </row>
-    <row r="20" spans="1:64" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+    </row>
+    <row r="20" spans="1:66" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-    </row>
-    <row r="21" spans="1:64" s="18" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+    </row>
+    <row r="21" spans="1:66" s="18" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -9585,13 +9684,15 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
-    </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:64" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -9655,20 +9756,24 @@
       <c r="BJ23" s="14"/>
       <c r="BK23" s="14"/>
       <c r="BL23" s="14"/>
+      <c r="BM23" s="14"/>
+      <c r="BN23" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A11:K17">
     <sortCondition ref="A10:A17"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="A20:R20"/>
+  <mergeCells count="10">
+    <mergeCell ref="A20:T20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A7:T7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="Q8:R8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -9713,55 +9818,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2014</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -9779,60 +9884,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2014</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -10399,21 +10504,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:95" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -10520,55 +10625,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2015</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -10586,60 +10691,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2015</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11175,21 +11280,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -11294,55 +11399,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2016</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -11360,60 +11465,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2016</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -11956,21 +12061,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -12079,55 +12184,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2017</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -12145,60 +12250,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2017</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -12741,21 +12846,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -12865,55 +12970,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2018</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -12931,60 +13036,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2018</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -13527,21 +13632,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -13654,55 +13759,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2019</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -13720,60 +13825,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2019</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -14316,21 +14421,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -14440,55 +14545,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2020</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -14506,60 +14611,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2020</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -15102,21 +15207,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -15226,55 +15331,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2021</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -15292,60 +15397,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2021</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -15887,21 +15992,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -16011,55 +16116,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2022</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -16077,60 +16182,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2022</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -16673,21 +16778,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -16768,7 +16873,7 @@
   <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="E10" sqref="E10:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16797,55 +16902,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2023</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
@@ -16863,60 +16968,60 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2023</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -16967,7 +17072,9 @@
       <c r="D10" s="74">
         <v>126571</v>
       </c>
-      <c r="E10" s="75"/>
+      <c r="E10" s="75">
+        <v>123159</v>
+      </c>
       <c r="F10" s="75"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
@@ -16990,7 +17097,9 @@
       <c r="D11" s="36">
         <v>402175</v>
       </c>
-      <c r="E11" s="76"/>
+      <c r="E11" s="76">
+        <v>404779</v>
+      </c>
       <c r="F11" s="76"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -17013,7 +17122,9 @@
       <c r="D12" s="74">
         <v>150009</v>
       </c>
-      <c r="E12" s="75"/>
+      <c r="E12" s="75">
+        <v>149587</v>
+      </c>
       <c r="F12" s="75"/>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
@@ -17036,7 +17147,9 @@
       <c r="D13" s="36">
         <v>10018</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="76">
+        <v>9992</v>
+      </c>
       <c r="F13" s="76"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
@@ -17059,7 +17172,9 @@
       <c r="D14" s="74">
         <v>519869</v>
       </c>
-      <c r="E14" s="75"/>
+      <c r="E14" s="75">
+        <v>518782</v>
+      </c>
       <c r="F14" s="75"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
@@ -17082,7 +17197,9 @@
       <c r="D15" s="36">
         <v>2476</v>
       </c>
-      <c r="E15" s="76"/>
+      <c r="E15" s="76">
+        <v>2545</v>
+      </c>
       <c r="F15" s="76"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
@@ -17105,7 +17222,9 @@
       <c r="D16" s="74">
         <v>656605</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="75">
+        <v>659145</v>
+      </c>
       <c r="F16" s="75"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
@@ -17128,7 +17247,9 @@
       <c r="D17" s="36">
         <v>104992</v>
       </c>
-      <c r="E17" s="76"/>
+      <c r="E17" s="76">
+        <v>105213</v>
+      </c>
       <c r="F17" s="76"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
@@ -17156,7 +17277,7 @@
       </c>
       <c r="E18" s="79">
         <f>SUM(E10:E17)</f>
-        <v>0</v>
+        <v>1973202</v>
       </c>
       <c r="F18" s="79">
         <f t="shared" si="0"/>
@@ -17213,11 +17334,11 @@
       </c>
       <c r="E19" s="58">
         <f t="shared" si="1"/>
+        <v>2.4686789526109951E-2</v>
+      </c>
+      <c r="F19" s="58">
+        <f t="shared" si="1"/>
         <v>-100</v>
-      </c>
-      <c r="F19" s="58" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G19" s="58" t="e">
         <f>+(G18-F18)/F18*100</f>
@@ -17315,21 +17436,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:64" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -17444,21 +17565,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:44" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -17492,21 +17613,21 @@
       <c r="AR2" s="4"/>
     </row>
     <row r="3" spans="1:44" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -17540,21 +17661,21 @@
       <c r="AR3" s="8"/>
     </row>
     <row r="4" spans="1:44" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2000</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -17622,21 +17743,21 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -17661,21 +17782,21 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:44" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -17700,26 +17821,26 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="98">
         <v>2000</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
     </row>
     <row r="9" spans="1:44" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -18247,36 +18368,36 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="1:35" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -18371,55 +18492,55 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2001</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
@@ -18434,60 +18555,60 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="98">
         <v>2001</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
     </row>
     <row r="9" spans="1:13" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
@@ -18974,36 +19095,36 @@
       <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
     </row>
     <row r="23" spans="1:13" s="18" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -19096,21 +19217,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -19125,21 +19246,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -19154,21 +19275,21 @@
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2008</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -19210,21 +19331,21 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -19239,21 +19360,21 @@
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -19268,26 +19389,26 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2008</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:25" s="43" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -19856,21 +19977,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:108" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -20007,21 +20128,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -20036,21 +20157,21 @@
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -20065,21 +20186,21 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2009</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -20121,21 +20242,21 @@
       <c r="Y5" s="6"/>
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -20150,21 +20271,21 @@
       <c r="Y6" s="6"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -20179,26 +20300,26 @@
       <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:25" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2009</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:25" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -20774,21 +20895,21 @@
     </row>
     <row r="20" spans="1:108" s="49" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:108" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -20927,21 +21048,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -20955,21 +21076,21 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:24" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -20983,21 +21104,21 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2010</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -21037,21 +21158,21 @@
       <c r="X5" s="6"/>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -21065,21 +21186,21 @@
       <c r="X6" s="6"/>
     </row>
     <row r="7" spans="1:24" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -21093,26 +21214,26 @@
       <c r="X7" s="6"/>
     </row>
     <row r="8" spans="1:24" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2010</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -21694,21 +21815,21 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:107" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -21854,21 +21975,21 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -21878,21 +21999,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -21902,21 +22023,21 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2011</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -21948,21 +22069,21 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -21972,21 +22093,21 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -21996,26 +22117,26 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2011</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:20" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -22583,21 +22704,21 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:103" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -22745,57 +22866,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2012</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22815,62 +22936,62 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2012</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -23438,21 +23559,21 @@
       <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -23577,57 +23698,57 @@
       <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A4" s="88">
+      <c r="A4" s="89">
         <v>2013</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23647,62 +23768,62 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>2013</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:14" s="46" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
@@ -24272,21 +24393,21 @@
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:97" ht="22.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
     </row>
     <row r="22" spans="1:97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>

--- a/Tabulados/Jaliscogeneral.xlsx
+++ b/Tabulados/Jaliscogeneral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27FA209-AF0A-4DC8-9B4E-6A6B6CC904EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C6DBF5-A702-4081-BF86-4E9AB6599059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8520" tabRatio="848" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Gral 08-22" sheetId="21" r:id="rId1"/>
@@ -183,10 +183,10 @@
     <t>Por división económica 2007 - 2023</t>
   </si>
   <si>
-    <t>Var may 2023 respecto a abr 2023</t>
+    <t>Var jun 2023 respecto a may 2023</t>
   </si>
   <si>
-    <t>Var may 2023 respecto a dic 2022</t>
+    <t>Var jun 2023 respecto a dic 2022</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8358,9 +8358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8398,9 +8398,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8433,26 +8433,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8485,26 +8468,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirm